--- a/data/raw_data/ParisBeerWeek_evenements.xlsx
+++ b/data/raw_data/ParisBeerWeek_evenements.xlsx
@@ -3345,8 +3345,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -3493,7 +3494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3543,6 +3544,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3849,10 +3854,10 @@
   <dimension ref="A1:AI176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF5" sqref="AF5"/>
+      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3876,7 +3881,8 @@
     <col min="17" max="17" width="10.42578125" style="32" customWidth="1"/>
     <col min="18" max="18" width="23.42578125" style="32" customWidth="1"/>
     <col min="19" max="19" width="10.42578125" style="32" customWidth="1"/>
-    <col min="20" max="23" width="15.85546875" style="32" customWidth="1"/>
+    <col min="20" max="22" width="15.85546875" style="32" customWidth="1"/>
+    <col min="23" max="23" width="23.28515625" style="32" customWidth="1"/>
     <col min="24" max="25" width="14.7109375" style="32" customWidth="1"/>
     <col min="26" max="26" width="65.7109375" style="32" customWidth="1"/>
     <col min="27" max="27" width="23.140625" style="32" customWidth="1"/>
@@ -4056,7 +4062,7 @@
       <c r="V2" s="30">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="15" t="s">
         <v>46</v>
       </c>
       <c r="X2" s="5" t="s">
@@ -4155,7 +4161,7 @@
       <c r="V3" s="30">
         <v>0.875</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="33" t="s">
         <v>58</v>
       </c>
       <c r="X3" s="5" t="s">
@@ -4250,7 +4256,7 @@
       <c r="V4" s="30">
         <v>0.66666666666666663</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="33" t="s">
         <v>67</v>
       </c>
       <c r="X4" s="5" t="s">
@@ -4345,7 +4351,7 @@
       <c r="V5" s="30">
         <v>0.875</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="33" t="s">
         <v>75</v>
       </c>
       <c r="X5" s="5" t="s">
@@ -4441,7 +4447,7 @@
       <c r="V6" s="30">
         <v>0.99305555555555558</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="W6" s="33" t="s">
         <v>86</v>
       </c>
       <c r="X6" s="5" t="s">
@@ -4537,7 +4543,7 @@
       <c r="V7" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="W7" s="33" t="s">
         <v>97</v>
       </c>
       <c r="X7" s="5" t="s">
@@ -4627,7 +4633,7 @@
       <c r="V8" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="W8" s="33" t="s">
         <v>100</v>
       </c>
       <c r="X8" s="5" t="s">
@@ -4717,7 +4723,7 @@
       <c r="V9" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W9" s="5" t="s">
+      <c r="W9" s="33" t="s">
         <v>102</v>
       </c>
       <c r="X9" s="5" t="s">
@@ -4807,7 +4813,7 @@
       <c r="V10" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="W10" s="33" t="s">
         <v>104</v>
       </c>
       <c r="X10" s="5" t="s">
@@ -4897,7 +4903,7 @@
       <c r="V11" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W11" s="5" t="s">
+      <c r="W11" s="33" t="s">
         <v>106</v>
       </c>
       <c r="X11" s="5" t="s">
@@ -4987,7 +4993,7 @@
       <c r="V12" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W12" s="5" t="s">
+      <c r="W12" s="33" t="s">
         <v>108</v>
       </c>
       <c r="X12" s="5" t="s">
@@ -5077,7 +5083,7 @@
       <c r="V13" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W13" s="5" t="s">
+      <c r="W13" s="33" t="s">
         <v>110</v>
       </c>
       <c r="X13" s="5" t="s">
@@ -5167,7 +5173,7 @@
       <c r="V14" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W14" s="5" t="s">
+      <c r="W14" s="33" t="s">
         <v>112</v>
       </c>
       <c r="X14" s="5" t="s">
@@ -5257,7 +5263,7 @@
       <c r="V15" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W15" s="5" t="s">
+      <c r="W15" s="33" t="s">
         <v>114</v>
       </c>
       <c r="X15" s="5" t="s">
@@ -5347,7 +5353,7 @@
       <c r="V16" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W16" s="5" t="s">
+      <c r="W16" s="33" t="s">
         <v>116</v>
       </c>
       <c r="X16" s="5" t="s">
@@ -5436,7 +5442,7 @@
       <c r="V17" s="30">
         <v>0</v>
       </c>
-      <c r="W17" s="5" t="s">
+      <c r="W17" s="33" t="s">
         <v>58</v>
       </c>
       <c r="X17" s="5" t="s">
@@ -5531,7 +5537,7 @@
       <c r="V18" s="30">
         <v>0</v>
       </c>
-      <c r="W18" s="5" t="s">
+      <c r="W18" s="33" t="s">
         <v>75</v>
       </c>
       <c r="X18" s="5" t="s">
@@ -5626,7 +5632,7 @@
       <c r="V19" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W19" s="5" t="s">
+      <c r="W19" s="33" t="s">
         <v>134</v>
       </c>
       <c r="X19" s="5" t="s">
@@ -5719,7 +5725,7 @@
       <c r="V20" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W20" s="5" t="s">
+      <c r="W20" s="33" t="s">
         <v>75</v>
       </c>
       <c r="X20" s="5" t="s">
@@ -5811,7 +5817,7 @@
       <c r="V21" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W21" s="5" t="s">
+      <c r="W21" s="33" t="s">
         <v>155</v>
       </c>
       <c r="X21" s="5" t="s">
@@ -5904,7 +5910,7 @@
       <c r="V22" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W22" s="5" t="s">
+      <c r="W22" s="33" t="s">
         <v>162</v>
       </c>
       <c r="X22" s="5" t="s">
@@ -5997,7 +6003,7 @@
       <c r="V23" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W23" s="5" t="s">
+      <c r="W23" s="33" t="s">
         <v>58</v>
       </c>
       <c r="X23" s="5" t="s">
@@ -6090,7 +6096,7 @@
       <c r="V24" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W24" s="5" t="s">
+      <c r="W24" s="33" t="s">
         <v>172</v>
       </c>
       <c r="X24" s="5" t="s">
@@ -6183,7 +6189,7 @@
       <c r="V25" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W25" s="5" t="s">
+      <c r="W25" s="33" t="s">
         <v>177</v>
       </c>
       <c r="X25" s="5" t="s">
@@ -6275,7 +6281,7 @@
       <c r="V26" s="30">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W26" s="5" t="s">
+      <c r="W26" s="33" t="s">
         <v>186</v>
       </c>
       <c r="X26" s="5" t="s">
@@ -6370,7 +6376,7 @@
       <c r="V27" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W27" s="5" t="s">
+      <c r="W27" s="33" t="s">
         <v>197</v>
       </c>
       <c r="X27" s="5" t="s">
@@ -6456,7 +6462,7 @@
       <c r="V28" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W28" s="5" t="s">
+      <c r="W28" s="33" t="s">
         <v>177</v>
       </c>
       <c r="X28" s="5" t="s">
@@ -6542,7 +6548,7 @@
       <c r="V29" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W29" s="5" t="s">
+      <c r="W29" s="33" t="s">
         <v>199</v>
       </c>
       <c r="X29" s="5" t="s">
@@ -6628,7 +6634,7 @@
       <c r="V30" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W30" s="5" t="s">
+      <c r="W30" s="33" t="s">
         <v>200</v>
       </c>
       <c r="X30" s="5" t="s">
@@ -6714,7 +6720,7 @@
       <c r="V31" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W31" s="5" t="s">
+      <c r="W31" s="33" t="s">
         <v>201</v>
       </c>
       <c r="X31" s="5" t="s">
@@ -6800,7 +6806,7 @@
       <c r="V32" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W32" s="5" t="s">
+      <c r="W32" s="33" t="s">
         <v>202</v>
       </c>
       <c r="X32" s="5" t="s">
@@ -6886,7 +6892,7 @@
       <c r="V33" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W33" s="5" t="s">
+      <c r="W33" s="33" t="s">
         <v>134</v>
       </c>
       <c r="X33" s="5" t="s">
@@ -6972,7 +6978,7 @@
       <c r="V34" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W34" s="5" t="s">
+      <c r="W34" s="33" t="s">
         <v>203</v>
       </c>
       <c r="X34" s="5" t="s">
@@ -7058,7 +7064,7 @@
       <c r="V35" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W35" s="5" t="s">
+      <c r="W35" s="33" t="s">
         <v>211</v>
       </c>
       <c r="X35" s="5" t="s">
@@ -7151,7 +7157,7 @@
       <c r="V36" s="30">
         <v>0.75</v>
       </c>
-      <c r="W36" s="5" t="s">
+      <c r="W36" s="33" t="s">
         <v>68</v>
       </c>
       <c r="X36" s="5" t="s">
@@ -7244,7 +7250,7 @@
       <c r="V37" s="30">
         <v>0.875</v>
       </c>
-      <c r="W37" s="5" t="s">
+      <c r="W37" s="33" t="s">
         <v>227</v>
       </c>
       <c r="X37" s="5" t="s">
@@ -7336,7 +7342,7 @@
       <c r="V38" s="30">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W38" s="5" t="s">
+      <c r="W38" s="33" t="s">
         <v>236</v>
       </c>
       <c r="X38" s="5" t="s">
@@ -7428,7 +7434,7 @@
       <c r="V39" s="30">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W39" s="5" t="s">
+      <c r="W39" s="33" t="s">
         <v>46</v>
       </c>
       <c r="X39" s="5" t="s">
@@ -7521,7 +7527,7 @@
       <c r="V40" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W40" s="5" t="s">
+      <c r="W40" s="33" t="s">
         <v>197</v>
       </c>
       <c r="X40" s="5" t="s">
@@ -7612,7 +7618,7 @@
       <c r="V41" s="30">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W41" s="5" t="s">
+      <c r="W41" s="33" t="s">
         <v>177</v>
       </c>
       <c r="X41" s="5" t="s">
@@ -7705,7 +7711,7 @@
       <c r="V42" s="30">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W42" s="5" t="s">
+      <c r="W42" s="33" t="s">
         <v>201</v>
       </c>
       <c r="X42" s="5" t="s">
@@ -7797,7 +7803,7 @@
       <c r="V43" s="30">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W43" s="5" t="s">
+      <c r="W43" s="33" t="s">
         <v>134</v>
       </c>
       <c r="X43" s="5" t="s">
@@ -7895,7 +7901,7 @@
       <c r="V44" s="30">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W44" s="5" t="s">
+      <c r="W44" s="33" t="s">
         <v>134</v>
       </c>
       <c r="X44" s="5" t="s">
@@ -7993,7 +7999,7 @@
       <c r="V45" s="30">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W45" s="5" t="s">
+      <c r="W45" s="33" t="s">
         <v>202</v>
       </c>
       <c r="X45" s="5" t="s">
@@ -8083,7 +8089,7 @@
       <c r="V46" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W46" s="5" t="s">
+      <c r="W46" s="33" t="s">
         <v>299</v>
       </c>
       <c r="X46" s="5" t="s">
@@ -8179,7 +8185,7 @@
       <c r="V47" s="30">
         <v>0.75</v>
       </c>
-      <c r="W47" s="5" t="s">
+      <c r="W47" s="33" t="s">
         <v>68</v>
       </c>
       <c r="X47" s="5" t="s">
@@ -8272,7 +8278,7 @@
       <c r="V48" s="30">
         <v>0</v>
       </c>
-      <c r="W48" s="5" t="s">
+      <c r="W48" s="33" t="s">
         <v>202</v>
       </c>
       <c r="X48" s="5" t="s">
@@ -8365,7 +8371,7 @@
       <c r="V49" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W49" s="5" t="s">
+      <c r="W49" s="33" t="s">
         <v>321</v>
       </c>
       <c r="X49" s="5" t="s">
@@ -8448,7 +8454,7 @@
       <c r="V50" s="30">
         <v>0.52083333333333337</v>
       </c>
-      <c r="W50" s="5" t="s">
+      <c r="W50" s="33" t="s">
         <v>330</v>
       </c>
       <c r="X50" s="5" t="s">
@@ -8540,7 +8546,7 @@
       <c r="V51" s="30">
         <v>0.6875</v>
       </c>
-      <c r="W51" s="5" t="s">
+      <c r="W51" s="33" t="s">
         <v>339</v>
       </c>
       <c r="X51" s="5" t="s">
@@ -8626,7 +8632,7 @@
       <c r="V52" s="30">
         <v>0.6875</v>
       </c>
-      <c r="W52" s="5" t="s">
+      <c r="W52" s="33" t="s">
         <v>344</v>
       </c>
       <c r="X52" s="5" t="s">
@@ -8718,7 +8724,7 @@
       <c r="V53" s="30">
         <v>0.6875</v>
       </c>
-      <c r="W53" s="5" t="s">
+      <c r="W53" s="33" t="s">
         <v>349</v>
       </c>
       <c r="X53" s="5" t="s">
@@ -8814,7 +8820,7 @@
       <c r="V54" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W54" s="5" t="s">
+      <c r="W54" s="33" t="s">
         <v>357</v>
       </c>
       <c r="X54" s="5" t="s">
@@ -8907,7 +8913,7 @@
       <c r="V55" s="30">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W55" s="5" t="s">
+      <c r="W55" s="33" t="s">
         <v>344</v>
       </c>
       <c r="X55" s="5" t="s">
@@ -9000,7 +9006,7 @@
       <c r="V56" s="30">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W56" s="5" t="s">
+      <c r="W56" s="33" t="s">
         <v>211</v>
       </c>
       <c r="X56" s="5" t="s">
@@ -9093,7 +9099,7 @@
       <c r="V57" s="30">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W57" s="5" t="s">
+      <c r="W57" s="33" t="s">
         <v>378</v>
       </c>
       <c r="X57" s="5" t="s">
@@ -9186,7 +9192,7 @@
       <c r="V58" s="30">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W58" s="5" t="s">
+      <c r="W58" s="33" t="s">
         <v>321</v>
       </c>
       <c r="X58" s="5" t="s">
@@ -9281,7 +9287,7 @@
       <c r="V59" s="30">
         <v>0</v>
       </c>
-      <c r="W59" s="5" t="s">
+      <c r="W59" s="33" t="s">
         <v>197</v>
       </c>
       <c r="X59" s="5" t="s">
@@ -9374,7 +9380,7 @@
       <c r="V60" s="30">
         <v>0</v>
       </c>
-      <c r="W60" s="5" t="s">
+      <c r="W60" s="33" t="s">
         <v>134</v>
       </c>
       <c r="X60" s="5" t="s">
@@ -9467,7 +9473,7 @@
       <c r="V61" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W61" s="5" t="s">
+      <c r="W61" s="33" t="s">
         <v>162</v>
       </c>
       <c r="X61" s="5" t="s">
@@ -9560,7 +9566,7 @@
       <c r="V62" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W62" s="5" t="s">
+      <c r="W62" s="33" t="s">
         <v>413</v>
       </c>
       <c r="X62" s="5" t="s">
@@ -9653,7 +9659,7 @@
       <c r="V63" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W63" s="5" t="s">
+      <c r="W63" s="33" t="s">
         <v>86</v>
       </c>
       <c r="X63" s="5" t="s">
@@ -9746,7 +9752,7 @@
       <c r="V64" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W64" s="5" t="s">
+      <c r="W64" s="33" t="s">
         <v>86</v>
       </c>
       <c r="X64" s="5" t="s">
@@ -9839,7 +9845,7 @@
       <c r="V65" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W65" s="5" t="s">
+      <c r="W65" s="33" t="s">
         <v>155</v>
       </c>
       <c r="X65" s="5" t="s">
@@ -9932,7 +9938,7 @@
       <c r="V66" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W66" s="5" t="s">
+      <c r="W66" s="33" t="s">
         <v>155</v>
       </c>
       <c r="X66" s="5" t="s">
@@ -10027,7 +10033,7 @@
       <c r="V67" s="30">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W67" s="5" t="s">
+      <c r="W67" s="33" t="s">
         <v>433</v>
       </c>
       <c r="X67" s="5" t="s">
@@ -10120,7 +10126,7 @@
       <c r="V68" s="30">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W68" s="5" t="s">
+      <c r="W68" s="33" t="s">
         <v>58</v>
       </c>
       <c r="X68" s="5" t="s">
@@ -10213,7 +10219,7 @@
       <c r="V69" s="30">
         <v>0.75</v>
       </c>
-      <c r="W69" s="5" t="s">
+      <c r="W69" s="33" t="s">
         <v>449</v>
       </c>
       <c r="X69" s="5" t="s">
@@ -10306,7 +10312,7 @@
       <c r="V70" s="30">
         <v>0.75</v>
       </c>
-      <c r="W70" s="5" t="s">
+      <c r="W70" s="33" t="s">
         <v>449</v>
       </c>
       <c r="X70" s="5" t="s">
@@ -10399,7 +10405,7 @@
       <c r="V71" s="30">
         <v>0.79166666666666663</v>
       </c>
-      <c r="W71" s="5" t="s">
+      <c r="W71" s="33" t="s">
         <v>457</v>
       </c>
       <c r="X71" s="5" t="s">
@@ -10492,7 +10498,7 @@
       <c r="V72" s="30">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W72" s="5" t="s">
+      <c r="W72" s="33" t="s">
         <v>463</v>
       </c>
       <c r="X72" s="5" t="s">
@@ -10585,7 +10591,7 @@
       <c r="V73" s="30">
         <v>0</v>
       </c>
-      <c r="W73" s="5" t="s">
+      <c r="W73" s="33" t="s">
         <v>75</v>
       </c>
       <c r="X73" s="5" t="s">
@@ -10678,7 +10684,7 @@
       <c r="V74" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W74" s="5" t="s">
+      <c r="W74" s="33" t="s">
         <v>457</v>
       </c>
       <c r="X74" s="5" t="s">
@@ -10771,7 +10777,7 @@
       <c r="V75" s="30">
         <v>0.77083333333333337</v>
       </c>
-      <c r="W75" s="5" t="s">
+      <c r="W75" s="33" t="s">
         <v>187</v>
       </c>
       <c r="X75" s="5" t="s">
@@ -10864,7 +10870,7 @@
       <c r="V76" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W76" s="5" t="s">
+      <c r="W76" s="33" t="s">
         <v>484</v>
       </c>
       <c r="X76" s="5" t="s">
@@ -10957,7 +10963,7 @@
       <c r="V77" s="30">
         <v>4.1666666666666657E-2</v>
       </c>
-      <c r="W77" s="5" t="s">
+      <c r="W77" s="33" t="s">
         <v>155</v>
       </c>
       <c r="X77" s="5" t="s">
@@ -11050,7 +11056,7 @@
       <c r="V78" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W78" s="5" t="s">
+      <c r="W78" s="33" t="s">
         <v>321</v>
       </c>
       <c r="X78" s="5" t="s">
@@ -11142,7 +11148,7 @@
       <c r="V79" s="30">
         <v>0</v>
       </c>
-      <c r="W79" s="5" t="s">
+      <c r="W79" s="33" t="s">
         <v>172</v>
       </c>
       <c r="X79" s="5" t="s">
@@ -11238,7 +11244,7 @@
       <c r="V80" s="30">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W80" s="5" t="s">
+      <c r="W80" s="33" t="s">
         <v>155</v>
       </c>
       <c r="X80" s="5" t="s">
@@ -11331,7 +11337,7 @@
       <c r="V81" s="30">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W81" s="5" t="s">
+      <c r="W81" s="33" t="s">
         <v>46</v>
       </c>
       <c r="X81" s="5" t="s">
@@ -11424,7 +11430,7 @@
       <c r="V82" s="30">
         <v>0.875</v>
       </c>
-      <c r="W82" s="5" t="s">
+      <c r="W82" s="33" t="s">
         <v>200</v>
       </c>
       <c r="X82" s="5" t="s">
@@ -11517,7 +11523,7 @@
       <c r="V83" s="30">
         <v>0.875</v>
       </c>
-      <c r="W83" s="5" t="s">
+      <c r="W83" s="33" t="s">
         <v>200</v>
       </c>
       <c r="X83" s="5" t="s">
@@ -11610,7 +11616,7 @@
       <c r="V84" s="30">
         <v>0.85416666666666663</v>
       </c>
-      <c r="W84" s="5" t="s">
+      <c r="W84" s="33" t="s">
         <v>524</v>
       </c>
       <c r="X84" s="5" t="s">
@@ -11703,7 +11709,7 @@
       <c r="V85" s="30">
         <v>0.75</v>
       </c>
-      <c r="W85" s="5" t="s">
+      <c r="W85" s="33" t="s">
         <v>534</v>
       </c>
       <c r="X85" s="5" t="s">
@@ -11796,7 +11802,7 @@
       <c r="V86" s="30">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W86" s="5" t="s">
+      <c r="W86" s="33" t="s">
         <v>449</v>
       </c>
       <c r="X86" s="5" t="s">
@@ -11889,7 +11895,7 @@
       <c r="V87" s="30">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W87" s="5" t="s">
+      <c r="W87" s="33" t="s">
         <v>544</v>
       </c>
       <c r="X87" s="5" t="s">
@@ -11982,7 +11988,7 @@
       <c r="V88" s="30">
         <v>4.1666666666666657E-2</v>
       </c>
-      <c r="W88" s="5" t="s">
+      <c r="W88" s="33" t="s">
         <v>557</v>
       </c>
       <c r="X88" s="5" t="s">
@@ -12072,7 +12078,7 @@
       <c r="V89" s="30">
         <v>0.875</v>
       </c>
-      <c r="W89" s="5" t="s">
+      <c r="W89" s="33" t="s">
         <v>197</v>
       </c>
       <c r="X89" s="5" t="s">
@@ -12165,7 +12171,7 @@
       <c r="V90" s="30">
         <v>0.6875</v>
       </c>
-      <c r="W90" s="5" t="s">
+      <c r="W90" s="33" t="s">
         <v>574</v>
       </c>
       <c r="X90" s="5" t="s">
@@ -12257,7 +12263,7 @@
       <c r="V91" s="30">
         <v>4.1666666666666657E-2</v>
       </c>
-      <c r="W91" s="5" t="s">
+      <c r="W91" s="33" t="s">
         <v>134</v>
       </c>
       <c r="X91" s="5" t="s">
@@ -12350,7 +12356,7 @@
       <c r="V92" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W92" s="5" t="s">
+      <c r="W92" s="33" t="s">
         <v>197</v>
       </c>
       <c r="X92" s="5" t="s">
@@ -12437,7 +12443,7 @@
       <c r="V93" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W93" s="5" t="s">
+      <c r="W93" s="33" t="s">
         <v>177</v>
       </c>
       <c r="X93" s="5" t="s">
@@ -12524,7 +12530,7 @@
       <c r="V94" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W94" s="5" t="s">
+      <c r="W94" s="33" t="s">
         <v>199</v>
       </c>
       <c r="X94" s="5" t="s">
@@ -12611,7 +12617,7 @@
       <c r="V95" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W95" s="5" t="s">
+      <c r="W95" s="33" t="s">
         <v>200</v>
       </c>
       <c r="X95" s="5" t="s">
@@ -12698,7 +12704,7 @@
       <c r="V96" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W96" s="5" t="s">
+      <c r="W96" s="33" t="s">
         <v>201</v>
       </c>
       <c r="X96" s="5" t="s">
@@ -12785,7 +12791,7 @@
       <c r="V97" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W97" s="5" t="s">
+      <c r="W97" s="33" t="s">
         <v>202</v>
       </c>
       <c r="X97" s="5" t="s">
@@ -12872,7 +12878,7 @@
       <c r="V98" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W98" s="5" t="s">
+      <c r="W98" s="33" t="s">
         <v>134</v>
       </c>
       <c r="X98" s="5" t="s">
@@ -12959,7 +12965,7 @@
       <c r="V99" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W99" s="5" t="s">
+      <c r="W99" s="33" t="s">
         <v>203</v>
       </c>
       <c r="X99" s="5" t="s">
@@ -13046,7 +13052,7 @@
       <c r="V100" s="30">
         <v>0.625</v>
       </c>
-      <c r="W100" s="5" t="s">
+      <c r="W100" s="33" t="s">
         <v>599</v>
       </c>
       <c r="X100" s="5" t="s">
@@ -13139,7 +13145,7 @@
       <c r="V101" s="30">
         <v>0.625</v>
       </c>
-      <c r="W101" s="5" t="s">
+      <c r="W101" s="33" t="s">
         <v>606</v>
       </c>
       <c r="X101" s="5" t="s">
@@ -13234,7 +13240,7 @@
       <c r="V102" s="30">
         <v>0.79166666666666663</v>
       </c>
-      <c r="W102" s="5" t="s">
+      <c r="W102" s="33" t="s">
         <v>46</v>
       </c>
       <c r="X102" s="5" t="s">
@@ -13322,7 +13328,7 @@
       <c r="V103" s="30">
         <v>0.66666666666666663</v>
       </c>
-      <c r="W103" s="5" t="s">
+      <c r="W103" s="33" t="s">
         <v>621</v>
       </c>
       <c r="X103" s="5" t="s">
@@ -13409,7 +13415,7 @@
       <c r="V104" s="30">
         <v>0.66666666666666663</v>
       </c>
-      <c r="W104" s="5" t="s">
+      <c r="W104" s="33" t="s">
         <v>627</v>
       </c>
       <c r="X104" s="5" t="s">
@@ -13502,7 +13508,7 @@
       <c r="V105" s="30">
         <v>0.66666666666666663</v>
       </c>
-      <c r="W105" s="5" t="s">
+      <c r="W105" s="33" t="s">
         <v>627</v>
       </c>
       <c r="X105" s="5" t="s">
@@ -13594,7 +13600,7 @@
       <c r="V106" s="30">
         <v>0.64583333333333337</v>
       </c>
-      <c r="W106" s="5" t="s">
+      <c r="W106" s="33" t="s">
         <v>644</v>
       </c>
       <c r="X106" s="5" t="s">
@@ -13689,7 +13695,7 @@
       <c r="V107" s="30">
         <v>0.75</v>
       </c>
-      <c r="W107" s="5" t="s">
+      <c r="W107" s="33" t="s">
         <v>656</v>
       </c>
       <c r="X107" s="5" t="s">
@@ -13784,7 +13790,7 @@
       <c r="V108" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W108" s="5" t="s">
+      <c r="W108" s="33" t="s">
         <v>162</v>
       </c>
       <c r="X108" s="5" t="s">
@@ -13876,7 +13882,7 @@
       <c r="V109" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W109" s="5" t="s">
+      <c r="W109" s="33" t="s">
         <v>155</v>
       </c>
       <c r="X109" s="5" t="s">
@@ -13968,7 +13974,7 @@
       <c r="V110" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W110" s="5" t="s">
+      <c r="W110" s="33" t="s">
         <v>172</v>
       </c>
       <c r="X110" s="5" t="s">
@@ -14060,7 +14066,7 @@
       <c r="V111" s="30">
         <v>0</v>
       </c>
-      <c r="W111" s="5" t="s">
+      <c r="W111" s="33" t="s">
         <v>58</v>
       </c>
       <c r="X111" s="5" t="s">
@@ -14155,7 +14161,7 @@
       <c r="V112" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="W112" s="5" t="s">
+      <c r="W112" s="33" t="s">
         <v>686</v>
       </c>
       <c r="X112" s="5" t="s">
@@ -14231,7 +14237,7 @@
       </c>
       <c r="U113" s="30"/>
       <c r="V113" s="30"/>
-      <c r="W113" s="5" t="s">
+      <c r="W113" s="33" t="s">
         <v>379</v>
       </c>
       <c r="X113" s="5" t="s">
@@ -14314,7 +14320,7 @@
       <c r="V114" s="30">
         <v>0.79166666666666663</v>
       </c>
-      <c r="W114" s="5" t="s">
+      <c r="W114" s="33" t="s">
         <v>705</v>
       </c>
       <c r="X114" s="5" t="s">
@@ -14409,7 +14415,7 @@
       <c r="V115" s="30">
         <v>0.79166666666666663</v>
       </c>
-      <c r="W115" s="5" t="s">
+      <c r="W115" s="33" t="s">
         <v>705</v>
       </c>
       <c r="X115" s="5" t="s">
@@ -14498,7 +14504,7 @@
       <c r="V116" s="30">
         <v>0.75</v>
       </c>
-      <c r="W116" s="5" t="s">
+      <c r="W116" s="33" t="s">
         <v>46</v>
       </c>
       <c r="X116" s="5" t="s">
@@ -14584,7 +14590,7 @@
       <c r="V117" s="30">
         <v>0.75</v>
       </c>
-      <c r="W117" s="5" t="s">
+      <c r="W117" s="33" t="s">
         <v>46</v>
       </c>
       <c r="X117" s="5" t="s">
@@ -14679,7 +14685,7 @@
       <c r="V118" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W118" s="5" t="s">
+      <c r="W118" s="33" t="s">
         <v>484</v>
       </c>
       <c r="X118" s="5" t="s">
@@ -14774,7 +14780,7 @@
       <c r="V119" s="30">
         <v>0.79166666666666663</v>
       </c>
-      <c r="W119" s="5" t="s">
+      <c r="W119" s="33" t="s">
         <v>740</v>
       </c>
       <c r="X119" s="5" t="s">
@@ -14864,7 +14870,7 @@
       <c r="V120" s="30">
         <v>0.79166666666666663</v>
       </c>
-      <c r="W120" s="5" t="s">
+      <c r="W120" s="33" t="s">
         <v>740</v>
       </c>
       <c r="X120" s="5" t="s">
@@ -14957,7 +14963,7 @@
       <c r="V121" s="30">
         <v>0.79166666666666663</v>
       </c>
-      <c r="W121" s="5" t="s">
+      <c r="W121" s="33" t="s">
         <v>339</v>
       </c>
       <c r="X121" s="5" t="s">
@@ -15050,7 +15056,7 @@
       <c r="V122" s="30">
         <v>0.79166666666666663</v>
       </c>
-      <c r="W122" s="5" t="s">
+      <c r="W122" s="33" t="s">
         <v>759</v>
       </c>
       <c r="X122" s="5" t="s">
@@ -15143,7 +15149,7 @@
       <c r="V123" s="30">
         <v>0.79166666666666663</v>
       </c>
-      <c r="W123" s="5" t="s">
+      <c r="W123" s="33" t="s">
         <v>449</v>
       </c>
       <c r="X123" s="5" t="s">
@@ -15235,7 +15241,7 @@
       <c r="V124" s="30">
         <v>0.79166666666666663</v>
       </c>
-      <c r="W124" s="5" t="s">
+      <c r="W124" s="33" t="s">
         <v>771</v>
       </c>
       <c r="X124" s="5" t="s">
@@ -15333,7 +15339,7 @@
       <c r="V125" s="30">
         <v>0.85416666666666663</v>
       </c>
-      <c r="W125" s="5" t="s">
+      <c r="W125" s="33" t="s">
         <v>321</v>
       </c>
       <c r="X125" s="5" t="s">
@@ -15429,7 +15435,7 @@
       <c r="V126" s="30">
         <v>0.70833333333333337</v>
       </c>
-      <c r="W126" s="5" t="s">
+      <c r="W126" s="33" t="s">
         <v>534</v>
       </c>
       <c r="X126" s="5" t="s">
@@ -15522,7 +15528,7 @@
       <c r="V127" s="30">
         <v>0.79166666666666663</v>
       </c>
-      <c r="W127" s="5" t="s">
+      <c r="W127" s="33" t="s">
         <v>321</v>
       </c>
       <c r="X127" s="5" t="s">
@@ -15614,7 +15620,7 @@
       <c r="V128" s="30">
         <v>0.875</v>
       </c>
-      <c r="W128" s="5" t="s">
+      <c r="W128" s="33" t="s">
         <v>162</v>
       </c>
       <c r="X128" s="5" t="s">
@@ -15704,7 +15710,7 @@
       <c r="V129" s="30">
         <v>0.875</v>
       </c>
-      <c r="W129" s="5" t="s">
+      <c r="W129" s="33" t="s">
         <v>162</v>
       </c>
       <c r="X129" s="5" t="s">
@@ -15797,7 +15803,7 @@
       <c r="V130" s="30">
         <v>0.16666666666666671</v>
       </c>
-      <c r="W130" s="5" t="s">
+      <c r="W130" s="33" t="s">
         <v>236</v>
       </c>
       <c r="X130" s="5" t="s">
@@ -15890,7 +15896,7 @@
       <c r="V131" s="30">
         <v>0.16666666666666671</v>
       </c>
-      <c r="W131" s="5" t="s">
+      <c r="W131" s="33" t="s">
         <v>197</v>
       </c>
       <c r="X131" s="5" t="s">
@@ -15983,7 +15989,7 @@
       <c r="V132" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W132" s="5" t="s">
+      <c r="W132" s="33" t="s">
         <v>200</v>
       </c>
       <c r="X132" s="5" t="s">
@@ -16076,7 +16082,7 @@
       <c r="V133" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W133" s="5" t="s">
+      <c r="W133" s="33" t="s">
         <v>201</v>
       </c>
       <c r="X133" s="5" t="s">
@@ -16169,7 +16175,7 @@
       <c r="V134" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W134" s="5" t="s">
+      <c r="W134" s="33" t="s">
         <v>202</v>
       </c>
       <c r="X134" s="5" t="s">
@@ -16261,7 +16267,7 @@
       <c r="V135" s="30">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W135" s="5" t="s">
+      <c r="W135" s="33" t="s">
         <v>162</v>
       </c>
       <c r="X135" s="5" t="s">
@@ -16357,7 +16363,7 @@
       <c r="V136" s="30">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W136" s="5" t="s">
+      <c r="W136" s="33" t="s">
         <v>162</v>
       </c>
       <c r="X136" s="5" t="s">
@@ -16450,7 +16456,7 @@
       <c r="V137" s="30">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W137" s="5" t="s">
+      <c r="W137" s="33" t="s">
         <v>853</v>
       </c>
       <c r="X137" s="5" t="s">
@@ -16539,7 +16545,7 @@
       <c r="V138" s="31">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W138" s="22" t="s">
+      <c r="W138" s="34" t="s">
         <v>855</v>
       </c>
       <c r="X138" s="22" t="s">
@@ -16632,7 +16638,7 @@
       <c r="V139" s="31">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W139" s="22" t="s">
+      <c r="W139" s="34" t="s">
         <v>186</v>
       </c>
       <c r="X139" s="22" t="s">
@@ -16725,7 +16731,7 @@
       <c r="V140" s="31">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W140" s="22" t="s">
+      <c r="W140" s="34" t="s">
         <v>857</v>
       </c>
       <c r="X140" s="22" t="s">
@@ -16818,7 +16824,7 @@
       <c r="V141" s="31">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W141" s="22" t="s">
+      <c r="W141" s="34" t="s">
         <v>858</v>
       </c>
       <c r="X141" s="22" t="s">
@@ -16911,7 +16917,7 @@
       <c r="V142" s="31">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W142" s="22" t="s">
+      <c r="W142" s="34" t="s">
         <v>299</v>
       </c>
       <c r="X142" s="22" t="s">
@@ -17004,7 +17010,7 @@
       <c r="V143" s="31">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W143" s="22" t="s">
+      <c r="W143" s="34" t="s">
         <v>859</v>
       </c>
       <c r="X143" s="22" t="s">
@@ -17097,7 +17103,7 @@
       <c r="V144" s="31">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W144" s="22" t="s">
+      <c r="W144" s="34" t="s">
         <v>627</v>
       </c>
       <c r="X144" s="22" t="s">
@@ -17190,7 +17196,7 @@
       <c r="V145" s="31">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W145" s="22" t="s">
+      <c r="W145" s="34" t="s">
         <v>861</v>
       </c>
       <c r="X145" s="22" t="s">
@@ -17283,7 +17289,7 @@
       <c r="V146" s="31">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W146" s="22" t="s">
+      <c r="W146" s="34" t="s">
         <v>863</v>
       </c>
       <c r="X146" s="22" t="s">
@@ -17373,7 +17379,7 @@
       <c r="V147" s="30">
         <v>4.1666666666666657E-2</v>
       </c>
-      <c r="W147" s="5" t="s">
+      <c r="W147" s="34" t="s">
         <v>202</v>
       </c>
       <c r="X147" s="5" t="s">
@@ -17468,7 +17474,7 @@
       <c r="V148" s="30">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W148" s="5" t="s">
+      <c r="W148" s="33" t="s">
         <v>58</v>
       </c>
       <c r="X148" s="5" t="s">
@@ -17563,7 +17569,7 @@
       <c r="V149" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W149" s="5" t="s">
+      <c r="W149" s="33" t="s">
         <v>172</v>
       </c>
       <c r="X149" s="5" t="s">
@@ -17658,7 +17664,7 @@
       <c r="V150" s="30">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W150" s="5" t="s">
+      <c r="W150" s="33" t="s">
         <v>58</v>
       </c>
       <c r="X150" s="5" t="s">
@@ -17756,7 +17762,7 @@
       <c r="V151" s="30">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W151" s="5" t="s">
+      <c r="W151" s="33" t="s">
         <v>58</v>
       </c>
       <c r="X151" s="5" t="s">
@@ -17848,7 +17854,7 @@
       <c r="V152" s="30">
         <v>0.66666666666666663</v>
       </c>
-      <c r="W152" s="5" t="s">
+      <c r="W152" s="33" t="s">
         <v>859</v>
       </c>
       <c r="X152" s="5" t="s">
@@ -17943,7 +17949,7 @@
       <c r="V153" s="30">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W153" s="5" t="s">
+      <c r="W153" s="33" t="s">
         <v>186</v>
       </c>
       <c r="X153" s="5" t="s">
@@ -18038,7 +18044,7 @@
       <c r="V154" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W154" s="5" t="s">
+      <c r="W154" s="33" t="s">
         <v>857</v>
       </c>
       <c r="X154" s="5" t="s">
@@ -18133,7 +18139,7 @@
       <c r="V155" s="30">
         <v>0</v>
       </c>
-      <c r="W155" s="5" t="s">
+      <c r="W155" s="33" t="s">
         <v>236</v>
       </c>
       <c r="X155" s="5" t="s">
@@ -18209,7 +18215,7 @@
       <c r="V156" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W156" s="5" t="s">
+      <c r="W156" s="33" t="s">
         <v>857</v>
       </c>
       <c r="X156" s="5" t="s">
@@ -18296,7 +18302,7 @@
       <c r="V157" s="30">
         <v>0.79166666666666663</v>
       </c>
-      <c r="W157" s="5" t="s">
+      <c r="W157" s="33" t="s">
         <v>46</v>
       </c>
       <c r="X157" s="5" t="s">
@@ -18388,7 +18394,7 @@
       <c r="V158" s="30">
         <v>0.875</v>
       </c>
-      <c r="W158" s="5" t="s">
+      <c r="W158" s="33" t="s">
         <v>200</v>
       </c>
       <c r="X158" s="5" t="s">
@@ -18483,7 +18489,7 @@
       <c r="V159" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W159" s="5" t="s">
+      <c r="W159" s="33" t="s">
         <v>321</v>
       </c>
       <c r="X159" s="5" t="s">
@@ -18578,7 +18584,7 @@
       <c r="V160" s="30">
         <v>0.66666666666666663</v>
       </c>
-      <c r="W160" s="5" t="s">
+      <c r="W160" s="33" t="s">
         <v>980</v>
       </c>
       <c r="X160" s="5" t="s">
@@ -18673,7 +18679,7 @@
       <c r="V161" s="30">
         <v>0.66666666666666663</v>
       </c>
-      <c r="W161" s="5" t="s">
+      <c r="W161" s="33" t="s">
         <v>621</v>
       </c>
       <c r="X161" s="5" t="s">
@@ -18768,7 +18774,7 @@
       <c r="V162" s="30">
         <v>0.875</v>
       </c>
-      <c r="W162" s="5" t="s">
+      <c r="W162" s="33" t="s">
         <v>998</v>
       </c>
       <c r="X162" s="5" t="s">
@@ -18864,7 +18870,7 @@
       <c r="V163" s="30">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W163" s="5" t="s">
+      <c r="W163" s="33" t="s">
         <v>1006</v>
       </c>
       <c r="X163" s="5" t="s">
@@ -18954,7 +18960,7 @@
       <c r="V164" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W164" s="5" t="s">
+      <c r="W164" s="33" t="s">
         <v>998</v>
       </c>
       <c r="X164" s="5" t="s">
@@ -19044,7 +19050,7 @@
       <c r="V165" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W165" s="5" t="s">
+      <c r="W165" s="33" t="s">
         <v>1015</v>
       </c>
       <c r="X165" s="5" t="s">
@@ -19134,7 +19140,7 @@
       <c r="V166" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W166" s="5" t="s">
+      <c r="W166" s="33" t="s">
         <v>998</v>
       </c>
       <c r="X166" s="5" t="s">
@@ -19230,7 +19236,7 @@
       <c r="V167" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="W167" s="5" t="s">
+      <c r="W167" s="33" t="s">
         <v>321</v>
       </c>
       <c r="X167" s="5" t="s">
@@ -19326,7 +19332,7 @@
       <c r="V168" s="30">
         <v>0.875</v>
       </c>
-      <c r="W168" s="5" t="s">
+      <c r="W168" s="33" t="s">
         <v>112</v>
       </c>
       <c r="X168" s="5" t="s">
@@ -19419,7 +19425,7 @@
       <c r="V169" s="30">
         <v>4.1666666666666657E-2</v>
       </c>
-      <c r="W169" s="5" t="s">
+      <c r="W169" s="33" t="s">
         <v>237</v>
       </c>
       <c r="X169" s="5" t="s">
@@ -19510,7 +19516,7 @@
       <c r="V170" s="30">
         <v>0.875</v>
       </c>
-      <c r="W170" s="5" t="s">
+      <c r="W170" s="33" t="s">
         <v>112</v>
       </c>
       <c r="X170" s="5" t="s">
@@ -19602,7 +19608,7 @@
       <c r="V171" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="W171" s="5" t="s">
+      <c r="W171" s="33" t="s">
         <v>686</v>
       </c>
       <c r="X171" s="5" t="s">
@@ -19692,7 +19698,7 @@
       <c r="V172" s="30">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W172" s="5" t="s">
+      <c r="W172" s="33" t="s">
         <v>106</v>
       </c>
       <c r="X172" s="5" t="s">
@@ -19785,7 +19791,7 @@
       <c r="V173" s="30">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W173" s="5" t="s">
+      <c r="W173" s="33" t="s">
         <v>108</v>
       </c>
       <c r="X173" s="5" t="s">
@@ -19875,7 +19881,7 @@
         <v>42153</v>
       </c>
       <c r="V174" s="30"/>
-      <c r="W174" s="5" t="s">
+      <c r="W174" s="33" t="s">
         <v>110</v>
       </c>
       <c r="X174" s="5" t="s">
@@ -19967,7 +19973,7 @@
       <c r="V175" s="30">
         <v>0.875</v>
       </c>
-      <c r="W175" s="5" t="s">
+      <c r="W175" s="33" t="s">
         <v>413</v>
       </c>
       <c r="X175" s="5" t="s">
@@ -20059,7 +20065,7 @@
       <c r="V176" s="30">
         <v>0.96875</v>
       </c>
-      <c r="W176" s="5" t="s">
+      <c r="W176" s="33" t="s">
         <v>1062</v>
       </c>
       <c r="X176" s="5" t="s">
@@ -20117,6 +20123,7 @@
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/raw_data/ParisBeerWeek_evenements.xlsx
+++ b/data/raw_data/ParisBeerWeek_evenements.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julien.moura\Documents\GitHub\JM\Paris-Beer-Week-2015\data\raw_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="28215" windowHeight="10680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="786">
   <si>
     <t>ID</t>
   </si>
@@ -569,10 +574,10 @@
 - The limited series Craft by Distrikt will be available in bottles- and many more surprises !</t>
   </si>
   <si>
-    <t>Le Louxor</t>
-  </si>
-  <si>
-    <t>Magenta</t>
+    <t>Louxor</t>
+  </si>
+  <si>
+    <t>de Magenta</t>
   </si>
   <si>
     <t>BOULEVARD Magenta, 75010 Paris, France</t>
@@ -1251,7 +1256,7 @@
     <t>To celebrate the start of PBW #2, the brewery is in party mode! The brewers are throwing a special night of free concerts. We'll salsa to the cuban music of "El Peque Combo"! All of our Ox' beers will be available on tap and by the bottle. Free entry. Meals by reservation: contact the brewery by telephone or email.</t>
   </si>
   <si>
-    <t>Brasserie Artisanale de Marcoussi</t>
+    <t>Brasserie Artisanale de Marcoussis</t>
   </si>
   <si>
     <t>ROUTE</t>
@@ -1384,9 +1389,6 @@
   </si>
   <si>
     <t>Bierissime</t>
-  </si>
-  <si>
-    <t>de Magenta</t>
   </si>
   <si>
     <t>85, BOULEVARD de Magenta, 75010 Paris, France</t>
@@ -1525,7 +1527,7 @@
     <t>Europe is undergoing an unprecedented craft beer revolution, and certain countries are showing exceptional dynamism and creativity. Amongst the craziest, Great Britain in the north, and Italy in the south. We're inviting the Italian brewery Extraomnes and the English brewery Siren Craft Brew for the first ever battle on french territory. 5 taps each, including 1 Cask, and their beers are the only weapons allowed!</t>
   </si>
   <si>
-    <t>L’Europe connaît un renouveau sans précédent avec la bière artisanale, et certains pays font preuve d’un dynamisme et d’une créativité exceptionnels. Parmi les plus fous, il y a notamment la Grande Bretagne au Nord, l’Italie au Sud. Nous invitons les Italiens d’Extraomnes et les anglais de Siren Craft Brew pour un clash sans précédent en terre française. 5 becs chacun, dont un Cask, et leurs bières pour seules armes !</t>
+    <t>L'Express de Lyon</t>
   </si>
   <si>
     <t>de Lyon</t>
@@ -1975,9 +1977,6 @@
   </si>
   <si>
     <t>Each day of the week during the festivities, you'll have the occasion to taste special recipes created by our head chef Medhi. Your taste buds will be delighted by pairing craft beers with his excellent dishes!</t>
-  </si>
-  <si>
-    <t>L'Express de Lyon</t>
   </si>
   <si>
     <t>https://www.google.fr/maps/place/L%27Express+de+Lyon/@48.845923,2.372252,17z/data=!3m1!4b1!4m2!3m1!1s0x47e67204ae7ea483:0xf4b2f17966bb0230</t>
@@ -2710,6 +2709,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2970,7 +2972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2978,13 +2980,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH168"/>
+  <dimension ref="A1:AH167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Z14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE2" sqref="AE2:AF167"/>
+      <selection pane="bottomRight" activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,7 +2997,7 @@
     <col min="4" max="4" width="31.140625" style="24" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" style="24" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" style="24" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" style="24" bestFit="1" customWidth="1"/>
@@ -3151,7 +3153,6 @@
       <c r="I2" s="23">
         <v>1</v>
       </c>
-      <c r="J2"/>
       <c r="K2" s="23" t="s">
         <v>39</v>
       </c>
@@ -3170,7 +3171,6 @@
       <c r="P2" t="s">
         <v>43</v>
       </c>
-      <c r="Q2"/>
       <c r="R2" s="3">
         <v>42147</v>
       </c>
@@ -3210,10 +3210,10 @@
       <c r="AD2">
         <v>2015</v>
       </c>
-      <c r="AE2" s="24">
+      <c r="AE2">
         <v>2.3475419999999998</v>
       </c>
-      <c r="AF2" s="24">
+      <c r="AF2">
         <v>48.868741399999998</v>
       </c>
       <c r="AG2">
@@ -3249,7 +3249,6 @@
       <c r="I3" s="23">
         <v>1</v>
       </c>
-      <c r="J3"/>
       <c r="K3" s="23" t="s">
         <v>39</v>
       </c>
@@ -3268,7 +3267,6 @@
       <c r="P3" t="s">
         <v>43</v>
       </c>
-      <c r="Q3"/>
       <c r="R3" s="3">
         <v>42150</v>
       </c>
@@ -3302,14 +3300,13 @@
       <c r="AB3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC3"/>
       <c r="AD3">
         <v>2015</v>
       </c>
-      <c r="AE3" s="24">
+      <c r="AE3">
         <v>2.3475419999999998</v>
       </c>
-      <c r="AF3" s="24">
+      <c r="AF3">
         <v>48.868741399999998</v>
       </c>
       <c r="AG3">
@@ -3326,7 +3323,6 @@
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4"/>
       <c r="D4" t="s">
         <v>54</v>
       </c>
@@ -3345,7 +3341,6 @@
       <c r="I4" s="23">
         <v>1</v>
       </c>
-      <c r="J4"/>
       <c r="K4" s="23" t="s">
         <v>39</v>
       </c>
@@ -3364,7 +3359,6 @@
       <c r="P4" t="s">
         <v>43</v>
       </c>
-      <c r="Q4"/>
       <c r="R4" s="3">
         <v>42151</v>
       </c>
@@ -3398,14 +3392,13 @@
       <c r="AB4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC4"/>
       <c r="AD4">
         <v>2015</v>
       </c>
-      <c r="AE4" s="24">
+      <c r="AE4">
         <v>2.3475419999999998</v>
       </c>
-      <c r="AF4" s="24">
+      <c r="AF4">
         <v>48.868741399999998</v>
       </c>
       <c r="AG4">
@@ -3422,7 +3415,6 @@
       <c r="B5" t="s">
         <v>58</v>
       </c>
-      <c r="C5"/>
       <c r="D5" t="s">
         <v>59</v>
       </c>
@@ -3441,7 +3433,6 @@
       <c r="I5" s="23">
         <v>1</v>
       </c>
-      <c r="J5"/>
       <c r="K5" s="23" t="s">
         <v>39</v>
       </c>
@@ -3460,7 +3451,6 @@
       <c r="P5" t="s">
         <v>43</v>
       </c>
-      <c r="Q5"/>
       <c r="R5" s="3">
         <v>42152</v>
       </c>
@@ -3494,14 +3484,13 @@
       <c r="AB5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC5"/>
       <c r="AD5">
         <v>2015</v>
       </c>
-      <c r="AE5" s="24">
+      <c r="AE5">
         <v>2.3475419999999998</v>
       </c>
-      <c r="AF5" s="24">
+      <c r="AF5">
         <v>48.868741399999998</v>
       </c>
       <c r="AG5">
@@ -3518,7 +3507,6 @@
       <c r="B6" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C6"/>
       <c r="D6" s="23" t="s">
         <v>64</v>
       </c>
@@ -3556,7 +3544,6 @@
       <c r="P6" t="s">
         <v>68</v>
       </c>
-      <c r="Q6"/>
       <c r="R6" s="3">
         <v>42148</v>
       </c>
@@ -3590,14 +3577,13 @@
       <c r="AB6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AC6"/>
       <c r="AD6">
         <v>2015</v>
       </c>
-      <c r="AE6" s="24">
+      <c r="AE6">
         <v>2.3392990999999999</v>
       </c>
-      <c r="AF6" s="24">
+      <c r="AF6">
         <v>48.890469600000003</v>
       </c>
       <c r="AG6">
@@ -3652,7 +3638,6 @@
       <c r="P7" t="s">
         <v>68</v>
       </c>
-      <c r="Q7"/>
       <c r="R7" s="3">
         <v>42146</v>
       </c>
@@ -3680,16 +3665,13 @@
       <c r="Z7" t="s">
         <v>70</v>
       </c>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
       <c r="AD7">
         <v>2015</v>
       </c>
-      <c r="AE7" s="24">
+      <c r="AE7">
         <v>2.3392990999999999</v>
       </c>
-      <c r="AF7" s="24">
+      <c r="AF7">
         <v>48.890469600000003</v>
       </c>
       <c r="AG7">
@@ -3706,7 +3688,6 @@
       <c r="B8" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C8"/>
       <c r="D8" t="s">
         <v>77</v>
       </c>
@@ -3746,7 +3727,6 @@
       <c r="P8" t="s">
         <v>81</v>
       </c>
-      <c r="Q8"/>
       <c r="R8" s="3">
         <v>42150</v>
       </c>
@@ -3780,14 +3760,13 @@
       <c r="AB8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC8"/>
       <c r="AD8">
         <v>2015</v>
       </c>
-      <c r="AE8" s="24">
+      <c r="AE8">
         <v>2.3485399</v>
       </c>
-      <c r="AF8" s="24">
+      <c r="AF8">
         <v>48.842992600000002</v>
       </c>
       <c r="AG8">
@@ -3804,7 +3783,6 @@
       <c r="B9" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C9"/>
       <c r="D9" t="s">
         <v>77</v>
       </c>
@@ -3844,7 +3822,6 @@
       <c r="P9" t="s">
         <v>81</v>
       </c>
-      <c r="Q9"/>
       <c r="R9" s="3">
         <v>42152</v>
       </c>
@@ -3878,14 +3855,13 @@
       <c r="AB9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC9"/>
       <c r="AD9">
         <v>2015</v>
       </c>
-      <c r="AE9" s="24">
+      <c r="AE9">
         <v>2.3485399</v>
       </c>
-      <c r="AF9" s="24">
+      <c r="AF9">
         <v>48.842992600000002</v>
       </c>
       <c r="AG9">
@@ -3902,7 +3878,6 @@
       <c r="B10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C10"/>
       <c r="D10" t="s">
         <v>85</v>
       </c>
@@ -3942,7 +3917,6 @@
       <c r="P10" t="s">
         <v>81</v>
       </c>
-      <c r="Q10"/>
       <c r="R10" s="3">
         <v>42153</v>
       </c>
@@ -3976,14 +3950,13 @@
       <c r="AB10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC10"/>
       <c r="AD10">
         <v>2015</v>
       </c>
-      <c r="AE10" s="24">
+      <c r="AE10">
         <v>2.3485399</v>
       </c>
-      <c r="AF10" s="24">
+      <c r="AF10">
         <v>48.842992600000002</v>
       </c>
       <c r="AG10">
@@ -4000,7 +3973,6 @@
       <c r="B11" t="s">
         <v>89</v>
       </c>
-      <c r="C11"/>
       <c r="D11" t="s">
         <v>90</v>
       </c>
@@ -4038,7 +4010,6 @@
       <c r="P11" t="s">
         <v>94</v>
       </c>
-      <c r="Q11"/>
       <c r="R11" s="3">
         <v>42152</v>
       </c>
@@ -4060,7 +4031,6 @@
       <c r="X11" s="5">
         <v>0.29166666667151731</v>
       </c>
-      <c r="Y11"/>
       <c r="Z11" t="s">
         <v>95</v>
       </c>
@@ -4070,14 +4040,13 @@
       <c r="AB11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC11"/>
       <c r="AD11">
         <v>2015</v>
       </c>
-      <c r="AE11" s="24">
+      <c r="AE11">
         <v>2.3854926999999999</v>
       </c>
-      <c r="AF11" s="24">
+      <c r="AF11">
         <v>48.866681300000003</v>
       </c>
       <c r="AG11">
@@ -4094,7 +4063,6 @@
       <c r="B12" t="s">
         <v>96</v>
       </c>
-      <c r="C12"/>
       <c r="D12" t="s">
         <v>97</v>
       </c>
@@ -4113,7 +4081,6 @@
       <c r="I12" s="23">
         <v>11</v>
       </c>
-      <c r="J12"/>
       <c r="K12" s="23" t="s">
         <v>100</v>
       </c>
@@ -4132,7 +4099,6 @@
       <c r="P12" t="s">
         <v>102</v>
       </c>
-      <c r="Q12"/>
       <c r="R12" s="3">
         <v>42151</v>
       </c>
@@ -4154,7 +4120,6 @@
       <c r="X12" s="5">
         <v>0.16666666667151731</v>
       </c>
-      <c r="Y12"/>
       <c r="Z12" t="s">
         <v>103</v>
       </c>
@@ -4164,14 +4129,13 @@
       <c r="AB12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC12"/>
       <c r="AD12">
         <v>2015</v>
       </c>
-      <c r="AE12" s="24">
+      <c r="AE12">
         <v>2.3907145000000001</v>
       </c>
-      <c r="AF12" s="24">
+      <c r="AF12">
         <v>48.8393126</v>
       </c>
       <c r="AG12">
@@ -4188,7 +4152,6 @@
       <c r="B13" t="s">
         <v>104</v>
       </c>
-      <c r="C13"/>
       <c r="D13" t="s">
         <v>105</v>
       </c>
@@ -4226,7 +4189,6 @@
       <c r="P13" t="s">
         <v>94</v>
       </c>
-      <c r="Q13"/>
       <c r="R13" s="3">
         <v>42147</v>
       </c>
@@ -4248,7 +4210,6 @@
       <c r="X13" s="5">
         <v>0.29166666667151731</v>
       </c>
-      <c r="Y13"/>
       <c r="Z13" t="s">
         <v>107</v>
       </c>
@@ -4258,14 +4219,13 @@
       <c r="AB13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC13"/>
       <c r="AD13">
         <v>2015</v>
       </c>
-      <c r="AE13" s="24">
+      <c r="AE13">
         <v>2.3854926999999999</v>
       </c>
-      <c r="AF13" s="24">
+      <c r="AF13">
         <v>48.866681300000003</v>
       </c>
       <c r="AG13">
@@ -4282,7 +4242,6 @@
       <c r="B14" t="s">
         <v>108</v>
       </c>
-      <c r="C14"/>
       <c r="D14" t="s">
         <v>109</v>
       </c>
@@ -4320,7 +4279,6 @@
       <c r="P14" t="s">
         <v>94</v>
       </c>
-      <c r="Q14"/>
       <c r="R14" s="3">
         <v>42150</v>
       </c>
@@ -4342,7 +4300,6 @@
       <c r="X14" s="5">
         <v>0.29166666667151731</v>
       </c>
-      <c r="Y14"/>
       <c r="Z14" t="s">
         <v>107</v>
       </c>
@@ -4352,14 +4309,13 @@
       <c r="AB14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC14"/>
       <c r="AD14">
         <v>2015</v>
       </c>
-      <c r="AE14" s="24">
+      <c r="AE14">
         <v>2.3854926999999999</v>
       </c>
-      <c r="AF14" s="24">
+      <c r="AF14">
         <v>48.866681300000003</v>
       </c>
       <c r="AG14">
@@ -4376,7 +4332,6 @@
       <c r="B15" t="s">
         <v>111</v>
       </c>
-      <c r="C15"/>
       <c r="D15" t="s">
         <v>112</v>
       </c>
@@ -4414,7 +4369,6 @@
       <c r="P15" t="s">
         <v>94</v>
       </c>
-      <c r="Q15"/>
       <c r="R15" s="3">
         <v>42153</v>
       </c>
@@ -4436,7 +4390,6 @@
       <c r="X15" s="5">
         <v>0.29166666667151731</v>
       </c>
-      <c r="Y15"/>
       <c r="Z15" t="s">
         <v>107</v>
       </c>
@@ -4446,14 +4399,13 @@
       <c r="AB15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC15"/>
       <c r="AD15">
         <v>2015</v>
       </c>
-      <c r="AE15" s="24">
+      <c r="AE15">
         <v>2.3854926999999999</v>
       </c>
-      <c r="AF15" s="24">
+      <c r="AF15">
         <v>48.866681300000003</v>
       </c>
       <c r="AG15">
@@ -4470,7 +4422,6 @@
       <c r="B16" t="s">
         <v>114</v>
       </c>
-      <c r="C16"/>
       <c r="D16" t="s">
         <v>115</v>
       </c>
@@ -4508,7 +4459,6 @@
       <c r="P16" t="s">
         <v>94</v>
       </c>
-      <c r="Q16"/>
       <c r="R16" s="3">
         <v>42148</v>
       </c>
@@ -4530,7 +4480,6 @@
       <c r="X16" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y16"/>
       <c r="Z16" t="s">
         <v>107</v>
       </c>
@@ -4540,14 +4489,13 @@
       <c r="AB16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AC16"/>
       <c r="AD16">
         <v>2015</v>
       </c>
-      <c r="AE16" s="24">
+      <c r="AE16">
         <v>2.3854926999999999</v>
       </c>
-      <c r="AF16" s="24">
+      <c r="AF16">
         <v>48.866681300000003</v>
       </c>
       <c r="AG16">
@@ -4564,7 +4512,6 @@
       <c r="B17" t="s">
         <v>117</v>
       </c>
-      <c r="C17"/>
       <c r="D17" t="s">
         <v>118</v>
       </c>
@@ -4583,7 +4530,6 @@
       <c r="I17" s="23">
         <v>12</v>
       </c>
-      <c r="J17"/>
       <c r="K17" s="23" t="s">
         <v>121</v>
       </c>
@@ -4602,7 +4548,6 @@
       <c r="P17" t="s">
         <v>123</v>
       </c>
-      <c r="Q17"/>
       <c r="R17" s="3">
         <v>42148</v>
       </c>
@@ -4636,14 +4581,13 @@
       <c r="AB17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AC17"/>
       <c r="AD17">
         <v>2015</v>
       </c>
-      <c r="AE17" s="24">
+      <c r="AE17">
         <v>2.3624906000000001</v>
       </c>
-      <c r="AF17" s="24">
+      <c r="AF17">
         <v>48.888228900000001</v>
       </c>
       <c r="AG17">
@@ -4660,7 +4604,6 @@
       <c r="B18" t="s">
         <v>126</v>
       </c>
-      <c r="C18"/>
       <c r="D18" t="s">
         <v>127</v>
       </c>
@@ -4679,7 +4622,6 @@
       <c r="I18" s="23">
         <v>12</v>
       </c>
-      <c r="J18"/>
       <c r="K18" s="23" t="s">
         <v>39</v>
       </c>
@@ -4698,7 +4640,6 @@
       <c r="P18" t="s">
         <v>131</v>
       </c>
-      <c r="Q18"/>
       <c r="R18" s="3">
         <v>42147</v>
       </c>
@@ -4720,20 +4661,16 @@
       <c r="X18" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y18"/>
       <c r="Z18" t="s">
         <v>132</v>
       </c>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
       <c r="AD18">
         <v>2015</v>
       </c>
-      <c r="AE18" s="24">
+      <c r="AE18">
         <v>2.3374527</v>
       </c>
-      <c r="AF18" s="24">
+      <c r="AF18">
         <v>48.881636</v>
       </c>
       <c r="AG18">
@@ -4750,7 +4687,6 @@
       <c r="B19" t="s">
         <v>126</v>
       </c>
-      <c r="C19"/>
       <c r="D19" t="s">
         <v>127</v>
       </c>
@@ -4769,7 +4705,6 @@
       <c r="I19" s="23">
         <v>12</v>
       </c>
-      <c r="J19"/>
       <c r="K19" s="23" t="s">
         <v>39</v>
       </c>
@@ -4788,7 +4723,6 @@
       <c r="P19" t="s">
         <v>131</v>
       </c>
-      <c r="Q19"/>
       <c r="R19" s="3">
         <v>42148</v>
       </c>
@@ -4810,20 +4744,16 @@
       <c r="X19" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y19"/>
       <c r="Z19" t="s">
         <v>132</v>
       </c>
-      <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AC19"/>
       <c r="AD19">
         <v>2015</v>
       </c>
-      <c r="AE19" s="24">
+      <c r="AE19">
         <v>2.3374527</v>
       </c>
-      <c r="AF19" s="24">
+      <c r="AF19">
         <v>48.881636</v>
       </c>
       <c r="AG19">
@@ -4840,7 +4770,6 @@
       <c r="B20" t="s">
         <v>126</v>
       </c>
-      <c r="C20"/>
       <c r="D20" t="s">
         <v>127</v>
       </c>
@@ -4859,7 +4788,6 @@
       <c r="I20" s="23">
         <v>12</v>
       </c>
-      <c r="J20"/>
       <c r="K20" s="23" t="s">
         <v>39</v>
       </c>
@@ -4878,7 +4806,6 @@
       <c r="P20" t="s">
         <v>131</v>
       </c>
-      <c r="Q20"/>
       <c r="R20" s="3">
         <v>42149</v>
       </c>
@@ -4900,20 +4827,16 @@
       <c r="X20" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y20"/>
       <c r="Z20" t="s">
         <v>132</v>
       </c>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
       <c r="AD20">
         <v>2015</v>
       </c>
-      <c r="AE20" s="24">
+      <c r="AE20">
         <v>2.3374527</v>
       </c>
-      <c r="AF20" s="24">
+      <c r="AF20">
         <v>48.881636</v>
       </c>
       <c r="AG20">
@@ -4930,7 +4853,6 @@
       <c r="B21" t="s">
         <v>126</v>
       </c>
-      <c r="C21"/>
       <c r="D21" t="s">
         <v>127</v>
       </c>
@@ -4949,7 +4871,6 @@
       <c r="I21" s="23">
         <v>12</v>
       </c>
-      <c r="J21"/>
       <c r="K21" s="23" t="s">
         <v>39</v>
       </c>
@@ -4968,7 +4889,6 @@
       <c r="P21" t="s">
         <v>131</v>
       </c>
-      <c r="Q21"/>
       <c r="R21" s="3">
         <v>42150</v>
       </c>
@@ -4990,20 +4910,16 @@
       <c r="X21" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y21"/>
       <c r="Z21" t="s">
         <v>132</v>
       </c>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
       <c r="AD21">
         <v>2015</v>
       </c>
-      <c r="AE21" s="24">
+      <c r="AE21">
         <v>2.3374527</v>
       </c>
-      <c r="AF21" s="24">
+      <c r="AF21">
         <v>48.881636</v>
       </c>
       <c r="AG21">
@@ -5020,7 +4936,6 @@
       <c r="B22" t="s">
         <v>126</v>
       </c>
-      <c r="C22"/>
       <c r="D22" t="s">
         <v>127</v>
       </c>
@@ -5039,7 +4954,6 @@
       <c r="I22" s="23">
         <v>12</v>
       </c>
-      <c r="J22"/>
       <c r="K22" s="23" t="s">
         <v>39</v>
       </c>
@@ -5058,7 +4972,6 @@
       <c r="P22" t="s">
         <v>131</v>
       </c>
-      <c r="Q22"/>
       <c r="R22" s="3">
         <v>42151</v>
       </c>
@@ -5080,20 +4993,16 @@
       <c r="X22" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y22"/>
       <c r="Z22" t="s">
         <v>132</v>
       </c>
-      <c r="AA22"/>
-      <c r="AB22"/>
-      <c r="AC22"/>
       <c r="AD22">
         <v>2015</v>
       </c>
-      <c r="AE22" s="24">
+      <c r="AE22">
         <v>2.3374527</v>
       </c>
-      <c r="AF22" s="24">
+      <c r="AF22">
         <v>48.881636</v>
       </c>
       <c r="AG22">
@@ -5110,7 +5019,6 @@
       <c r="B23" t="s">
         <v>126</v>
       </c>
-      <c r="C23"/>
       <c r="D23" t="s">
         <v>127</v>
       </c>
@@ -5129,7 +5037,6 @@
       <c r="I23" s="23">
         <v>12</v>
       </c>
-      <c r="J23"/>
       <c r="K23" s="23" t="s">
         <v>39</v>
       </c>
@@ -5148,7 +5055,6 @@
       <c r="P23" t="s">
         <v>131</v>
       </c>
-      <c r="Q23"/>
       <c r="R23" s="3">
         <v>42152</v>
       </c>
@@ -5170,20 +5076,16 @@
       <c r="X23" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y23"/>
       <c r="Z23" t="s">
         <v>132</v>
       </c>
-      <c r="AA23"/>
-      <c r="AB23"/>
-      <c r="AC23"/>
       <c r="AD23">
         <v>2015</v>
       </c>
-      <c r="AE23" s="24">
+      <c r="AE23">
         <v>2.3374527</v>
       </c>
-      <c r="AF23" s="24">
+      <c r="AF23">
         <v>48.881636</v>
       </c>
       <c r="AG23">
@@ -5200,7 +5102,6 @@
       <c r="B24" t="s">
         <v>126</v>
       </c>
-      <c r="C24"/>
       <c r="D24" t="s">
         <v>127</v>
       </c>
@@ -5219,7 +5120,6 @@
       <c r="I24" s="23">
         <v>12</v>
       </c>
-      <c r="J24"/>
       <c r="K24" s="23" t="s">
         <v>39</v>
       </c>
@@ -5238,7 +5138,6 @@
       <c r="P24" t="s">
         <v>131</v>
       </c>
-      <c r="Q24"/>
       <c r="R24" s="3">
         <v>42153</v>
       </c>
@@ -5260,20 +5159,16 @@
       <c r="X24" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y24"/>
       <c r="Z24" t="s">
         <v>132</v>
       </c>
-      <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
       <c r="AD24">
         <v>2015</v>
       </c>
-      <c r="AE24" s="24">
+      <c r="AE24">
         <v>2.3374527</v>
       </c>
-      <c r="AF24" s="24">
+      <c r="AF24">
         <v>48.881636</v>
       </c>
       <c r="AG24">
@@ -5290,7 +5185,6 @@
       <c r="B25" t="s">
         <v>126</v>
       </c>
-      <c r="C25"/>
       <c r="D25" t="s">
         <v>127</v>
       </c>
@@ -5309,7 +5203,6 @@
       <c r="I25" s="23">
         <v>12</v>
       </c>
-      <c r="J25"/>
       <c r="K25" s="23" t="s">
         <v>39</v>
       </c>
@@ -5328,7 +5221,6 @@
       <c r="P25" t="s">
         <v>131</v>
       </c>
-      <c r="Q25"/>
       <c r="R25" s="3">
         <v>42154</v>
       </c>
@@ -5350,20 +5242,16 @@
       <c r="X25" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y25"/>
       <c r="Z25" t="s">
         <v>132</v>
       </c>
-      <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AC25"/>
       <c r="AD25">
         <v>2015</v>
       </c>
-      <c r="AE25" s="24">
+      <c r="AE25">
         <v>2.3374527</v>
       </c>
-      <c r="AF25" s="24">
+      <c r="AF25">
         <v>48.881636</v>
       </c>
       <c r="AG25">
@@ -5380,7 +5268,6 @@
       <c r="B26" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C26"/>
       <c r="D26" t="s">
         <v>134</v>
       </c>
@@ -5399,7 +5286,6 @@
       <c r="I26" s="23">
         <v>13</v>
       </c>
-      <c r="J26"/>
       <c r="K26" s="23" t="s">
         <v>39</v>
       </c>
@@ -5418,7 +5304,6 @@
       <c r="P26" t="s">
         <v>138</v>
       </c>
-      <c r="Q26"/>
       <c r="R26" s="3">
         <v>42152</v>
       </c>
@@ -5440,7 +5325,6 @@
       <c r="X26" s="5">
         <v>0.25</v>
       </c>
-      <c r="Y26"/>
       <c r="Z26" t="s">
         <v>139</v>
       </c>
@@ -5450,14 +5334,13 @@
       <c r="AB26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC26"/>
       <c r="AD26">
         <v>2015</v>
       </c>
-      <c r="AE26" s="24">
+      <c r="AE26">
         <v>2.3697018000000001</v>
       </c>
-      <c r="AF26" s="24">
+      <c r="AF26">
         <v>48.871199300000001</v>
       </c>
       <c r="AG26">
@@ -5474,7 +5357,6 @@
       <c r="B27" t="s">
         <v>140</v>
       </c>
-      <c r="C27"/>
       <c r="D27" t="s">
         <v>141</v>
       </c>
@@ -5512,7 +5394,6 @@
       <c r="P27" t="s">
         <v>145</v>
       </c>
-      <c r="Q27"/>
       <c r="R27" s="3">
         <v>42151</v>
       </c>
@@ -5534,7 +5415,6 @@
       <c r="X27" s="5">
         <v>8.3333333335758653E-2</v>
       </c>
-      <c r="Y27"/>
       <c r="Z27" t="s">
         <v>146</v>
       </c>
@@ -5544,14 +5424,13 @@
       <c r="AB27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC27"/>
       <c r="AD27">
         <v>2015</v>
       </c>
-      <c r="AE27" s="24">
+      <c r="AE27">
         <v>2.3468110000000002</v>
       </c>
-      <c r="AF27" s="24">
+      <c r="AF27">
         <v>48.8598608</v>
       </c>
       <c r="AG27">
@@ -5568,7 +5447,6 @@
       <c r="B28" t="s">
         <v>147</v>
       </c>
-      <c r="C28"/>
       <c r="D28" t="s">
         <v>148</v>
       </c>
@@ -5606,7 +5484,6 @@
       <c r="P28" t="s">
         <v>145</v>
       </c>
-      <c r="Q28"/>
       <c r="R28" s="3">
         <v>42152</v>
       </c>
@@ -5628,7 +5505,6 @@
       <c r="X28" s="5">
         <v>0.5</v>
       </c>
-      <c r="Y28"/>
       <c r="Z28" t="s">
         <v>146</v>
       </c>
@@ -5638,14 +5514,13 @@
       <c r="AB28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC28"/>
       <c r="AD28">
         <v>2015</v>
       </c>
-      <c r="AE28" s="24">
+      <c r="AE28">
         <v>2.3468110000000002</v>
       </c>
-      <c r="AF28" s="24">
+      <c r="AF28">
         <v>48.8598608</v>
       </c>
       <c r="AG28">
@@ -5662,7 +5537,6 @@
       <c r="B29" t="s">
         <v>150</v>
       </c>
-      <c r="C29"/>
       <c r="D29" t="s">
         <v>151</v>
       </c>
@@ -5681,7 +5555,6 @@
       <c r="I29" s="23">
         <v>17</v>
       </c>
-      <c r="J29"/>
       <c r="K29" s="23" t="s">
         <v>39</v>
       </c>
@@ -5700,7 +5573,6 @@
       <c r="P29" t="s">
         <v>156</v>
       </c>
-      <c r="Q29"/>
       <c r="R29" s="3">
         <v>42146</v>
       </c>
@@ -5734,14 +5606,13 @@
       <c r="AB29" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AC29"/>
       <c r="AD29">
         <v>2015</v>
       </c>
-      <c r="AE29" s="24">
+      <c r="AE29">
         <v>2.2896339999999999</v>
       </c>
-      <c r="AF29" s="24">
+      <c r="AF29">
         <v>48.890737999999999</v>
       </c>
       <c r="AG29">
@@ -5758,7 +5629,6 @@
       <c r="B30" t="s">
         <v>161</v>
       </c>
-      <c r="C30"/>
       <c r="D30" s="23" t="s">
         <v>162</v>
       </c>
@@ -5768,18 +5638,19 @@
       <c r="F30" s="23">
         <v>52</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" t="s">
         <v>164</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
-      <c r="I30" s="23"/>
-      <c r="J30"/>
+      <c r="I30">
+        <v>170</v>
+      </c>
       <c r="K30" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="L30" s="23" t="s">
+      <c r="L30" t="s">
         <v>165</v>
       </c>
       <c r="M30" s="23">
@@ -5794,7 +5665,6 @@
       <c r="P30" t="s">
         <v>166</v>
       </c>
-      <c r="Q30"/>
       <c r="R30" s="3">
         <v>42147</v>
       </c>
@@ -5816,7 +5686,6 @@
       <c r="X30" s="5">
         <v>0.16666666667151731</v>
       </c>
-      <c r="Y30"/>
       <c r="Z30" t="s">
         <v>167</v>
       </c>
@@ -5826,12 +5695,15 @@
       <c r="AB30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC30"/>
       <c r="AD30">
         <v>2015</v>
       </c>
-      <c r="AG30"/>
-      <c r="AH30"/>
+      <c r="AE30" s="24">
+        <v>2.3500543354008201</v>
+      </c>
+      <c r="AF30" s="24">
+        <v>48.858741000000002</v>
+      </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
@@ -5840,7 +5712,6 @@
       <c r="B31" t="s">
         <v>168</v>
       </c>
-      <c r="C31"/>
       <c r="D31" t="s">
         <v>169</v>
       </c>
@@ -5878,7 +5749,6 @@
       <c r="P31" t="s">
         <v>94</v>
       </c>
-      <c r="Q31"/>
       <c r="R31" s="3">
         <v>42147</v>
       </c>
@@ -5900,7 +5770,6 @@
       <c r="X31" s="5">
         <v>0.20833333333575871</v>
       </c>
-      <c r="Y31"/>
       <c r="Z31" s="23"/>
       <c r="AA31" s="6" t="s">
         <v>46</v>
@@ -5908,21 +5777,20 @@
       <c r="AB31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC31"/>
       <c r="AD31">
         <v>2015</v>
       </c>
-      <c r="AE31" s="24">
+      <c r="AE31">
         <v>2.3854926999999999</v>
       </c>
-      <c r="AF31" s="24">
+      <c r="AF31">
         <v>48.866681300000003</v>
       </c>
       <c r="AG31">
-        <v>2.3854926999999999</v>
+        <v>2.3485399</v>
       </c>
       <c r="AH31">
-        <v>48.866681300000003</v>
+        <v>48.842992600000002</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
@@ -5932,7 +5800,6 @@
       <c r="B32" t="s">
         <v>171</v>
       </c>
-      <c r="C32"/>
       <c r="D32" t="s">
         <v>172</v>
       </c>
@@ -5970,7 +5837,6 @@
       <c r="P32" t="s">
         <v>94</v>
       </c>
-      <c r="Q32"/>
       <c r="R32" s="3">
         <v>42148</v>
       </c>
@@ -5992,7 +5858,6 @@
       <c r="X32" s="5">
         <v>8.3333333335758653E-2</v>
       </c>
-      <c r="Y32"/>
       <c r="Z32" s="23" t="s">
         <v>83</v>
       </c>
@@ -6002,21 +5867,20 @@
       <c r="AB32" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AC32"/>
       <c r="AD32">
         <v>2015</v>
       </c>
-      <c r="AE32" s="24">
+      <c r="AE32">
         <v>2.3854926999999999</v>
       </c>
-      <c r="AF32" s="24">
+      <c r="AF32">
         <v>48.866681300000003</v>
       </c>
       <c r="AG32">
-        <v>2.3854926999999999</v>
+        <v>2.3485399</v>
       </c>
       <c r="AH32">
-        <v>48.866681300000003</v>
+        <v>48.842992600000002</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
@@ -6026,7 +5890,6 @@
       <c r="B33" t="s">
         <v>174</v>
       </c>
-      <c r="C33"/>
       <c r="D33" t="s">
         <v>175</v>
       </c>
@@ -6064,7 +5927,6 @@
       <c r="P33" t="s">
         <v>94</v>
       </c>
-      <c r="Q33"/>
       <c r="R33" s="3">
         <v>42151</v>
       </c>
@@ -6086,7 +5948,6 @@
       <c r="X33" s="5">
         <v>0.16666666666424129</v>
       </c>
-      <c r="Y33"/>
       <c r="Z33" s="23" t="s">
         <v>83</v>
       </c>
@@ -6096,21 +5957,20 @@
       <c r="AB33" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC33"/>
       <c r="AD33">
         <v>2015</v>
       </c>
-      <c r="AE33" s="24">
+      <c r="AE33">
         <v>2.3854926999999999</v>
       </c>
-      <c r="AF33" s="24">
+      <c r="AF33">
         <v>48.866681300000003</v>
       </c>
       <c r="AG33">
-        <v>2.3854926999999999</v>
+        <v>2.3485399</v>
       </c>
       <c r="AH33">
-        <v>48.866681300000003</v>
+        <v>48.842992600000002</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
@@ -6120,7 +5980,6 @@
       <c r="B34" t="s">
         <v>177</v>
       </c>
-      <c r="C34"/>
       <c r="D34" t="s">
         <v>178</v>
       </c>
@@ -6139,7 +5998,6 @@
       <c r="I34" s="23">
         <v>21</v>
       </c>
-      <c r="J34"/>
       <c r="K34" s="23" t="s">
         <v>39</v>
       </c>
@@ -6158,7 +6016,6 @@
       <c r="P34" t="s">
         <v>183</v>
       </c>
-      <c r="Q34"/>
       <c r="R34" s="3">
         <v>42153</v>
       </c>
@@ -6192,14 +6049,13 @@
       <c r="AB34" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC34"/>
       <c r="AD34">
         <v>2015</v>
       </c>
-      <c r="AE34" s="24">
+      <c r="AE34">
         <v>2.2468648</v>
       </c>
-      <c r="AF34" s="24">
+      <c r="AF34">
         <v>48.895147199999997</v>
       </c>
       <c r="AG34">
@@ -6216,7 +6072,6 @@
       <c r="B35" t="s">
         <v>186</v>
       </c>
-      <c r="C35"/>
       <c r="D35" t="s">
         <v>187</v>
       </c>
@@ -6256,7 +6111,6 @@
       <c r="P35" t="s">
         <v>192</v>
       </c>
-      <c r="Q35"/>
       <c r="R35" s="3">
         <v>42153</v>
       </c>
@@ -6290,14 +6144,13 @@
       <c r="AB35" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC35"/>
       <c r="AD35">
         <v>2015</v>
       </c>
-      <c r="AE35" s="24">
+      <c r="AE35">
         <v>2.3839210999999998</v>
       </c>
-      <c r="AF35" s="24">
+      <c r="AF35">
         <v>48.889221399999997</v>
       </c>
       <c r="AG35">
@@ -6314,7 +6167,6 @@
       <c r="B36" t="s">
         <v>195</v>
       </c>
-      <c r="C36"/>
       <c r="D36" t="s">
         <v>196</v>
       </c>
@@ -6354,7 +6206,6 @@
       <c r="P36" t="s">
         <v>192</v>
       </c>
-      <c r="Q36"/>
       <c r="R36" s="3">
         <v>42152</v>
       </c>
@@ -6376,7 +6227,6 @@
       <c r="X36" s="5">
         <v>8.3333333335758653E-2</v>
       </c>
-      <c r="Y36"/>
       <c r="Z36" s="23"/>
       <c r="AA36" s="6" t="s">
         <v>61</v>
@@ -6384,14 +6234,13 @@
       <c r="AB36" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC36"/>
       <c r="AD36">
         <v>2015</v>
       </c>
-      <c r="AE36" s="24">
+      <c r="AE36">
         <v>2.3839210999999998</v>
       </c>
-      <c r="AF36" s="24">
+      <c r="AF36">
         <v>48.889221399999997</v>
       </c>
       <c r="AG36">
@@ -6408,7 +6257,6 @@
       <c r="B37" t="s">
         <v>198</v>
       </c>
-      <c r="C37"/>
       <c r="D37" t="s">
         <v>199</v>
       </c>
@@ -6427,7 +6275,6 @@
       <c r="I37" s="23">
         <v>23</v>
       </c>
-      <c r="J37"/>
       <c r="K37" s="23" t="s">
         <v>202</v>
       </c>
@@ -6446,7 +6293,6 @@
       <c r="P37" t="s">
         <v>204</v>
       </c>
-      <c r="Q37"/>
       <c r="R37" s="3">
         <v>42151</v>
       </c>
@@ -6480,14 +6326,13 @@
       <c r="AB37" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC37"/>
       <c r="AD37">
         <v>2015</v>
       </c>
-      <c r="AE37" s="24">
+      <c r="AE37">
         <v>2.3329892999999999</v>
       </c>
-      <c r="AF37" s="24">
+      <c r="AF37">
         <v>48.890348500000002</v>
       </c>
       <c r="AG37">
@@ -6504,7 +6349,6 @@
       <c r="B38" t="s">
         <v>207</v>
       </c>
-      <c r="C38"/>
       <c r="D38" t="s">
         <v>208</v>
       </c>
@@ -6542,7 +6386,6 @@
       <c r="P38" t="s">
         <v>212</v>
       </c>
-      <c r="Q38"/>
       <c r="R38" s="3">
         <v>42151</v>
       </c>
@@ -6564,7 +6407,6 @@
       <c r="X38" s="5">
         <v>8.3333333335758653E-2</v>
       </c>
-      <c r="Y38"/>
       <c r="Z38" s="23" t="s">
         <v>213</v>
       </c>
@@ -6574,14 +6416,13 @@
       <c r="AB38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC38"/>
       <c r="AD38">
         <v>2015</v>
       </c>
-      <c r="AE38" s="24">
+      <c r="AE38">
         <v>2.3142440999999998</v>
       </c>
-      <c r="AF38" s="24">
+      <c r="AF38">
         <v>48.884203900000003</v>
       </c>
       <c r="AG38">
@@ -6598,7 +6439,6 @@
       <c r="B39" t="s">
         <v>214</v>
       </c>
-      <c r="C39"/>
       <c r="D39" t="s">
         <v>215</v>
       </c>
@@ -6636,7 +6476,6 @@
       <c r="P39" t="s">
         <v>219</v>
       </c>
-      <c r="Q39"/>
       <c r="R39" s="3">
         <v>42152</v>
       </c>
@@ -6658,7 +6497,6 @@
       <c r="X39" s="5">
         <v>0.25</v>
       </c>
-      <c r="Y39"/>
       <c r="Z39" s="23" t="s">
         <v>220</v>
       </c>
@@ -6668,14 +6506,13 @@
       <c r="AB39" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC39"/>
       <c r="AD39">
         <v>2015</v>
       </c>
-      <c r="AE39" s="24">
+      <c r="AE39">
         <v>2.3469514999999999</v>
       </c>
-      <c r="AF39" s="24">
+      <c r="AF39">
         <v>48.892251700000003</v>
       </c>
       <c r="AG39">
@@ -6692,7 +6529,6 @@
       <c r="B40" t="s">
         <v>221</v>
       </c>
-      <c r="C40"/>
       <c r="D40" t="s">
         <v>222</v>
       </c>
@@ -6730,7 +6566,6 @@
       <c r="P40" t="s">
         <v>219</v>
       </c>
-      <c r="Q40"/>
       <c r="R40" s="3">
         <v>42153</v>
       </c>
@@ -6752,7 +6587,6 @@
       <c r="X40" s="5">
         <v>0.25</v>
       </c>
-      <c r="Y40"/>
       <c r="Z40" s="23" t="s">
         <v>224</v>
       </c>
@@ -6762,14 +6596,13 @@
       <c r="AB40" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC40"/>
       <c r="AD40">
         <v>2015</v>
       </c>
-      <c r="AE40" s="24">
+      <c r="AE40">
         <v>2.3469514999999999</v>
       </c>
-      <c r="AF40" s="24">
+      <c r="AF40">
         <v>48.892251700000003</v>
       </c>
       <c r="AG40">
@@ -6786,7 +6619,6 @@
       <c r="B41" t="s">
         <v>225</v>
       </c>
-      <c r="C41"/>
       <c r="D41" t="s">
         <v>226</v>
       </c>
@@ -6802,10 +6634,6 @@
       <c r="H41" s="2">
         <v>0</v>
       </c>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
       <c r="M41" s="23">
         <v>75005</v>
       </c>
@@ -6818,7 +6646,6 @@
       <c r="P41" t="s">
         <v>229</v>
       </c>
-      <c r="Q41"/>
       <c r="R41" s="3">
         <v>42147</v>
       </c>
@@ -6852,14 +6679,13 @@
       <c r="AB41" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC41"/>
       <c r="AD41">
         <v>2015</v>
       </c>
-      <c r="AE41" s="24">
+      <c r="AE41">
         <v>2.3521334</v>
       </c>
-      <c r="AF41" s="24">
+      <c r="AF41">
         <v>48.856505599999998</v>
       </c>
       <c r="AG41">
@@ -6876,7 +6702,6 @@
       <c r="B42" t="s">
         <v>225</v>
       </c>
-      <c r="C42"/>
       <c r="D42" t="s">
         <v>226</v>
       </c>
@@ -6892,8 +6717,6 @@
       <c r="H42" s="2">
         <v>0</v>
       </c>
-      <c r="I42"/>
-      <c r="J42"/>
       <c r="K42" s="23" t="s">
         <v>100</v>
       </c>
@@ -6912,7 +6735,6 @@
       <c r="P42" t="s">
         <v>234</v>
       </c>
-      <c r="Q42"/>
       <c r="R42" s="3">
         <v>42147</v>
       </c>
@@ -6946,14 +6768,13 @@
       <c r="AB42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC42"/>
       <c r="AD42">
         <v>2015</v>
       </c>
-      <c r="AE42" s="24">
+      <c r="AE42">
         <v>2.3528812000000001</v>
       </c>
-      <c r="AF42" s="24">
+      <c r="AF42">
         <v>48.830722000000002</v>
       </c>
       <c r="AG42">
@@ -6970,7 +6791,6 @@
       <c r="B43" t="s">
         <v>225</v>
       </c>
-      <c r="C43"/>
       <c r="D43" t="s">
         <v>226</v>
       </c>
@@ -6986,10 +6806,6 @@
       <c r="H43" s="2">
         <v>0</v>
       </c>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
       <c r="M43" s="23">
         <v>75005</v>
       </c>
@@ -7002,7 +6818,6 @@
       <c r="P43" t="s">
         <v>229</v>
       </c>
-      <c r="Q43"/>
       <c r="R43" s="3">
         <v>42149</v>
       </c>
@@ -7036,14 +6851,13 @@
       <c r="AB43" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AC43"/>
       <c r="AD43">
         <v>2015</v>
       </c>
-      <c r="AE43" s="24">
+      <c r="AE43">
         <v>2.3521334</v>
       </c>
-      <c r="AF43" s="24">
+      <c r="AF43">
         <v>48.856505599999998</v>
       </c>
       <c r="AG43">
@@ -7060,7 +6874,6 @@
       <c r="B44" t="s">
         <v>225</v>
       </c>
-      <c r="C44"/>
       <c r="D44" t="s">
         <v>226</v>
       </c>
@@ -7076,8 +6889,6 @@
       <c r="H44" s="2">
         <v>0</v>
       </c>
-      <c r="I44"/>
-      <c r="J44"/>
       <c r="K44" s="23" t="s">
         <v>100</v>
       </c>
@@ -7096,7 +6907,6 @@
       <c r="P44" t="s">
         <v>234</v>
       </c>
-      <c r="Q44"/>
       <c r="R44" s="3">
         <v>42155</v>
       </c>
@@ -7130,14 +6940,13 @@
       <c r="AB44" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="AC44"/>
       <c r="AD44">
         <v>2015</v>
       </c>
-      <c r="AE44" s="24">
+      <c r="AE44">
         <v>2.3528812000000001</v>
       </c>
-      <c r="AF44" s="24">
+      <c r="AF44">
         <v>48.830722000000002</v>
       </c>
       <c r="AG44">
@@ -7154,7 +6963,6 @@
       <c r="B45" t="s">
         <v>241</v>
       </c>
-      <c r="C45"/>
       <c r="D45" t="s">
         <v>242</v>
       </c>
@@ -7192,7 +7000,6 @@
       <c r="P45" t="s">
         <v>219</v>
       </c>
-      <c r="Q45"/>
       <c r="R45" s="3">
         <v>42150</v>
       </c>
@@ -7214,7 +7021,6 @@
       <c r="X45" s="5">
         <v>0.25</v>
       </c>
-      <c r="Y45"/>
       <c r="Z45" s="23" t="s">
         <v>244</v>
       </c>
@@ -7224,14 +7030,13 @@
       <c r="AB45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC45"/>
       <c r="AD45">
         <v>2015</v>
       </c>
-      <c r="AE45" s="24">
+      <c r="AE45">
         <v>2.3469514999999999</v>
       </c>
-      <c r="AF45" s="24">
+      <c r="AF45">
         <v>48.892251700000003</v>
       </c>
       <c r="AG45">
@@ -7248,7 +7053,6 @@
       <c r="B46" t="s">
         <v>245</v>
       </c>
-      <c r="C46"/>
       <c r="D46" t="s">
         <v>246</v>
       </c>
@@ -7286,7 +7090,6 @@
       <c r="P46" t="s">
         <v>250</v>
       </c>
-      <c r="Q46"/>
       <c r="R46" s="3">
         <v>42149</v>
       </c>
@@ -7308,7 +7111,6 @@
       <c r="X46" s="5">
         <v>0.25</v>
       </c>
-      <c r="Y46"/>
       <c r="Z46" s="23" t="s">
         <v>251</v>
       </c>
@@ -7318,14 +7120,13 @@
       <c r="AB46" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AC46"/>
       <c r="AD46">
         <v>2015</v>
       </c>
-      <c r="AE46" s="24">
+      <c r="AE46">
         <v>2.3469307000000001</v>
       </c>
-      <c r="AF46" s="24">
+      <c r="AF46">
         <v>48.825447500000003</v>
       </c>
       <c r="AG46">
@@ -7342,7 +7143,6 @@
       <c r="B47" t="s">
         <v>252</v>
       </c>
-      <c r="C47"/>
       <c r="D47" t="s">
         <v>253</v>
       </c>
@@ -7380,7 +7180,6 @@
       <c r="P47" t="s">
         <v>250</v>
       </c>
-      <c r="Q47"/>
       <c r="R47" s="3">
         <v>42152</v>
       </c>
@@ -7402,7 +7201,6 @@
       <c r="X47" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y47"/>
       <c r="Z47" s="23" t="s">
         <v>255</v>
       </c>
@@ -7412,14 +7210,13 @@
       <c r="AB47" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC47"/>
       <c r="AD47">
         <v>2015</v>
       </c>
-      <c r="AE47" s="24">
+      <c r="AE47">
         <v>2.3469307000000001</v>
       </c>
-      <c r="AF47" s="24">
+      <c r="AF47">
         <v>48.825447500000003</v>
       </c>
       <c r="AG47">
@@ -7436,7 +7233,6 @@
       <c r="B48" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="C48"/>
       <c r="D48" s="23" t="s">
         <v>257</v>
       </c>
@@ -7474,7 +7270,6 @@
       <c r="P48" t="s">
         <v>250</v>
       </c>
-      <c r="Q48"/>
       <c r="R48" s="3">
         <v>42151</v>
       </c>
@@ -7496,7 +7291,6 @@
       <c r="X48" s="5">
         <v>0.10416666667151731</v>
       </c>
-      <c r="Y48"/>
       <c r="Z48" s="23" t="s">
         <v>255</v>
       </c>
@@ -7506,14 +7300,13 @@
       <c r="AB48" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC48"/>
       <c r="AD48">
         <v>2015</v>
       </c>
-      <c r="AE48" s="24">
+      <c r="AE48">
         <v>2.3469307000000001</v>
       </c>
-      <c r="AF48" s="24">
+      <c r="AF48">
         <v>48.825447500000003</v>
       </c>
       <c r="AG48">
@@ -7530,7 +7323,6 @@
       <c r="B49" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="C49"/>
       <c r="D49" s="23" t="s">
         <v>260</v>
       </c>
@@ -7568,7 +7360,6 @@
       <c r="P49" t="s">
         <v>250</v>
       </c>
-      <c r="Q49"/>
       <c r="R49" s="3">
         <v>42153</v>
       </c>
@@ -7590,7 +7381,6 @@
       <c r="X49" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y49"/>
       <c r="Z49" s="23" t="s">
         <v>255</v>
       </c>
@@ -7600,14 +7390,13 @@
       <c r="AB49" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC49"/>
       <c r="AD49">
         <v>2015</v>
       </c>
-      <c r="AE49" s="24">
+      <c r="AE49">
         <v>2.3469307000000001</v>
       </c>
-      <c r="AF49" s="24">
+      <c r="AF49">
         <v>48.825447500000003</v>
       </c>
       <c r="AG49">
@@ -7624,7 +7413,6 @@
       <c r="B50" t="s">
         <v>262</v>
       </c>
-      <c r="C50"/>
       <c r="D50" t="s">
         <v>263</v>
       </c>
@@ -7664,7 +7452,6 @@
       <c r="P50" t="s">
         <v>269</v>
       </c>
-      <c r="Q50"/>
       <c r="R50" s="3">
         <v>42147</v>
       </c>
@@ -7686,7 +7473,6 @@
       <c r="X50" s="5">
         <v>0.25</v>
       </c>
-      <c r="Y50"/>
       <c r="Z50" s="23" t="s">
         <v>270</v>
       </c>
@@ -7696,14 +7482,13 @@
       <c r="AB50" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC50"/>
       <c r="AD50">
         <v>2015</v>
       </c>
-      <c r="AE50" s="24">
+      <c r="AE50">
         <v>2.5125796</v>
       </c>
-      <c r="AF50" s="24">
+      <c r="AF50">
         <v>48.688687799999997</v>
       </c>
       <c r="AG50">
@@ -7720,7 +7505,6 @@
       <c r="B51" t="s">
         <v>271</v>
       </c>
-      <c r="C51"/>
       <c r="D51" t="s">
         <v>272</v>
       </c>
@@ -7758,7 +7542,6 @@
       <c r="P51" t="s">
         <v>276</v>
       </c>
-      <c r="Q51"/>
       <c r="R51" s="3">
         <v>42153</v>
       </c>
@@ -7780,7 +7563,6 @@
       <c r="X51" s="5">
         <v>0.25</v>
       </c>
-      <c r="Y51"/>
       <c r="Z51" s="23" t="s">
         <v>277</v>
       </c>
@@ -7790,14 +7572,13 @@
       <c r="AB51" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC51"/>
       <c r="AD51">
         <v>2015</v>
       </c>
-      <c r="AE51" s="24">
+      <c r="AE51">
         <v>2.3912387000000002</v>
       </c>
-      <c r="AF51" s="24">
+      <c r="AF51">
         <v>48.8722827</v>
       </c>
       <c r="AG51">
@@ -7814,7 +7595,6 @@
       <c r="B52" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="C52"/>
       <c r="D52" t="s">
         <v>279</v>
       </c>
@@ -7852,7 +7632,6 @@
       <c r="P52" t="s">
         <v>276</v>
       </c>
-      <c r="Q52"/>
       <c r="R52" s="3">
         <v>42147</v>
       </c>
@@ -7874,7 +7653,6 @@
       <c r="X52" s="5">
         <v>0.16666666667151731</v>
       </c>
-      <c r="Y52"/>
       <c r="Z52" s="23" t="s">
         <v>277</v>
       </c>
@@ -7884,14 +7662,13 @@
       <c r="AB52" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC52"/>
       <c r="AD52">
         <v>2015</v>
       </c>
-      <c r="AE52" s="24">
+      <c r="AE52">
         <v>2.3912387000000002</v>
       </c>
-      <c r="AF52" s="24">
+      <c r="AF52">
         <v>48.8722827</v>
       </c>
       <c r="AG52">
@@ -7908,7 +7685,6 @@
       <c r="B53" t="s">
         <v>281</v>
       </c>
-      <c r="C53"/>
       <c r="D53" t="s">
         <v>282</v>
       </c>
@@ -7946,7 +7722,6 @@
       <c r="P53" t="s">
         <v>276</v>
       </c>
-      <c r="Q53"/>
       <c r="R53" s="3">
         <v>42155</v>
       </c>
@@ -7968,7 +7743,6 @@
       <c r="X53" s="5">
         <v>0.16666666667151731</v>
       </c>
-      <c r="Y53"/>
       <c r="Z53" s="23" t="s">
         <v>277</v>
       </c>
@@ -7978,14 +7752,13 @@
       <c r="AB53" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="AC53"/>
       <c r="AD53">
         <v>2015</v>
       </c>
-      <c r="AE53" s="24">
+      <c r="AE53">
         <v>2.3912387000000002</v>
       </c>
-      <c r="AF53" s="24">
+      <c r="AF53">
         <v>48.8722827</v>
       </c>
       <c r="AG53">
@@ -8002,7 +7775,6 @@
       <c r="B54" t="s">
         <v>284</v>
       </c>
-      <c r="C54"/>
       <c r="D54" t="s">
         <v>285</v>
       </c>
@@ -8040,7 +7812,6 @@
       <c r="P54" t="s">
         <v>276</v>
       </c>
-      <c r="Q54"/>
       <c r="R54" s="3">
         <v>42148</v>
       </c>
@@ -8062,7 +7833,6 @@
       <c r="X54" s="5">
         <v>0.16666666667151731</v>
       </c>
-      <c r="Y54"/>
       <c r="Z54" s="23" t="s">
         <v>277</v>
       </c>
@@ -8072,14 +7842,13 @@
       <c r="AB54" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AC54"/>
       <c r="AD54">
         <v>2015</v>
       </c>
-      <c r="AE54" s="24">
+      <c r="AE54">
         <v>2.3912387000000002</v>
       </c>
-      <c r="AF54" s="24">
+      <c r="AF54">
         <v>48.8722827</v>
       </c>
       <c r="AG54">
@@ -8096,7 +7865,6 @@
       <c r="B55" t="s">
         <v>284</v>
       </c>
-      <c r="C55"/>
       <c r="D55" t="s">
         <v>285</v>
       </c>
@@ -8134,7 +7902,6 @@
       <c r="P55" t="s">
         <v>289</v>
       </c>
-      <c r="Q55"/>
       <c r="R55" s="3">
         <v>42148</v>
       </c>
@@ -8156,7 +7923,6 @@
       <c r="X55" s="5">
         <v>0.16666666667151731</v>
       </c>
-      <c r="Y55"/>
       <c r="Z55" s="23" t="s">
         <v>277</v>
       </c>
@@ -8166,14 +7932,13 @@
       <c r="AB55" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AC55"/>
       <c r="AD55">
         <v>2015</v>
       </c>
-      <c r="AE55" s="24">
+      <c r="AE55">
         <v>2.3477426000000001</v>
       </c>
-      <c r="AF55" s="24">
+      <c r="AF55">
         <v>48.888583699999998</v>
       </c>
       <c r="AG55">
@@ -8190,7 +7955,6 @@
       <c r="B56" t="s">
         <v>290</v>
       </c>
-      <c r="C56"/>
       <c r="D56" t="s">
         <v>282</v>
       </c>
@@ -8228,7 +7992,6 @@
       <c r="P56" t="s">
         <v>276</v>
       </c>
-      <c r="Q56"/>
       <c r="R56" s="3">
         <v>42151</v>
       </c>
@@ -8250,7 +8013,6 @@
       <c r="X56" s="5">
         <v>0.16666666667151731</v>
       </c>
-      <c r="Y56"/>
       <c r="Z56" s="23" t="s">
         <v>277</v>
       </c>
@@ -8260,14 +8022,13 @@
       <c r="AB56" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC56"/>
       <c r="AD56">
         <v>2015</v>
       </c>
-      <c r="AE56" s="24">
+      <c r="AE56">
         <v>2.3912387000000002</v>
       </c>
-      <c r="AF56" s="24">
+      <c r="AF56">
         <v>48.8722827</v>
       </c>
       <c r="AG56">
@@ -8284,7 +8045,6 @@
       <c r="B57" t="s">
         <v>290</v>
       </c>
-      <c r="C57"/>
       <c r="D57" t="s">
         <v>282</v>
       </c>
@@ -8322,7 +8082,6 @@
       <c r="P57" t="s">
         <v>289</v>
       </c>
-      <c r="Q57"/>
       <c r="R57" s="3">
         <v>42151</v>
       </c>
@@ -8344,7 +8103,6 @@
       <c r="X57" s="5">
         <v>0.16666666667151731</v>
       </c>
-      <c r="Y57"/>
       <c r="Z57" s="23" t="s">
         <v>277</v>
       </c>
@@ -8354,14 +8112,13 @@
       <c r="AB57" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC57"/>
       <c r="AD57">
         <v>2015</v>
       </c>
-      <c r="AE57" s="24">
+      <c r="AE57">
         <v>2.3477426000000001</v>
       </c>
-      <c r="AF57" s="24">
+      <c r="AF57">
         <v>48.888583699999998</v>
       </c>
       <c r="AG57">
@@ -8378,7 +8135,6 @@
       <c r="B58" t="s">
         <v>292</v>
       </c>
-      <c r="C58"/>
       <c r="D58" t="s">
         <v>293</v>
       </c>
@@ -8418,7 +8174,6 @@
       <c r="P58" t="s">
         <v>298</v>
       </c>
-      <c r="Q58"/>
       <c r="R58" s="3">
         <v>42148</v>
       </c>
@@ -8440,7 +8195,6 @@
       <c r="X58" s="5">
         <v>0.1875</v>
       </c>
-      <c r="Y58"/>
       <c r="Z58" s="23" t="s">
         <v>299</v>
       </c>
@@ -8450,14 +8204,13 @@
       <c r="AB58" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AC58"/>
       <c r="AD58">
         <v>2015</v>
       </c>
-      <c r="AE58" s="24">
+      <c r="AE58">
         <v>2.3816913</v>
       </c>
-      <c r="AF58" s="24">
+      <c r="AF58">
         <v>48.864619500000003</v>
       </c>
       <c r="AG58">
@@ -8474,7 +8227,6 @@
       <c r="B59" t="s">
         <v>300</v>
       </c>
-      <c r="C59"/>
       <c r="D59" t="s">
         <v>301</v>
       </c>
@@ -8512,7 +8264,6 @@
       <c r="P59" t="s">
         <v>305</v>
       </c>
-      <c r="Q59"/>
       <c r="R59" s="3">
         <v>42150</v>
       </c>
@@ -8534,7 +8285,6 @@
       <c r="X59" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y59"/>
       <c r="Z59" s="23" t="s">
         <v>306</v>
       </c>
@@ -8544,14 +8294,13 @@
       <c r="AB59" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC59"/>
       <c r="AD59">
         <v>2015</v>
       </c>
-      <c r="AE59" s="24">
+      <c r="AE59">
         <v>2.3520623999999999</v>
       </c>
-      <c r="AF59" s="24">
+      <c r="AF59">
         <v>48.846454700000002</v>
       </c>
       <c r="AG59">
@@ -8568,7 +8317,6 @@
       <c r="B60" t="s">
         <v>307</v>
       </c>
-      <c r="C60"/>
       <c r="D60" t="s">
         <v>308</v>
       </c>
@@ -8606,7 +8354,6 @@
       <c r="P60" t="s">
         <v>212</v>
       </c>
-      <c r="Q60"/>
       <c r="R60" s="3">
         <v>42150</v>
       </c>
@@ -8628,7 +8375,6 @@
       <c r="X60" s="5">
         <v>8.3333333335758653E-2</v>
       </c>
-      <c r="Y60"/>
       <c r="Z60" s="23" t="s">
         <v>213</v>
       </c>
@@ -8638,14 +8384,13 @@
       <c r="AB60" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC60"/>
       <c r="AD60">
         <v>2015</v>
       </c>
-      <c r="AE60" s="24">
+      <c r="AE60">
         <v>2.3142440999999998</v>
       </c>
-      <c r="AF60" s="24">
+      <c r="AF60">
         <v>48.884203900000003</v>
       </c>
       <c r="AG60">
@@ -8662,7 +8407,6 @@
       <c r="B61" t="s">
         <v>310</v>
       </c>
-      <c r="C61"/>
       <c r="D61" t="s">
         <v>311</v>
       </c>
@@ -8700,7 +8444,6 @@
       <c r="P61" t="s">
         <v>145</v>
       </c>
-      <c r="Q61"/>
       <c r="R61" s="3">
         <v>42150</v>
       </c>
@@ -8722,7 +8465,6 @@
       <c r="X61" s="5">
         <v>8.3333333335758653E-2</v>
       </c>
-      <c r="Y61"/>
       <c r="Z61" s="23" t="s">
         <v>146</v>
       </c>
@@ -8732,14 +8474,13 @@
       <c r="AB61" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC61"/>
       <c r="AD61">
         <v>2015</v>
       </c>
-      <c r="AE61" s="24">
+      <c r="AE61">
         <v>2.3468110000000002</v>
       </c>
-      <c r="AF61" s="24">
+      <c r="AF61">
         <v>48.8598608</v>
       </c>
       <c r="AG61">
@@ -8756,7 +8497,6 @@
       <c r="B62" t="s">
         <v>313</v>
       </c>
-      <c r="C62"/>
       <c r="D62" t="s">
         <v>314</v>
       </c>
@@ -8794,7 +8534,6 @@
       <c r="P62" t="s">
         <v>305</v>
       </c>
-      <c r="Q62"/>
       <c r="R62" s="3">
         <v>42147</v>
       </c>
@@ -8816,7 +8555,6 @@
       <c r="X62" s="5">
         <v>8.3333333328482695E-2</v>
       </c>
-      <c r="Y62"/>
       <c r="Z62" s="23" t="s">
         <v>306</v>
       </c>
@@ -8826,14 +8564,13 @@
       <c r="AB62" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC62"/>
       <c r="AD62">
         <v>2015</v>
       </c>
-      <c r="AE62" s="24">
+      <c r="AE62">
         <v>2.3520623999999999</v>
       </c>
-      <c r="AF62" s="24">
+      <c r="AF62">
         <v>48.846454700000002</v>
       </c>
       <c r="AG62">
@@ -8850,7 +8587,6 @@
       <c r="B63" t="s">
         <v>316</v>
       </c>
-      <c r="C63"/>
       <c r="D63" t="s">
         <v>317</v>
       </c>
@@ -8888,7 +8624,6 @@
       <c r="P63" t="s">
         <v>319</v>
       </c>
-      <c r="Q63"/>
       <c r="R63" s="3">
         <v>42149</v>
       </c>
@@ -8910,7 +8645,6 @@
       <c r="X63" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y63"/>
       <c r="Z63" s="23" t="s">
         <v>299</v>
       </c>
@@ -8920,21 +8654,20 @@
       <c r="AB63" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AC63"/>
       <c r="AD63">
         <v>2015</v>
       </c>
-      <c r="AE63" s="24">
+      <c r="AE63">
         <v>2.3817815000000002</v>
       </c>
-      <c r="AF63" s="24">
+      <c r="AF63">
         <v>48.864851100000003</v>
       </c>
       <c r="AG63">
-        <v>2.3817815000000002</v>
+        <v>2.3816913</v>
       </c>
       <c r="AH63">
-        <v>48.864851100000003</v>
+        <v>48.864619500000003</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
@@ -8944,7 +8677,6 @@
       <c r="B64" t="s">
         <v>320</v>
       </c>
-      <c r="C64"/>
       <c r="D64" t="s">
         <v>321</v>
       </c>
@@ -8982,7 +8714,6 @@
       <c r="P64" t="s">
         <v>319</v>
       </c>
-      <c r="Q64"/>
       <c r="R64" s="3">
         <v>42152</v>
       </c>
@@ -9004,7 +8735,6 @@
       <c r="X64" s="5">
         <v>0.20833333333575871</v>
       </c>
-      <c r="Y64"/>
       <c r="Z64" s="23" t="s">
         <v>299</v>
       </c>
@@ -9014,21 +8744,20 @@
       <c r="AB64" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC64"/>
       <c r="AD64">
         <v>2015</v>
       </c>
-      <c r="AE64" s="24">
+      <c r="AE64">
         <v>2.3817815000000002</v>
       </c>
-      <c r="AF64" s="24">
+      <c r="AF64">
         <v>48.864851100000003</v>
       </c>
       <c r="AG64">
-        <v>2.3817815000000002</v>
+        <v>2.3816913</v>
       </c>
       <c r="AH64">
-        <v>48.864851100000003</v>
+        <v>48.864619500000003</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
@@ -9038,7 +8767,6 @@
       <c r="B65" t="s">
         <v>323</v>
       </c>
-      <c r="C65"/>
       <c r="D65" t="s">
         <v>324</v>
       </c>
@@ -9076,7 +8804,6 @@
       <c r="P65" t="s">
         <v>319</v>
       </c>
-      <c r="Q65"/>
       <c r="R65" s="3">
         <v>42147</v>
       </c>
@@ -9098,7 +8825,6 @@
       <c r="X65" s="5">
         <v>0.375</v>
       </c>
-      <c r="Y65"/>
       <c r="Z65" s="23" t="s">
         <v>326</v>
       </c>
@@ -9108,21 +8834,20 @@
       <c r="AB65" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC65"/>
       <c r="AD65">
         <v>2015</v>
       </c>
-      <c r="AE65" s="24">
+      <c r="AE65">
         <v>2.3817815000000002</v>
       </c>
-      <c r="AF65" s="24">
+      <c r="AF65">
         <v>48.864851100000003</v>
       </c>
       <c r="AG65">
-        <v>2.3817815000000002</v>
+        <v>2.3816913</v>
       </c>
       <c r="AH65">
-        <v>48.864851100000003</v>
+        <v>48.864619500000003</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
@@ -9132,7 +8857,6 @@
       <c r="B66" t="s">
         <v>327</v>
       </c>
-      <c r="C66"/>
       <c r="D66" t="s">
         <v>328</v>
       </c>
@@ -9170,7 +8894,6 @@
       <c r="P66" t="s">
         <v>319</v>
       </c>
-      <c r="Q66"/>
       <c r="R66" s="3">
         <v>42148</v>
       </c>
@@ -9192,7 +8915,6 @@
       <c r="X66" s="5">
         <v>6.25E-2</v>
       </c>
-      <c r="Y66"/>
       <c r="Z66" s="23" t="s">
         <v>326</v>
       </c>
@@ -9202,21 +8924,20 @@
       <c r="AB66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AC66"/>
       <c r="AD66">
         <v>2015</v>
       </c>
-      <c r="AE66" s="24">
+      <c r="AE66">
         <v>2.3817815000000002</v>
       </c>
-      <c r="AF66" s="24">
+      <c r="AF66">
         <v>48.864851100000003</v>
       </c>
       <c r="AG66">
-        <v>2.3817815000000002</v>
+        <v>2.3816913</v>
       </c>
       <c r="AH66">
-        <v>48.864851100000003</v>
+        <v>48.864619500000003</v>
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
@@ -9226,7 +8947,6 @@
       <c r="B67" t="s">
         <v>330</v>
       </c>
-      <c r="C67"/>
       <c r="D67" t="s">
         <v>331</v>
       </c>
@@ -9264,7 +8984,6 @@
       <c r="P67" t="s">
         <v>319</v>
       </c>
-      <c r="Q67"/>
       <c r="R67" s="3">
         <v>42150</v>
       </c>
@@ -9286,7 +9005,6 @@
       <c r="X67" s="5">
         <v>0.375</v>
       </c>
-      <c r="Y67"/>
       <c r="Z67" s="23" t="s">
         <v>326</v>
       </c>
@@ -9296,21 +9014,20 @@
       <c r="AB67" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC67"/>
       <c r="AD67">
         <v>2015</v>
       </c>
-      <c r="AE67" s="24">
+      <c r="AE67">
         <v>2.3817815000000002</v>
       </c>
-      <c r="AF67" s="24">
+      <c r="AF67">
         <v>48.864851100000003</v>
       </c>
       <c r="AG67">
-        <v>2.3817815000000002</v>
+        <v>2.3816913</v>
       </c>
       <c r="AH67">
-        <v>48.864851100000003</v>
+        <v>48.864619500000003</v>
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
@@ -9320,7 +9037,6 @@
       <c r="B68" t="s">
         <v>333</v>
       </c>
-      <c r="C68"/>
       <c r="D68" t="s">
         <v>334</v>
       </c>
@@ -9358,7 +9074,6 @@
       <c r="P68" t="s">
         <v>319</v>
       </c>
-      <c r="Q68"/>
       <c r="R68" s="3">
         <v>42151</v>
       </c>
@@ -9380,7 +9095,6 @@
       <c r="X68" s="5">
         <v>0.25</v>
       </c>
-      <c r="Y68"/>
       <c r="Z68" s="23" t="s">
         <v>326</v>
       </c>
@@ -9390,21 +9104,20 @@
       <c r="AB68" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC68"/>
       <c r="AD68">
         <v>2015</v>
       </c>
-      <c r="AE68" s="24">
+      <c r="AE68">
         <v>2.3817815000000002</v>
       </c>
-      <c r="AF68" s="24">
+      <c r="AF68">
         <v>48.864851100000003</v>
       </c>
       <c r="AG68">
-        <v>2.3817815000000002</v>
+        <v>2.3816913</v>
       </c>
       <c r="AH68">
-        <v>48.864851100000003</v>
+        <v>48.864619500000003</v>
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
@@ -9414,7 +9127,6 @@
       <c r="B69" t="s">
         <v>336</v>
       </c>
-      <c r="C69"/>
       <c r="D69" t="s">
         <v>337</v>
       </c>
@@ -9452,7 +9164,6 @@
       <c r="P69" t="s">
         <v>319</v>
       </c>
-      <c r="Q69"/>
       <c r="R69" s="3">
         <v>42153</v>
       </c>
@@ -9474,7 +9185,6 @@
       <c r="X69" s="5">
         <v>0.375</v>
       </c>
-      <c r="Y69"/>
       <c r="Z69" s="23" t="s">
         <v>326</v>
       </c>
@@ -9484,21 +9194,20 @@
       <c r="AB69" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC69"/>
       <c r="AD69">
         <v>2015</v>
       </c>
-      <c r="AE69" s="24">
+      <c r="AE69">
         <v>2.3817815000000002</v>
       </c>
-      <c r="AF69" s="24">
+      <c r="AF69">
         <v>48.864851100000003</v>
       </c>
       <c r="AG69">
-        <v>2.3817815000000002</v>
+        <v>2.3816913</v>
       </c>
       <c r="AH69">
-        <v>48.864851100000003</v>
+        <v>48.864619500000003</v>
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
@@ -9508,7 +9217,6 @@
       <c r="B70" t="s">
         <v>339</v>
       </c>
-      <c r="C70"/>
       <c r="D70" t="s">
         <v>340</v>
       </c>
@@ -9527,7 +9235,6 @@
       <c r="I70" s="23">
         <v>41</v>
       </c>
-      <c r="J70"/>
       <c r="K70" s="23" t="s">
         <v>39</v>
       </c>
@@ -9546,7 +9253,6 @@
       <c r="P70" t="s">
         <v>344</v>
       </c>
-      <c r="Q70"/>
       <c r="R70" s="3">
         <v>42153</v>
       </c>
@@ -9580,14 +9286,13 @@
       <c r="AB70" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC70"/>
       <c r="AD70">
         <v>2015</v>
       </c>
-      <c r="AE70" s="24">
+      <c r="AE70">
         <v>2.3343299000000002</v>
       </c>
-      <c r="AF70" s="24">
+      <c r="AF70">
         <v>48.888924799999998</v>
       </c>
       <c r="AG70">
@@ -9604,7 +9309,6 @@
       <c r="B71" t="s">
         <v>347</v>
       </c>
-      <c r="C71"/>
       <c r="D71" t="s">
         <v>348</v>
       </c>
@@ -9642,7 +9346,6 @@
       <c r="P71" t="s">
         <v>305</v>
       </c>
-      <c r="Q71"/>
       <c r="R71" s="3">
         <v>42151</v>
       </c>
@@ -9664,7 +9367,6 @@
       <c r="X71" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y71"/>
       <c r="Z71" s="23" t="s">
         <v>306</v>
       </c>
@@ -9674,14 +9376,13 @@
       <c r="AB71" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC71"/>
       <c r="AD71">
         <v>2015</v>
       </c>
-      <c r="AE71" s="24">
+      <c r="AE71">
         <v>2.3520623999999999</v>
       </c>
-      <c r="AF71" s="24">
+      <c r="AF71">
         <v>48.846454700000002</v>
       </c>
       <c r="AG71">
@@ -9698,7 +9399,6 @@
       <c r="B72" t="s">
         <v>350</v>
       </c>
-      <c r="C72"/>
       <c r="D72" t="s">
         <v>351</v>
       </c>
@@ -9736,7 +9436,6 @@
       <c r="P72" t="s">
         <v>355</v>
       </c>
-      <c r="Q72"/>
       <c r="R72" s="3">
         <v>42147</v>
       </c>
@@ -9758,7 +9457,6 @@
       <c r="X72" s="5">
         <v>0.16666666667151731</v>
       </c>
-      <c r="Y72"/>
       <c r="Z72" s="23" t="s">
         <v>356</v>
       </c>
@@ -9768,14 +9466,13 @@
       <c r="AB72" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC72"/>
       <c r="AD72">
         <v>2015</v>
       </c>
-      <c r="AE72" s="24">
+      <c r="AE72">
         <v>2.3161209</v>
       </c>
-      <c r="AF72" s="24">
+      <c r="AF72">
         <v>48.833146599999999</v>
       </c>
       <c r="AG72">
@@ -9792,7 +9489,6 @@
       <c r="B73" t="s">
         <v>357</v>
       </c>
-      <c r="C73"/>
       <c r="D73" t="s">
         <v>358</v>
       </c>
@@ -9830,7 +9526,6 @@
       <c r="P73" t="s">
         <v>355</v>
       </c>
-      <c r="Q73"/>
       <c r="R73" s="3">
         <v>42150</v>
       </c>
@@ -9852,7 +9547,6 @@
       <c r="X73" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y73"/>
       <c r="Z73" s="23" t="s">
         <v>360</v>
       </c>
@@ -9862,14 +9556,13 @@
       <c r="AB73" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC73"/>
       <c r="AD73">
         <v>2015</v>
       </c>
-      <c r="AE73" s="24">
+      <c r="AE73">
         <v>2.3161209</v>
       </c>
-      <c r="AF73" s="24">
+      <c r="AF73">
         <v>48.833146599999999</v>
       </c>
       <c r="AG73">
@@ -9886,7 +9579,6 @@
       <c r="B74" t="s">
         <v>357</v>
       </c>
-      <c r="C74"/>
       <c r="D74" t="s">
         <v>358</v>
       </c>
@@ -9924,7 +9616,6 @@
       <c r="P74" t="s">
         <v>355</v>
       </c>
-      <c r="Q74"/>
       <c r="R74" s="3">
         <v>42150</v>
       </c>
@@ -9946,7 +9637,6 @@
       <c r="X74" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y74"/>
       <c r="Z74" s="23" t="s">
         <v>360</v>
       </c>
@@ -9956,14 +9646,13 @@
       <c r="AB74" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC74"/>
       <c r="AD74">
         <v>2015</v>
       </c>
-      <c r="AE74" s="24">
+      <c r="AE74">
         <v>2.3161209</v>
       </c>
-      <c r="AF74" s="24">
+      <c r="AF74">
         <v>48.833146599999999</v>
       </c>
       <c r="AG74">
@@ -9980,7 +9669,6 @@
       <c r="B75" t="s">
         <v>361</v>
       </c>
-      <c r="C75"/>
       <c r="D75" t="s">
         <v>362</v>
       </c>
@@ -10018,7 +9706,6 @@
       <c r="P75" t="s">
         <v>355</v>
       </c>
-      <c r="Q75"/>
       <c r="R75" s="3">
         <v>42151</v>
       </c>
@@ -10040,7 +9727,6 @@
       <c r="X75" s="5">
         <v>0.16666666666424129</v>
       </c>
-      <c r="Y75"/>
       <c r="Z75" s="23" t="s">
         <v>364</v>
       </c>
@@ -10050,14 +9736,13 @@
       <c r="AB75" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC75"/>
       <c r="AD75">
         <v>2015</v>
       </c>
-      <c r="AE75" s="24">
+      <c r="AE75">
         <v>2.3161209</v>
       </c>
-      <c r="AF75" s="24">
+      <c r="AF75">
         <v>48.833146599999999</v>
       </c>
       <c r="AG75">
@@ -10074,7 +9759,6 @@
       <c r="B76" t="s">
         <v>365</v>
       </c>
-      <c r="C76"/>
       <c r="D76" t="s">
         <v>366</v>
       </c>
@@ -10112,7 +9796,6 @@
       <c r="P76" t="s">
         <v>370</v>
       </c>
-      <c r="Q76"/>
       <c r="R76" s="3">
         <v>42148</v>
       </c>
@@ -10134,7 +9817,6 @@
       <c r="X76" s="5">
         <v>0.16666666666424129</v>
       </c>
-      <c r="Y76"/>
       <c r="Z76" s="23" t="s">
         <v>371</v>
       </c>
@@ -10144,14 +9826,13 @@
       <c r="AB76" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AC76"/>
       <c r="AD76">
         <v>2015</v>
       </c>
-      <c r="AE76" s="24">
+      <c r="AE76">
         <v>2.3504412000000001</v>
       </c>
-      <c r="AF76" s="24">
+      <c r="AF76">
         <v>48.861035999999999</v>
       </c>
       <c r="AG76">
@@ -10168,7 +9849,6 @@
       <c r="B77" t="s">
         <v>372</v>
       </c>
-      <c r="C77"/>
       <c r="D77" t="s">
         <v>373</v>
       </c>
@@ -10206,7 +9886,6 @@
       <c r="P77" t="s">
         <v>370</v>
       </c>
-      <c r="Q77"/>
       <c r="R77" s="3">
         <v>42150</v>
       </c>
@@ -10228,7 +9907,6 @@
       <c r="X77" s="5">
         <v>0.16666666667151731</v>
       </c>
-      <c r="Y77"/>
       <c r="Z77" s="23" t="s">
         <v>371</v>
       </c>
@@ -10238,14 +9916,13 @@
       <c r="AB77" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC77"/>
       <c r="AD77">
         <v>2015</v>
       </c>
-      <c r="AE77" s="24">
+      <c r="AE77">
         <v>2.3504412000000001</v>
       </c>
-      <c r="AF77" s="24">
+      <c r="AF77">
         <v>48.861035999999999</v>
       </c>
       <c r="AG77">
@@ -10262,7 +9939,6 @@
       <c r="B78" t="s">
         <v>375</v>
       </c>
-      <c r="C78"/>
       <c r="D78" t="s">
         <v>376</v>
       </c>
@@ -10300,7 +9976,6 @@
       <c r="P78" t="s">
         <v>370</v>
       </c>
-      <c r="Q78"/>
       <c r="R78" s="3">
         <v>42154</v>
       </c>
@@ -10322,7 +9997,6 @@
       <c r="X78" s="5">
         <v>0.16666666667151731</v>
       </c>
-      <c r="Y78"/>
       <c r="Z78" s="23" t="s">
         <v>371</v>
       </c>
@@ -10332,14 +10006,13 @@
       <c r="AB78" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="AC78"/>
       <c r="AD78">
         <v>2015</v>
       </c>
-      <c r="AE78" s="24">
+      <c r="AE78">
         <v>2.3504412000000001</v>
       </c>
-      <c r="AF78" s="24">
+      <c r="AF78">
         <v>48.861035999999999</v>
       </c>
       <c r="AG78">
@@ -10356,7 +10029,6 @@
       <c r="B79" t="s">
         <v>380</v>
       </c>
-      <c r="C79"/>
       <c r="D79" t="s">
         <v>381</v>
       </c>
@@ -10394,7 +10066,6 @@
       <c r="P79" t="s">
         <v>387</v>
       </c>
-      <c r="Q79"/>
       <c r="R79" s="3">
         <v>42146</v>
       </c>
@@ -10416,7 +10087,6 @@
       <c r="X79" s="5">
         <v>0.22916666666424129</v>
       </c>
-      <c r="Y79"/>
       <c r="Z79" s="23" t="s">
         <v>388</v>
       </c>
@@ -10426,14 +10096,13 @@
       <c r="AB79" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AC79"/>
       <c r="AD79">
         <v>2015</v>
       </c>
-      <c r="AE79" s="24">
+      <c r="AE79">
         <v>2.2117545000000001</v>
       </c>
-      <c r="AF79" s="24">
+      <c r="AF79">
         <v>48.653832199999997</v>
       </c>
       <c r="AG79">
@@ -10450,7 +10119,6 @@
       <c r="B80" t="s">
         <v>389</v>
       </c>
-      <c r="C80"/>
       <c r="D80" s="23" t="s">
         <v>390</v>
       </c>
@@ -10467,7 +10135,6 @@
       <c r="I80" s="23">
         <v>18</v>
       </c>
-      <c r="J80"/>
       <c r="K80" s="23" t="s">
         <v>39</v>
       </c>
@@ -10486,7 +10153,6 @@
       <c r="P80" t="s">
         <v>394</v>
       </c>
-      <c r="Q80"/>
       <c r="R80" s="3">
         <v>42147</v>
       </c>
@@ -10508,7 +10174,6 @@
       <c r="X80" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y80"/>
       <c r="Z80" s="23" t="s">
         <v>395</v>
       </c>
@@ -10518,14 +10183,13 @@
       <c r="AB80" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC80"/>
       <c r="AD80">
         <v>2015</v>
       </c>
-      <c r="AE80" s="24">
+      <c r="AE80">
         <v>2.3507807000000001</v>
       </c>
-      <c r="AF80" s="24">
+      <c r="AF80">
         <v>48.827914999999997</v>
       </c>
       <c r="AG80">
@@ -10542,7 +10206,6 @@
       <c r="B81" t="s">
         <v>396</v>
       </c>
-      <c r="C81"/>
       <c r="D81" t="s">
         <v>397</v>
       </c>
@@ -10580,7 +10243,6 @@
       <c r="P81" t="s">
         <v>387</v>
       </c>
-      <c r="Q81"/>
       <c r="R81" s="3">
         <v>42149</v>
       </c>
@@ -10602,7 +10264,6 @@
       <c r="X81" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y81"/>
       <c r="Z81" s="23" t="s">
         <v>388</v>
       </c>
@@ -10612,14 +10273,13 @@
       <c r="AB81" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AC81"/>
       <c r="AD81">
         <v>2015</v>
       </c>
-      <c r="AE81" s="24">
+      <c r="AE81">
         <v>2.2117545000000001</v>
       </c>
-      <c r="AF81" s="24">
+      <c r="AF81">
         <v>48.653832199999997</v>
       </c>
       <c r="AG81">
@@ -10636,7 +10296,6 @@
       <c r="B82" t="s">
         <v>399</v>
       </c>
-      <c r="C82"/>
       <c r="D82" t="s">
         <v>400</v>
       </c>
@@ -10655,7 +10314,6 @@
       <c r="I82" s="23">
         <v>54</v>
       </c>
-      <c r="J82"/>
       <c r="K82" s="23" t="s">
         <v>39</v>
       </c>
@@ -10674,7 +10332,6 @@
       <c r="P82" t="s">
         <v>404</v>
       </c>
-      <c r="Q82"/>
       <c r="R82" s="3">
         <v>42153</v>
       </c>
@@ -10696,7 +10353,6 @@
       <c r="X82" s="5">
         <v>0.29166666666424129</v>
       </c>
-      <c r="Y82"/>
       <c r="Z82" s="23" t="s">
         <v>405</v>
       </c>
@@ -10706,14 +10362,13 @@
       <c r="AB82" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC82"/>
       <c r="AD82">
         <v>2015</v>
       </c>
-      <c r="AE82" s="24">
+      <c r="AE82">
         <v>2.3528098000000002</v>
       </c>
-      <c r="AF82" s="24">
+      <c r="AF82">
         <v>48.8433232</v>
       </c>
       <c r="AG82">
@@ -10730,7 +10385,6 @@
       <c r="B83" t="s">
         <v>406</v>
       </c>
-      <c r="C83"/>
       <c r="D83" t="s">
         <v>407</v>
       </c>
@@ -10768,7 +10422,6 @@
       <c r="P83" t="s">
         <v>411</v>
       </c>
-      <c r="Q83"/>
       <c r="R83" s="3">
         <v>42147</v>
       </c>
@@ -10790,20 +10443,16 @@
       <c r="X83" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y83"/>
       <c r="Z83" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="AA83"/>
-      <c r="AB83"/>
-      <c r="AC83"/>
       <c r="AD83">
         <v>2015</v>
       </c>
-      <c r="AE83" s="24">
+      <c r="AE83">
         <v>2.3635746000000002</v>
       </c>
-      <c r="AF83" s="24">
+      <c r="AF83">
         <v>48.863670999999997</v>
       </c>
       <c r="AG83">
@@ -10820,7 +10469,6 @@
       <c r="B84" t="s">
         <v>406</v>
       </c>
-      <c r="C84"/>
       <c r="D84" t="s">
         <v>407</v>
       </c>
@@ -10858,7 +10506,6 @@
       <c r="P84" t="s">
         <v>411</v>
       </c>
-      <c r="Q84"/>
       <c r="R84" s="3">
         <v>42148</v>
       </c>
@@ -10880,20 +10527,16 @@
       <c r="X84" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y84"/>
       <c r="Z84" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="AA84"/>
-      <c r="AB84"/>
-      <c r="AC84"/>
       <c r="AD84">
         <v>2015</v>
       </c>
-      <c r="AE84" s="24">
+      <c r="AE84">
         <v>2.3635746000000002</v>
       </c>
-      <c r="AF84" s="24">
+      <c r="AF84">
         <v>48.863670999999997</v>
       </c>
       <c r="AG84">
@@ -10910,7 +10553,6 @@
       <c r="B85" t="s">
         <v>406</v>
       </c>
-      <c r="C85"/>
       <c r="D85" t="s">
         <v>407</v>
       </c>
@@ -10948,7 +10590,6 @@
       <c r="P85" t="s">
         <v>411</v>
       </c>
-      <c r="Q85"/>
       <c r="R85" s="3">
         <v>42149</v>
       </c>
@@ -10970,20 +10611,16 @@
       <c r="X85" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y85"/>
       <c r="Z85" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="AA85"/>
-      <c r="AB85"/>
-      <c r="AC85"/>
       <c r="AD85">
         <v>2015</v>
       </c>
-      <c r="AE85" s="24">
+      <c r="AE85">
         <v>2.3635746000000002</v>
       </c>
-      <c r="AF85" s="24">
+      <c r="AF85">
         <v>48.863670999999997</v>
       </c>
       <c r="AG85">
@@ -11000,7 +10637,6 @@
       <c r="B86" t="s">
         <v>406</v>
       </c>
-      <c r="C86"/>
       <c r="D86" t="s">
         <v>407</v>
       </c>
@@ -11038,7 +10674,6 @@
       <c r="P86" t="s">
         <v>411</v>
       </c>
-      <c r="Q86"/>
       <c r="R86" s="3">
         <v>42150</v>
       </c>
@@ -11060,20 +10695,16 @@
       <c r="X86" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y86"/>
       <c r="Z86" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="AA86"/>
-      <c r="AB86"/>
-      <c r="AC86"/>
       <c r="AD86">
         <v>2015</v>
       </c>
-      <c r="AE86" s="24">
+      <c r="AE86">
         <v>2.3635746000000002</v>
       </c>
-      <c r="AF86" s="24">
+      <c r="AF86">
         <v>48.863670999999997</v>
       </c>
       <c r="AG86">
@@ -11090,7 +10721,6 @@
       <c r="B87" t="s">
         <v>406</v>
       </c>
-      <c r="C87"/>
       <c r="D87" t="s">
         <v>407</v>
       </c>
@@ -11128,7 +10758,6 @@
       <c r="P87" t="s">
         <v>411</v>
       </c>
-      <c r="Q87"/>
       <c r="R87" s="3">
         <v>42151</v>
       </c>
@@ -11150,20 +10779,16 @@
       <c r="X87" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y87"/>
       <c r="Z87" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="AA87"/>
-      <c r="AB87"/>
-      <c r="AC87"/>
       <c r="AD87">
         <v>2015</v>
       </c>
-      <c r="AE87" s="24">
+      <c r="AE87">
         <v>2.3635746000000002</v>
       </c>
-      <c r="AF87" s="24">
+      <c r="AF87">
         <v>48.863670999999997</v>
       </c>
       <c r="AG87">
@@ -11180,7 +10805,6 @@
       <c r="B88" t="s">
         <v>406</v>
       </c>
-      <c r="C88"/>
       <c r="D88" t="s">
         <v>407</v>
       </c>
@@ -11218,7 +10842,6 @@
       <c r="P88" t="s">
         <v>411</v>
       </c>
-      <c r="Q88"/>
       <c r="R88" s="3">
         <v>42152</v>
       </c>
@@ -11240,20 +10863,16 @@
       <c r="X88" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y88"/>
       <c r="Z88" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="AA88"/>
-      <c r="AB88"/>
-      <c r="AC88"/>
       <c r="AD88">
         <v>2015</v>
       </c>
-      <c r="AE88" s="24">
+      <c r="AE88">
         <v>2.3635746000000002</v>
       </c>
-      <c r="AF88" s="24">
+      <c r="AF88">
         <v>48.863670999999997</v>
       </c>
       <c r="AG88">
@@ -11270,7 +10889,6 @@
       <c r="B89" t="s">
         <v>406</v>
       </c>
-      <c r="C89"/>
       <c r="D89" t="s">
         <v>407</v>
       </c>
@@ -11308,7 +10926,6 @@
       <c r="P89" t="s">
         <v>411</v>
       </c>
-      <c r="Q89"/>
       <c r="R89" s="3">
         <v>42153</v>
       </c>
@@ -11330,20 +10947,16 @@
       <c r="X89" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y89"/>
       <c r="Z89" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="AA89"/>
-      <c r="AB89"/>
-      <c r="AC89"/>
       <c r="AD89">
         <v>2015</v>
       </c>
-      <c r="AE89" s="24">
+      <c r="AE89">
         <v>2.3635746000000002</v>
       </c>
-      <c r="AF89" s="24">
+      <c r="AF89">
         <v>48.863670999999997</v>
       </c>
       <c r="AG89">
@@ -11360,7 +10973,6 @@
       <c r="B90" t="s">
         <v>406</v>
       </c>
-      <c r="C90"/>
       <c r="D90" t="s">
         <v>407</v>
       </c>
@@ -11398,7 +11010,6 @@
       <c r="P90" t="s">
         <v>411</v>
       </c>
-      <c r="Q90"/>
       <c r="R90" s="3">
         <v>42154</v>
       </c>
@@ -11420,20 +11031,16 @@
       <c r="X90" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y90"/>
       <c r="Z90" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="AA90"/>
-      <c r="AB90"/>
-      <c r="AC90"/>
       <c r="AD90">
         <v>2015</v>
       </c>
-      <c r="AE90" s="24">
+      <c r="AE90">
         <v>2.3635746000000002</v>
       </c>
-      <c r="AF90" s="24">
+      <c r="AF90">
         <v>48.863670999999997</v>
       </c>
       <c r="AG90">
@@ -11450,7 +11057,6 @@
       <c r="B91" t="s">
         <v>413</v>
       </c>
-      <c r="C91"/>
       <c r="D91" t="s">
         <v>414</v>
       </c>
@@ -11488,7 +11094,6 @@
       <c r="P91" t="s">
         <v>419</v>
       </c>
-      <c r="Q91"/>
       <c r="R91" s="3">
         <v>42147</v>
       </c>
@@ -11510,7 +11115,6 @@
       <c r="X91" s="5">
         <v>0.16666666666424129</v>
       </c>
-      <c r="Y91"/>
       <c r="Z91" s="23" t="s">
         <v>420</v>
       </c>
@@ -11520,12 +11124,15 @@
       <c r="AB91" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC91"/>
       <c r="AD91">
         <v>2015</v>
       </c>
-      <c r="AG91"/>
-      <c r="AH91"/>
+      <c r="AE91" s="24">
+        <v>2.4236094000000001</v>
+      </c>
+      <c r="AF91" s="24">
+        <v>48.858741000000002</v>
+      </c>
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
@@ -11534,7 +11141,6 @@
       <c r="B92" t="s">
         <v>421</v>
       </c>
-      <c r="C92"/>
       <c r="D92" t="s">
         <v>422</v>
       </c>
@@ -11572,7 +11178,6 @@
       <c r="P92" t="s">
         <v>419</v>
       </c>
-      <c r="Q92"/>
       <c r="R92" s="3">
         <v>42154</v>
       </c>
@@ -11594,7 +11199,6 @@
       <c r="X92" s="5">
         <v>0.16666666666424129</v>
       </c>
-      <c r="Y92"/>
       <c r="Z92" s="23" t="s">
         <v>420</v>
       </c>
@@ -11604,12 +11208,15 @@
       <c r="AB92" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="AC92"/>
       <c r="AD92">
         <v>2015</v>
       </c>
-      <c r="AG92"/>
-      <c r="AH92"/>
+      <c r="AE92" s="24">
+        <v>2.4236094000000001</v>
+      </c>
+      <c r="AF92" s="24">
+        <v>48.858741000000002</v>
+      </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
@@ -11618,7 +11225,6 @@
       <c r="B93" t="s">
         <v>424</v>
       </c>
-      <c r="C93"/>
       <c r="D93" t="s">
         <v>425</v>
       </c>
@@ -11644,7 +11250,7 @@
         <v>100</v>
       </c>
       <c r="L93" s="23" t="s">
-        <v>428</v>
+        <v>165</v>
       </c>
       <c r="M93" s="9">
         <v>75010</v>
@@ -11656,9 +11262,8 @@
         <v>42</v>
       </c>
       <c r="P93" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q93"/>
+        <v>428</v>
+      </c>
       <c r="R93" s="3">
         <v>42147</v>
       </c>
@@ -11680,9 +11285,8 @@
       <c r="X93" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y93"/>
       <c r="Z93" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA93" s="6" t="s">
         <v>46</v>
@@ -11690,14 +11294,13 @@
       <c r="AB93" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC93"/>
       <c r="AD93">
         <v>2015</v>
       </c>
-      <c r="AE93" s="24">
+      <c r="AE93">
         <v>2.3549628</v>
       </c>
-      <c r="AF93" s="24">
+      <c r="AF93">
         <v>48.876967700000002</v>
       </c>
       <c r="AG93">
@@ -11712,18 +11315,17 @@
         <v>76</v>
       </c>
       <c r="B94" t="s">
+        <v>430</v>
+      </c>
+      <c r="D94" t="s">
         <v>431</v>
       </c>
-      <c r="C94"/>
-      <c r="D94" t="s">
+      <c r="E94" s="23" t="s">
         <v>432</v>
-      </c>
-      <c r="E94" s="23" t="s">
-        <v>433</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H94" s="2">
         <v>0</v>
@@ -11731,7 +11333,6 @@
       <c r="I94" s="23">
         <v>20</v>
       </c>
-      <c r="J94"/>
       <c r="K94" s="23" t="s">
         <v>39</v>
       </c>
@@ -11748,9 +11349,8 @@
         <v>42</v>
       </c>
       <c r="P94" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q94"/>
+        <v>434</v>
+      </c>
       <c r="R94" s="3">
         <v>42155</v>
       </c>
@@ -11772,25 +11372,21 @@
       <c r="X94" s="5">
         <v>0.20833333332848269</v>
       </c>
-      <c r="Y94"/>
       <c r="Z94" s="23"/>
-      <c r="AA94"/>
-      <c r="AB94"/>
-      <c r="AC94"/>
       <c r="AD94">
         <v>2015</v>
       </c>
-      <c r="AE94" s="24">
+      <c r="AE94">
         <v>2.3855871999999998</v>
       </c>
-      <c r="AF94" s="24">
+      <c r="AF94">
         <v>48.848578799999999</v>
       </c>
       <c r="AG94">
-        <v>2.3855871999999998</v>
+        <v>2.3507807000000001</v>
       </c>
       <c r="AH94">
-        <v>48.848578799999999</v>
+        <v>48.827914999999997</v>
       </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.25">
@@ -11798,14 +11394,13 @@
         <v>77</v>
       </c>
       <c r="B95" t="s">
+        <v>435</v>
+      </c>
+      <c r="D95" t="s">
         <v>436</v>
       </c>
-      <c r="C95"/>
-      <c r="D95" t="s">
+      <c r="E95" s="23" t="s">
         <v>437</v>
-      </c>
-      <c r="E95" s="23" t="s">
-        <v>438</v>
       </c>
       <c r="F95" s="23">
         <v>12</v>
@@ -11826,7 +11421,7 @@
         <v>100</v>
       </c>
       <c r="L95" s="23" t="s">
-        <v>428</v>
+        <v>165</v>
       </c>
       <c r="M95" s="9">
         <v>75010</v>
@@ -11838,9 +11433,8 @@
         <v>42</v>
       </c>
       <c r="P95" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q95"/>
+        <v>428</v>
+      </c>
       <c r="R95" s="3">
         <v>42153</v>
       </c>
@@ -11862,9 +11456,8 @@
       <c r="X95" s="5">
         <v>0.16666666666424129</v>
       </c>
-      <c r="Y95"/>
       <c r="Z95" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA95" s="6" t="s">
         <v>239</v>
@@ -11872,14 +11465,13 @@
       <c r="AB95" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="AC95"/>
       <c r="AD95">
         <v>2015</v>
       </c>
-      <c r="AE95" s="24">
+      <c r="AE95">
         <v>2.3549628</v>
       </c>
-      <c r="AF95" s="24">
+      <c r="AF95">
         <v>48.876967700000002</v>
       </c>
       <c r="AG95">
@@ -11894,20 +11486,19 @@
         <v>78</v>
       </c>
       <c r="B96" t="s">
+        <v>438</v>
+      </c>
+      <c r="D96" t="s">
         <v>439</v>
       </c>
-      <c r="C96"/>
-      <c r="D96" t="s">
+      <c r="E96" s="23" t="s">
         <v>440</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>441</v>
       </c>
       <c r="F96" s="23">
         <v>18</v>
       </c>
       <c r="G96" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H96" s="2">
         <v>1</v>
@@ -11920,7 +11511,7 @@
         <v>39</v>
       </c>
       <c r="L96" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M96" s="9">
         <v>93100</v>
@@ -11932,9 +11523,8 @@
         <v>42</v>
       </c>
       <c r="P96" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q96"/>
+        <v>443</v>
+      </c>
       <c r="R96" s="3">
         <v>42153</v>
       </c>
@@ -11956,9 +11546,8 @@
       <c r="X96" s="5">
         <v>0.16666666666424129</v>
       </c>
-      <c r="Y96"/>
       <c r="Z96" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AA96" s="6" t="s">
         <v>87</v>
@@ -11966,14 +11555,13 @@
       <c r="AB96" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC96"/>
       <c r="AD96">
         <v>2015</v>
       </c>
-      <c r="AE96" s="24">
+      <c r="AE96">
         <v>2.4612465285130898</v>
       </c>
-      <c r="AF96" s="24">
+      <c r="AF96">
         <v>48.864385800000001</v>
       </c>
       <c r="AG96">
@@ -11988,20 +11576,19 @@
         <v>79</v>
       </c>
       <c r="B97" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="D97" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="C97"/>
-      <c r="D97" s="23" t="s">
+      <c r="E97" s="23" t="s">
         <v>447</v>
-      </c>
-      <c r="E97" s="23" t="s">
-        <v>448</v>
       </c>
       <c r="F97" s="23">
         <v>62</v>
       </c>
       <c r="G97" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H97" s="2">
         <v>0</v>
@@ -12009,12 +11596,11 @@
       <c r="I97" s="23">
         <v>5</v>
       </c>
-      <c r="J97"/>
       <c r="K97" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L97" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M97" s="23">
         <v>75017</v>
@@ -12026,9 +11612,8 @@
         <v>42</v>
       </c>
       <c r="P97" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q97"/>
+        <v>450</v>
+      </c>
       <c r="R97" s="3">
         <v>42148</v>
       </c>
@@ -12051,10 +11636,10 @@
         <v>0.15625</v>
       </c>
       <c r="Y97" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z97" s="23" t="s">
         <v>452</v>
-      </c>
-      <c r="Z97" s="23" t="s">
-        <v>453</v>
       </c>
       <c r="AA97" s="6" t="s">
         <v>71</v>
@@ -12062,14 +11647,13 @@
       <c r="AB97" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AC97"/>
       <c r="AD97">
         <v>2015</v>
       </c>
-      <c r="AE97" s="24">
+      <c r="AE97">
         <v>2.3181329000000002</v>
       </c>
-      <c r="AF97" s="24">
+      <c r="AF97">
         <v>48.887654099999999</v>
       </c>
       <c r="AG97">
@@ -12084,20 +11668,19 @@
         <v>80</v>
       </c>
       <c r="B98" t="s">
+        <v>453</v>
+      </c>
+      <c r="D98" t="s">
         <v>454</v>
       </c>
-      <c r="C98"/>
-      <c r="D98" t="s">
+      <c r="E98" s="23" t="s">
         <v>455</v>
-      </c>
-      <c r="E98" s="23" t="s">
-        <v>456</v>
       </c>
       <c r="F98" s="23">
         <v>63</v>
       </c>
       <c r="G98" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H98" s="2">
         <v>0</v>
@@ -12105,12 +11688,11 @@
       <c r="I98" s="23">
         <v>84</v>
       </c>
-      <c r="J98"/>
       <c r="K98" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L98" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M98" s="23">
         <v>75018</v>
@@ -12122,9 +11704,8 @@
         <v>42</v>
       </c>
       <c r="P98" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q98"/>
+        <v>458</v>
+      </c>
       <c r="R98" s="3">
         <v>42148</v>
       </c>
@@ -12147,10 +11728,10 @@
         <v>0.3125</v>
       </c>
       <c r="Y98" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z98" s="23" t="s">
         <v>460</v>
-      </c>
-      <c r="Z98" s="23" t="s">
-        <v>461</v>
       </c>
       <c r="AA98" s="6" t="s">
         <v>71</v>
@@ -12158,14 +11739,13 @@
       <c r="AB98" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AC98"/>
       <c r="AD98">
         <v>2015</v>
       </c>
-      <c r="AE98" s="24">
+      <c r="AE98">
         <v>2.3432914999999999</v>
       </c>
-      <c r="AF98" s="24">
+      <c r="AF98">
         <v>48.8958765</v>
       </c>
       <c r="AG98">
@@ -12180,14 +11760,13 @@
         <v>81</v>
       </c>
       <c r="B99" t="s">
+        <v>461</v>
+      </c>
+      <c r="D99" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="C99"/>
-      <c r="D99" s="23" t="s">
+      <c r="E99" s="23" t="s">
         <v>463</v>
-      </c>
-      <c r="E99" s="23" t="s">
-        <v>464</v>
       </c>
       <c r="F99" s="23">
         <v>44</v>
@@ -12201,7 +11780,6 @@
       <c r="I99" s="23">
         <v>10</v>
       </c>
-      <c r="J99"/>
       <c r="K99" s="23" t="s">
         <v>39</v>
       </c>
@@ -12220,7 +11798,6 @@
       <c r="P99" t="s">
         <v>68</v>
       </c>
-      <c r="Q99"/>
       <c r="R99" s="3">
         <v>42147</v>
       </c>
@@ -12242,7 +11819,6 @@
       <c r="X99" s="5">
         <v>0.29166666667151731</v>
       </c>
-      <c r="Y99"/>
       <c r="Z99" t="s">
         <v>70</v>
       </c>
@@ -12252,14 +11828,13 @@
       <c r="AB99" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC99"/>
       <c r="AD99">
         <v>2015</v>
       </c>
-      <c r="AE99" s="24">
+      <c r="AE99">
         <v>2.3392990999999999</v>
       </c>
-      <c r="AF99" s="24">
+      <c r="AF99">
         <v>48.890469600000003</v>
       </c>
       <c r="AG99">
@@ -12274,20 +11849,19 @@
         <v>82</v>
       </c>
       <c r="B100" t="s">
+        <v>464</v>
+      </c>
+      <c r="D100" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="C100"/>
-      <c r="D100" s="23" t="s">
+      <c r="E100" s="23" t="s">
         <v>466</v>
-      </c>
-      <c r="E100" s="23" t="s">
-        <v>467</v>
       </c>
       <c r="F100" s="23">
         <v>37</v>
       </c>
-      <c r="G100" s="23" t="s">
-        <v>468</v>
+      <c r="G100" t="s">
+        <v>467</v>
       </c>
       <c r="H100" s="2">
         <v>0</v>
@@ -12300,7 +11874,7 @@
         <v>39</v>
       </c>
       <c r="L100" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M100" s="9">
         <v>75012</v>
@@ -12312,9 +11886,8 @@
         <v>42</v>
       </c>
       <c r="P100" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q100"/>
+        <v>469</v>
+      </c>
       <c r="R100" s="3">
         <v>42151</v>
       </c>
@@ -12336,9 +11909,8 @@
       <c r="X100" s="5">
         <v>0.29166666667151731</v>
       </c>
-      <c r="Y100"/>
       <c r="Z100" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AA100" s="6" t="s">
         <v>56</v>
@@ -12346,14 +11918,13 @@
       <c r="AB100" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC100"/>
       <c r="AD100">
         <v>2015</v>
       </c>
-      <c r="AE100" s="24">
+      <c r="AE100">
         <v>2.3721315000000001</v>
       </c>
-      <c r="AF100" s="24">
+      <c r="AF100">
         <v>48.845916699999997</v>
       </c>
       <c r="AG100">
@@ -12368,20 +11939,19 @@
         <v>84</v>
       </c>
       <c r="B101" t="s">
+        <v>470</v>
+      </c>
+      <c r="D101" t="s">
         <v>471</v>
       </c>
-      <c r="C101"/>
-      <c r="D101" t="s">
+      <c r="E101" s="23" t="s">
         <v>472</v>
-      </c>
-      <c r="E101" s="23" t="s">
-        <v>473</v>
       </c>
       <c r="F101" s="23">
         <v>66</v>
       </c>
       <c r="G101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H101" s="2">
         <v>0</v>
@@ -12389,12 +11959,11 @@
       <c r="I101" s="23">
         <v>10</v>
       </c>
-      <c r="J101"/>
       <c r="K101" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L101" s="23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M101" s="23">
         <v>75011</v>
@@ -12406,9 +11975,8 @@
         <v>42</v>
       </c>
       <c r="P101" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q101"/>
+        <v>475</v>
+      </c>
       <c r="R101" s="3">
         <v>42150</v>
       </c>
@@ -12431,10 +11999,10 @@
         <v>0.20833333333575871</v>
       </c>
       <c r="Y101" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="Z101" s="23" t="s">
         <v>477</v>
-      </c>
-      <c r="Z101" s="23" t="s">
-        <v>478</v>
       </c>
       <c r="AA101" s="6" t="s">
         <v>51</v>
@@ -12442,14 +12010,13 @@
       <c r="AB101" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC101"/>
       <c r="AD101">
         <v>2015</v>
       </c>
-      <c r="AE101" s="24">
+      <c r="AE101">
         <v>2.3722474</v>
       </c>
-      <c r="AF101" s="24">
+      <c r="AF101">
         <v>48.8567897</v>
       </c>
       <c r="AG101">
@@ -12464,20 +12031,19 @@
         <v>85</v>
       </c>
       <c r="B102" t="s">
+        <v>478</v>
+      </c>
+      <c r="D102" t="s">
         <v>479</v>
       </c>
-      <c r="C102"/>
-      <c r="D102" t="s">
+      <c r="E102" s="23" t="s">
         <v>480</v>
-      </c>
-      <c r="E102" s="23" t="s">
-        <v>481</v>
       </c>
       <c r="F102" s="23">
         <v>6</v>
       </c>
       <c r="G102" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
@@ -12485,12 +12051,11 @@
       <c r="I102" s="23">
         <v>11</v>
       </c>
-      <c r="J102"/>
       <c r="K102" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L102" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M102" s="23">
         <v>75018</v>
@@ -12502,9 +12067,8 @@
         <v>42</v>
       </c>
       <c r="P102" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q102"/>
+        <v>483</v>
+      </c>
       <c r="R102" s="3">
         <v>42149</v>
       </c>
@@ -12527,10 +12091,10 @@
         <v>0.125</v>
       </c>
       <c r="Y102" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="Z102" s="23" t="s">
         <v>485</v>
-      </c>
-      <c r="Z102" s="23" t="s">
-        <v>486</v>
       </c>
       <c r="AA102" s="6" t="s">
         <v>237</v>
@@ -12538,14 +12102,13 @@
       <c r="AB102" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AC102"/>
       <c r="AD102">
         <v>2015</v>
       </c>
-      <c r="AE102" s="24">
+      <c r="AE102">
         <v>2.3506909999999999</v>
       </c>
-      <c r="AF102" s="24">
+      <c r="AF102">
         <v>48.891602399999996</v>
       </c>
       <c r="AG102">
@@ -12560,37 +12123,29 @@
         <v>86</v>
       </c>
       <c r="B103" t="s">
-        <v>471</v>
-      </c>
-      <c r="C103"/>
+        <v>470</v>
+      </c>
       <c r="D103" t="s">
+        <v>486</v>
+      </c>
+      <c r="E103" s="23" t="s">
         <v>487</v>
-      </c>
-      <c r="E103" s="23" t="s">
-        <v>488</v>
       </c>
       <c r="F103" s="23">
         <v>59</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H103" s="2">
         <v>0</v>
       </c>
-      <c r="I103"/>
-      <c r="J103"/>
-      <c r="K103"/>
-      <c r="L103"/>
-      <c r="M103"/>
-      <c r="N103"/>
       <c r="O103" s="23" t="s">
         <v>42</v>
       </c>
       <c r="P103" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q103"/>
+        <v>489</v>
+      </c>
       <c r="R103" s="3">
         <v>42151</v>
       </c>
@@ -12609,10 +12164,10 @@
         <v>-42151.833333333343</v>
       </c>
       <c r="Y103" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z103" s="23" t="s">
         <v>491</v>
-      </c>
-      <c r="Z103" s="23" t="s">
-        <v>492</v>
       </c>
       <c r="AA103" s="6" t="s">
         <v>56</v>
@@ -12620,32 +12175,28 @@
       <c r="AB103" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC103"/>
       <c r="AD103">
         <v>2015</v>
       </c>
-      <c r="AG103"/>
-      <c r="AH103"/>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>87</v>
       </c>
       <c r="B104" t="s">
+        <v>492</v>
+      </c>
+      <c r="D104" t="s">
         <v>493</v>
       </c>
-      <c r="C104"/>
-      <c r="D104" t="s">
+      <c r="E104" s="23" t="s">
         <v>494</v>
-      </c>
-      <c r="E104" s="23" t="s">
-        <v>495</v>
       </c>
       <c r="F104" s="23">
         <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H104" s="2">
         <v>0</v>
@@ -12653,12 +12204,11 @@
       <c r="I104" s="23">
         <v>118</v>
       </c>
-      <c r="J104"/>
       <c r="K104" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L104" s="23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M104" s="23">
         <v>75020</v>
@@ -12670,9 +12220,8 @@
         <v>42</v>
       </c>
       <c r="P104" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q104"/>
+        <v>497</v>
+      </c>
       <c r="R104" s="3">
         <v>42146</v>
       </c>
@@ -12695,10 +12244,10 @@
         <v>8.3333333328482695E-2</v>
       </c>
       <c r="Y104" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z104" s="23" t="s">
         <v>499</v>
-      </c>
-      <c r="Z104" s="23" t="s">
-        <v>500</v>
       </c>
       <c r="AA104" s="6" t="s">
         <v>159</v>
@@ -12706,14 +12255,13 @@
       <c r="AB104" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AC104"/>
       <c r="AD104">
         <v>2015</v>
       </c>
-      <c r="AE104" s="24">
+      <c r="AE104">
         <v>2.3956871</v>
       </c>
-      <c r="AF104" s="24">
+      <c r="AF104">
         <v>48.875272699999996</v>
       </c>
       <c r="AG104">
@@ -12728,20 +12276,19 @@
         <v>88</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C105"/>
+        <v>500</v>
+      </c>
       <c r="D105" t="s">
+        <v>486</v>
+      </c>
+      <c r="E105" s="23" t="s">
         <v>487</v>
-      </c>
-      <c r="E105" s="23" t="s">
-        <v>488</v>
       </c>
       <c r="F105" s="23">
         <v>45</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H105" s="2">
         <v>0</v>
@@ -12749,12 +12296,11 @@
       <c r="I105" s="23">
         <v>114</v>
       </c>
-      <c r="J105"/>
       <c r="K105" s="23" t="s">
         <v>296</v>
       </c>
       <c r="L105" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M105" s="23">
         <v>75011</v>
@@ -12766,9 +12312,8 @@
         <v>42</v>
       </c>
       <c r="P105" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q105"/>
+        <v>503</v>
+      </c>
       <c r="R105" s="3">
         <v>42146</v>
       </c>
@@ -12791,21 +12336,18 @@
         <v>8.3333333328482695E-2</v>
       </c>
       <c r="Y105" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z105" s="23" t="s">
         <v>505</v>
       </c>
-      <c r="Z105" s="23" t="s">
-        <v>506</v>
-      </c>
-      <c r="AA105"/>
-      <c r="AB105"/>
-      <c r="AC105"/>
       <c r="AD105">
         <v>2015</v>
       </c>
-      <c r="AE105" s="24">
+      <c r="AE105">
         <v>2.3907729999999998</v>
       </c>
-      <c r="AF105" s="24">
+      <c r="AF105">
         <v>48.857094099999998</v>
       </c>
       <c r="AG105">
@@ -12820,20 +12362,19 @@
         <v>88</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C106"/>
+        <v>500</v>
+      </c>
       <c r="D106" t="s">
+        <v>486</v>
+      </c>
+      <c r="E106" s="23" t="s">
         <v>487</v>
-      </c>
-      <c r="E106" s="23" t="s">
-        <v>488</v>
       </c>
       <c r="F106" s="23">
         <v>45</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
@@ -12841,12 +12382,11 @@
       <c r="I106" s="23">
         <v>1</v>
       </c>
-      <c r="J106"/>
       <c r="K106" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L106" s="23" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M106" s="23">
         <v>75005</v>
@@ -12858,9 +12398,8 @@
         <v>42</v>
       </c>
       <c r="P106" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q106"/>
+        <v>508</v>
+      </c>
       <c r="R106" s="3">
         <v>42147</v>
       </c>
@@ -12883,28 +12422,25 @@
         <v>8.3333333335758653E-2</v>
       </c>
       <c r="Y106" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Z106" s="23" t="s">
-        <v>506</v>
-      </c>
-      <c r="AA106"/>
-      <c r="AB106"/>
-      <c r="AC106"/>
+        <v>505</v>
+      </c>
       <c r="AD106">
         <v>2015</v>
       </c>
-      <c r="AE106" s="24">
+      <c r="AE106">
         <v>2.3418230000000002</v>
       </c>
-      <c r="AF106" s="24">
+      <c r="AF106">
         <v>48.846809999999998</v>
       </c>
       <c r="AG106">
-        <v>2.3418230000000002</v>
+        <v>2.3907729999999998</v>
       </c>
       <c r="AH106">
-        <v>48.846809999999998</v>
+        <v>48.857094099999998</v>
       </c>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.25">
@@ -12912,20 +12448,19 @@
         <v>89</v>
       </c>
       <c r="B107" t="s">
+        <v>510</v>
+      </c>
+      <c r="D107" t="s">
         <v>511</v>
       </c>
-      <c r="C107"/>
-      <c r="D107" t="s">
+      <c r="E107" s="23" t="s">
         <v>512</v>
-      </c>
-      <c r="E107" s="23" t="s">
-        <v>513</v>
       </c>
       <c r="F107" s="23">
         <v>5</v>
       </c>
       <c r="G107" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H107" s="2">
         <v>0</v>
@@ -12933,12 +12468,11 @@
       <c r="I107" s="23">
         <v>2</v>
       </c>
-      <c r="J107"/>
       <c r="K107" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L107" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M107" s="23">
         <v>75010</v>
@@ -12950,16 +12484,14 @@
         <v>42</v>
       </c>
       <c r="P107" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q107"/>
+        <v>515</v>
+      </c>
       <c r="R107" s="3">
         <v>42147</v>
       </c>
       <c r="S107" s="11">
         <v>0.66666666666666663</v>
       </c>
-      <c r="T107"/>
       <c r="U107" s="11">
         <v>0.75</v>
       </c>
@@ -12973,10 +12505,10 @@
         <v>8.3333333335758653E-2</v>
       </c>
       <c r="Y107" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z107" s="23" t="s">
         <v>517</v>
-      </c>
-      <c r="Z107" s="23" t="s">
-        <v>518</v>
       </c>
       <c r="AA107" s="6" t="s">
         <v>46</v>
@@ -12984,14 +12516,13 @@
       <c r="AB107" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC107"/>
       <c r="AD107">
         <v>2015</v>
       </c>
-      <c r="AE107" s="24">
+      <c r="AE107">
         <v>2.3498025</v>
       </c>
-      <c r="AF107" s="24">
+      <c r="AF107">
         <v>48.870744600000002</v>
       </c>
       <c r="AG107">
@@ -13006,20 +12537,19 @@
         <v>90</v>
       </c>
       <c r="B108" t="s">
+        <v>492</v>
+      </c>
+      <c r="D108" t="s">
         <v>493</v>
       </c>
-      <c r="C108"/>
-      <c r="D108" t="s">
+      <c r="E108" s="23" t="s">
         <v>494</v>
-      </c>
-      <c r="E108" s="23" t="s">
-        <v>495</v>
       </c>
       <c r="F108" s="23">
         <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
@@ -13027,12 +12557,11 @@
       <c r="I108" s="23">
         <v>20</v>
       </c>
-      <c r="J108"/>
       <c r="K108" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L108" s="23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M108" s="23">
         <v>75009</v>
@@ -13044,9 +12573,8 @@
         <v>42</v>
       </c>
       <c r="P108" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q108"/>
+        <v>519</v>
+      </c>
       <c r="R108" s="3">
         <v>42150</v>
       </c>
@@ -13069,10 +12597,10 @@
         <v>0.375</v>
       </c>
       <c r="Y108" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="Z108" s="23" t="s">
         <v>521</v>
-      </c>
-      <c r="Z108" s="23" t="s">
-        <v>522</v>
       </c>
       <c r="AA108" s="6" t="s">
         <v>51</v>
@@ -13080,14 +12608,13 @@
       <c r="AB108" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC108"/>
       <c r="AD108">
         <v>2015</v>
       </c>
-      <c r="AE108" s="24">
+      <c r="AE108">
         <v>2.3433161999999998</v>
       </c>
-      <c r="AF108" s="24">
+      <c r="AF108">
         <v>48.875208899999997</v>
       </c>
       <c r="AG108">
@@ -13102,20 +12629,19 @@
         <v>91</v>
       </c>
       <c r="B109" t="s">
+        <v>522</v>
+      </c>
+      <c r="D109" t="s">
         <v>523</v>
       </c>
-      <c r="C109"/>
-      <c r="D109" t="s">
+      <c r="E109" s="23" t="s">
         <v>524</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>525</v>
       </c>
       <c r="F109" s="23">
         <v>58</v>
       </c>
       <c r="G109" s="23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H109" s="2">
         <v>0</v>
@@ -13123,12 +12649,11 @@
       <c r="I109" s="23">
         <v>205</v>
       </c>
-      <c r="J109"/>
       <c r="K109" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L109" s="23" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M109" s="23">
         <v>75003</v>
@@ -13140,9 +12665,8 @@
         <v>42</v>
       </c>
       <c r="P109" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q109"/>
+        <v>527</v>
+      </c>
       <c r="R109" s="3">
         <v>42154</v>
       </c>
@@ -13165,21 +12689,18 @@
         <v>8.3333333328482695E-2</v>
       </c>
       <c r="Y109" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z109" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="Z109" s="23" t="s">
-        <v>530</v>
-      </c>
-      <c r="AA109"/>
-      <c r="AB109"/>
-      <c r="AC109"/>
       <c r="AD109">
         <v>2015</v>
       </c>
-      <c r="AE109" s="24">
+      <c r="AE109">
         <v>2.3527022</v>
       </c>
-      <c r="AF109" s="24">
+      <c r="AF109">
         <v>48.863856300000002</v>
       </c>
       <c r="AG109">
@@ -13194,20 +12715,19 @@
         <v>92</v>
       </c>
       <c r="B110" t="s">
+        <v>530</v>
+      </c>
+      <c r="D110" t="s">
         <v>531</v>
       </c>
-      <c r="C110"/>
-      <c r="D110" t="s">
+      <c r="E110" s="23" t="s">
         <v>532</v>
-      </c>
-      <c r="E110" s="23" t="s">
-        <v>533</v>
       </c>
       <c r="F110" s="23">
         <v>17</v>
       </c>
       <c r="G110" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H110" s="2">
         <v>1</v>
@@ -13220,7 +12740,7 @@
         <v>39</v>
       </c>
       <c r="L110" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M110" s="9">
         <v>75018</v>
@@ -13232,9 +12752,8 @@
         <v>42</v>
       </c>
       <c r="P110" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q110"/>
+        <v>535</v>
+      </c>
       <c r="R110" s="3">
         <v>42154</v>
       </c>
@@ -13256,9 +12775,8 @@
       <c r="X110" s="5">
         <v>8.3333333328482695E-2</v>
       </c>
-      <c r="Y110"/>
       <c r="Z110" s="23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA110" s="6" t="s">
         <v>378</v>
@@ -13266,14 +12784,13 @@
       <c r="AB110" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="AC110"/>
       <c r="AD110">
         <v>2015</v>
       </c>
-      <c r="AE110" s="24">
+      <c r="AE110">
         <v>2.3523938000000002</v>
       </c>
-      <c r="AF110" s="24">
+      <c r="AF110">
         <v>48.885081200000002</v>
       </c>
       <c r="AG110">
@@ -13288,20 +12805,19 @@
         <v>93</v>
       </c>
       <c r="B111" t="s">
-        <v>531</v>
-      </c>
-      <c r="C111"/>
+        <v>530</v>
+      </c>
       <c r="D111" t="s">
+        <v>537</v>
+      </c>
+      <c r="E111" s="23" t="s">
         <v>538</v>
-      </c>
-      <c r="E111" s="23" t="s">
-        <v>539</v>
       </c>
       <c r="F111" s="23">
         <v>17</v>
       </c>
       <c r="G111" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H111" s="2">
         <v>1</v>
@@ -13314,7 +12830,7 @@
         <v>39</v>
       </c>
       <c r="L111" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M111" s="9">
         <v>75018</v>
@@ -13326,9 +12842,8 @@
         <v>42</v>
       </c>
       <c r="P111" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q111"/>
+        <v>535</v>
+      </c>
       <c r="R111" s="3">
         <v>42147</v>
       </c>
@@ -13350,9 +12865,8 @@
       <c r="X111" s="5">
         <v>0.20833333332848269</v>
       </c>
-      <c r="Y111"/>
       <c r="Z111" s="23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA111" s="6" t="s">
         <v>46</v>
@@ -13360,14 +12874,13 @@
       <c r="AB111" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC111"/>
       <c r="AD111">
         <v>2015</v>
       </c>
-      <c r="AE111" s="24">
+      <c r="AE111">
         <v>2.3523938000000002</v>
       </c>
-      <c r="AF111" s="24">
+      <c r="AF111">
         <v>48.885081200000002</v>
       </c>
       <c r="AG111">
@@ -13382,20 +12895,19 @@
         <v>94</v>
       </c>
       <c r="B112" t="s">
+        <v>539</v>
+      </c>
+      <c r="D112" t="s">
         <v>540</v>
       </c>
-      <c r="C112"/>
-      <c r="D112" t="s">
+      <c r="E112" s="23" t="s">
         <v>541</v>
-      </c>
-      <c r="E112" s="23" t="s">
-        <v>542</v>
       </c>
       <c r="F112" s="23">
         <v>17</v>
       </c>
       <c r="G112" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H112" s="2">
         <v>1</v>
@@ -13408,7 +12920,7 @@
         <v>39</v>
       </c>
       <c r="L112" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M112" s="9">
         <v>75018</v>
@@ -13420,9 +12932,8 @@
         <v>42</v>
       </c>
       <c r="P112" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q112"/>
+        <v>535</v>
+      </c>
       <c r="R112" s="3">
         <v>42154</v>
       </c>
@@ -13444,9 +12955,8 @@
       <c r="X112" s="5">
         <v>0.20833333332848269</v>
       </c>
-      <c r="Y112"/>
       <c r="Z112" s="23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA112" s="6" t="s">
         <v>378</v>
@@ -13454,14 +12964,13 @@
       <c r="AB112" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="AC112"/>
       <c r="AD112">
         <v>2015</v>
       </c>
-      <c r="AE112" s="24">
+      <c r="AE112">
         <v>2.3523938000000002</v>
       </c>
-      <c r="AF112" s="24">
+      <c r="AF112">
         <v>48.885081200000002</v>
       </c>
       <c r="AG112">
@@ -13476,20 +12985,19 @@
         <v>95</v>
       </c>
       <c r="B113" t="s">
+        <v>542</v>
+      </c>
+      <c r="D113" t="s">
         <v>543</v>
       </c>
-      <c r="C113"/>
-      <c r="D113" t="s">
+      <c r="E113" s="23" t="s">
         <v>544</v>
-      </c>
-      <c r="E113" s="23" t="s">
-        <v>545</v>
       </c>
       <c r="F113" s="23">
         <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H113" s="2">
         <v>1</v>
@@ -13502,7 +13010,7 @@
         <v>39</v>
       </c>
       <c r="L113" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M113" s="9">
         <v>75018</v>
@@ -13514,9 +13022,8 @@
         <v>42</v>
       </c>
       <c r="P113" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q113"/>
+        <v>535</v>
+      </c>
       <c r="R113" s="3">
         <v>42150</v>
       </c>
@@ -13538,9 +13045,8 @@
       <c r="X113" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y113"/>
       <c r="Z113" s="23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA113" s="6" t="s">
         <v>378</v>
@@ -13548,14 +13054,13 @@
       <c r="AB113" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="AC113"/>
       <c r="AD113">
         <v>2015</v>
       </c>
-      <c r="AE113" s="24">
+      <c r="AE113">
         <v>2.3523938000000002</v>
       </c>
-      <c r="AF113" s="24">
+      <c r="AF113">
         <v>48.885081200000002</v>
       </c>
       <c r="AG113">
@@ -13570,20 +13075,19 @@
         <v>96</v>
       </c>
       <c r="B114" t="s">
+        <v>545</v>
+      </c>
+      <c r="D114" t="s">
         <v>546</v>
       </c>
-      <c r="C114"/>
-      <c r="D114" t="s">
+      <c r="E114" s="23" t="s">
         <v>547</v>
-      </c>
-      <c r="E114" s="23" t="s">
-        <v>548</v>
       </c>
       <c r="F114" s="23">
         <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -13591,12 +13095,11 @@
       <c r="I114" s="23">
         <v>3</v>
       </c>
-      <c r="J114"/>
       <c r="K114" s="23" t="s">
         <v>100</v>
       </c>
       <c r="L114" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M114" s="23">
         <v>75001</v>
@@ -13608,9 +13111,8 @@
         <v>42</v>
       </c>
       <c r="P114" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q114"/>
+        <v>550</v>
+      </c>
       <c r="R114" s="3">
         <v>42152</v>
       </c>
@@ -13633,10 +13135,10 @@
         <v>0.125</v>
       </c>
       <c r="Y114" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z114" s="23" t="s">
         <v>552</v>
-      </c>
-      <c r="Z114" s="23" t="s">
-        <v>553</v>
       </c>
       <c r="AA114" s="6" t="s">
         <v>61</v>
@@ -13644,14 +13146,13 @@
       <c r="AB114" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC114"/>
       <c r="AD114">
         <v>2015</v>
       </c>
-      <c r="AE114" s="24">
+      <c r="AE114">
         <v>2.3274777000000002</v>
       </c>
-      <c r="AF114" s="24">
+      <c r="AF114">
         <v>48.8696512</v>
       </c>
       <c r="AG114">
@@ -13666,20 +13167,19 @@
         <v>97</v>
       </c>
       <c r="B115" t="s">
+        <v>553</v>
+      </c>
+      <c r="D115" t="s">
         <v>554</v>
       </c>
-      <c r="C115"/>
-      <c r="D115" t="s">
+      <c r="E115" s="23" t="s">
         <v>555</v>
-      </c>
-      <c r="E115" s="23" t="s">
-        <v>556</v>
       </c>
       <c r="F115" s="23">
         <v>24</v>
       </c>
       <c r="G115" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
@@ -13688,13 +13188,13 @@
         <v>3</v>
       </c>
       <c r="J115" s="23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K115" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L115" s="23" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M115" s="23">
         <v>75018</v>
@@ -13706,9 +13206,8 @@
         <v>42</v>
       </c>
       <c r="P115" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q115"/>
+        <v>559</v>
+      </c>
       <c r="R115" s="3">
         <v>42153</v>
       </c>
@@ -13731,10 +13230,10 @@
         <v>0.14583333332848269</v>
       </c>
       <c r="Y115" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z115" s="23" t="s">
         <v>561</v>
-      </c>
-      <c r="Z115" s="23" t="s">
-        <v>562</v>
       </c>
       <c r="AA115" s="6" t="s">
         <v>87</v>
@@ -13742,14 +13241,13 @@
       <c r="AB115" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC115"/>
       <c r="AD115">
         <v>2015</v>
       </c>
-      <c r="AE115" s="24">
+      <c r="AE115">
         <v>2.3552643999999998</v>
       </c>
-      <c r="AF115" s="24">
+      <c r="AF115">
         <v>48.890309999999999</v>
       </c>
       <c r="AG115">
@@ -13764,14 +13262,13 @@
         <v>98</v>
       </c>
       <c r="B116" t="s">
+        <v>562</v>
+      </c>
+      <c r="D116" t="s">
         <v>563</v>
       </c>
-      <c r="C116"/>
-      <c r="D116" t="s">
+      <c r="E116" s="23" t="s">
         <v>564</v>
-      </c>
-      <c r="E116" s="23" t="s">
-        <v>565</v>
       </c>
       <c r="F116" s="23">
         <v>27</v>
@@ -13804,7 +13301,6 @@
       <c r="P116" t="s">
         <v>355</v>
       </c>
-      <c r="Q116"/>
       <c r="R116" s="3">
         <v>42148</v>
       </c>
@@ -13826,7 +13322,6 @@
       <c r="X116" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y116"/>
       <c r="Z116" s="23" t="s">
         <v>356</v>
       </c>
@@ -13836,14 +13331,13 @@
       <c r="AB116" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AC116"/>
       <c r="AD116">
         <v>2015</v>
       </c>
-      <c r="AE116" s="24">
+      <c r="AE116">
         <v>2.3161209</v>
       </c>
-      <c r="AF116" s="24">
+      <c r="AF116">
         <v>48.833146599999999</v>
       </c>
       <c r="AG116">
@@ -13858,20 +13352,19 @@
         <v>99</v>
       </c>
       <c r="B117" t="s">
+        <v>565</v>
+      </c>
+      <c r="D117" t="s">
         <v>566</v>
       </c>
-      <c r="C117"/>
-      <c r="D117" t="s">
+      <c r="E117" s="23" t="s">
         <v>567</v>
-      </c>
-      <c r="E117" s="23" t="s">
-        <v>568</v>
       </c>
       <c r="F117" s="23">
         <v>39</v>
       </c>
       <c r="G117" s="23" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H117" s="2">
         <v>1</v>
@@ -13898,7 +13391,6 @@
       <c r="P117" t="s">
         <v>370</v>
       </c>
-      <c r="Q117"/>
       <c r="R117" s="3">
         <v>42153</v>
       </c>
@@ -13920,7 +13412,6 @@
       <c r="X117" s="5">
         <v>8.3333333328482695E-2</v>
       </c>
-      <c r="Y117"/>
       <c r="Z117" s="23" t="s">
         <v>371</v>
       </c>
@@ -13930,14 +13421,13 @@
       <c r="AB117" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC117"/>
       <c r="AD117">
         <v>2015</v>
       </c>
-      <c r="AE117" s="24">
+      <c r="AE117">
         <v>2.3504412000000001</v>
       </c>
-      <c r="AF117" s="24">
+      <c r="AF117">
         <v>48.861035999999999</v>
       </c>
       <c r="AG117">
@@ -13952,20 +13442,19 @@
         <v>100</v>
       </c>
       <c r="B118" t="s">
+        <v>569</v>
+      </c>
+      <c r="D118" t="s">
         <v>570</v>
       </c>
-      <c r="C118"/>
-      <c r="D118" t="s">
+      <c r="E118" s="23" t="s">
         <v>571</v>
-      </c>
-      <c r="E118" s="23" t="s">
-        <v>572</v>
       </c>
       <c r="F118" s="23">
         <v>3</v>
       </c>
       <c r="G118" s="23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
@@ -13973,12 +13462,11 @@
       <c r="I118" s="23">
         <v>55</v>
       </c>
-      <c r="J118"/>
       <c r="K118" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L118" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M118" s="23">
         <v>92300</v>
@@ -13990,9 +13478,8 @@
         <v>42</v>
       </c>
       <c r="P118" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q118"/>
+        <v>574</v>
+      </c>
       <c r="R118" s="3">
         <v>42147</v>
       </c>
@@ -14015,21 +13502,18 @@
         <v>8.3333333335758653E-2</v>
       </c>
       <c r="Y118" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="Z118" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="Z118" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA118"/>
-      <c r="AB118"/>
-      <c r="AC118"/>
       <c r="AD118">
         <v>2015</v>
       </c>
-      <c r="AE118" s="24">
+      <c r="AE118">
         <v>2.2862003</v>
       </c>
-      <c r="AF118" s="24">
+      <c r="AF118">
         <v>48.893581699999999</v>
       </c>
       <c r="AG118">
@@ -14044,20 +13528,19 @@
         <v>101</v>
       </c>
       <c r="B119" t="s">
+        <v>577</v>
+      </c>
+      <c r="D119" t="s">
         <v>578</v>
       </c>
-      <c r="C119"/>
-      <c r="D119" t="s">
+      <c r="E119" s="23" t="s">
         <v>579</v>
-      </c>
-      <c r="E119" s="23" t="s">
-        <v>580</v>
       </c>
       <c r="F119" s="23">
         <v>29</v>
       </c>
       <c r="G119" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H119" s="2">
         <v>1</v>
@@ -14082,9 +13565,8 @@
         <v>42</v>
       </c>
       <c r="P119" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q119"/>
+        <v>581</v>
+      </c>
       <c r="R119" s="3">
         <v>42146</v>
       </c>
@@ -14106,24 +13588,22 @@
       <c r="X119" s="5">
         <v>0.41666666666424129</v>
       </c>
-      <c r="Y119"/>
       <c r="Z119" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="AA119" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="AA119" s="6" t="s">
+      <c r="AB119" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="AB119" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="AC119"/>
       <c r="AD119">
         <v>2015</v>
       </c>
-      <c r="AE119" s="24">
+      <c r="AE119">
         <v>2.3508800999999999</v>
       </c>
-      <c r="AF119" s="24">
+      <c r="AF119">
         <v>48.861676199999998</v>
       </c>
       <c r="AG119">
@@ -14138,20 +13618,19 @@
         <v>102</v>
       </c>
       <c r="B120" t="s">
+        <v>585</v>
+      </c>
+      <c r="D120" t="s">
         <v>586</v>
       </c>
-      <c r="C120"/>
-      <c r="D120" t="s">
+      <c r="E120" s="13" t="s">
         <v>587</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>588</v>
       </c>
       <c r="F120" s="23">
         <v>29</v>
       </c>
       <c r="G120" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H120" s="2">
         <v>1</v>
@@ -14176,9 +13655,8 @@
         <v>42</v>
       </c>
       <c r="P120" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q120"/>
+        <v>581</v>
+      </c>
       <c r="R120" s="3">
         <v>42147</v>
       </c>
@@ -14200,24 +13678,22 @@
       <c r="X120" s="5">
         <v>0.41666666666424129</v>
       </c>
-      <c r="Y120"/>
       <c r="Z120" s="23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AA120" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AB120" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC120"/>
       <c r="AD120">
         <v>2015</v>
       </c>
-      <c r="AE120" s="24">
+      <c r="AE120">
         <v>2.3508800999999999</v>
       </c>
-      <c r="AF120" s="24">
+      <c r="AF120">
         <v>48.861676199999998</v>
       </c>
       <c r="AG120">
@@ -14232,20 +13708,19 @@
         <v>103</v>
       </c>
       <c r="B121" t="s">
+        <v>589</v>
+      </c>
+      <c r="D121" t="s">
         <v>590</v>
       </c>
-      <c r="C121"/>
-      <c r="D121" t="s">
+      <c r="E121" s="23" t="s">
         <v>591</v>
-      </c>
-      <c r="E121" s="23" t="s">
-        <v>592</v>
       </c>
       <c r="F121" s="23">
         <v>29</v>
       </c>
       <c r="G121" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H121" s="2">
         <v>1</v>
@@ -14270,9 +13745,8 @@
         <v>42</v>
       </c>
       <c r="P121" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q121"/>
+        <v>581</v>
+      </c>
       <c r="R121" s="3">
         <v>42150</v>
       </c>
@@ -14294,9 +13768,8 @@
       <c r="X121" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y121"/>
       <c r="Z121" s="23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AA121" s="6" t="s">
         <v>51</v>
@@ -14304,14 +13777,13 @@
       <c r="AB121" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC121"/>
       <c r="AD121">
         <v>2015</v>
       </c>
-      <c r="AE121" s="24">
+      <c r="AE121">
         <v>2.3508800999999999</v>
       </c>
-      <c r="AF121" s="24">
+      <c r="AF121">
         <v>48.861676199999998</v>
       </c>
       <c r="AG121">
@@ -14326,20 +13798,19 @@
         <v>104</v>
       </c>
       <c r="B122" t="s">
+        <v>592</v>
+      </c>
+      <c r="D122" t="s">
         <v>593</v>
       </c>
-      <c r="C122"/>
-      <c r="D122" t="s">
+      <c r="E122" s="23" t="s">
         <v>594</v>
-      </c>
-      <c r="E122" s="23" t="s">
-        <v>595</v>
       </c>
       <c r="F122" s="23">
         <v>29</v>
       </c>
       <c r="G122" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H122" s="2">
         <v>1</v>
@@ -14364,9 +13835,8 @@
         <v>42</v>
       </c>
       <c r="P122" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q122"/>
+        <v>581</v>
+      </c>
       <c r="R122" s="3">
         <v>42151</v>
       </c>
@@ -14388,9 +13858,8 @@
       <c r="X122" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y122"/>
       <c r="Z122" s="23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AA122" s="14" t="s">
         <v>56</v>
@@ -14398,14 +13867,13 @@
       <c r="AB122" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AC122"/>
       <c r="AD122">
         <v>2015</v>
       </c>
-      <c r="AE122" s="24">
+      <c r="AE122">
         <v>2.3508800999999999</v>
       </c>
-      <c r="AF122" s="24">
+      <c r="AF122">
         <v>48.861676199999998</v>
       </c>
       <c r="AG122">
@@ -14420,20 +13888,19 @@
         <v>105</v>
       </c>
       <c r="B123" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="D123" t="s">
         <v>596</v>
       </c>
-      <c r="C123"/>
-      <c r="D123" t="s">
+      <c r="E123" s="23" t="s">
         <v>597</v>
-      </c>
-      <c r="E123" s="23" t="s">
-        <v>598</v>
       </c>
       <c r="F123" s="23">
         <v>29</v>
       </c>
       <c r="G123" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H123" s="2">
         <v>1</v>
@@ -14458,9 +13925,8 @@
         <v>42</v>
       </c>
       <c r="P123" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q123"/>
+        <v>581</v>
+      </c>
       <c r="R123" s="3">
         <v>42152</v>
       </c>
@@ -14482,9 +13948,8 @@
       <c r="X123" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y123"/>
       <c r="Z123" s="23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AA123" s="6" t="s">
         <v>61</v>
@@ -14492,14 +13957,13 @@
       <c r="AB123" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC123"/>
       <c r="AD123">
         <v>2015</v>
       </c>
-      <c r="AE123" s="24">
+      <c r="AE123">
         <v>2.3508800999999999</v>
       </c>
-      <c r="AF123" s="24">
+      <c r="AF123">
         <v>48.861676199999998</v>
       </c>
       <c r="AG123">
@@ -14514,20 +13978,19 @@
         <v>106</v>
       </c>
       <c r="B124" t="s">
+        <v>598</v>
+      </c>
+      <c r="D124" t="s">
         <v>599</v>
       </c>
-      <c r="C124"/>
-      <c r="D124" t="s">
+      <c r="E124" s="23" t="s">
         <v>600</v>
-      </c>
-      <c r="E124" s="23" t="s">
-        <v>601</v>
       </c>
       <c r="F124" s="23">
         <v>29</v>
       </c>
       <c r="G124" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H124" s="2">
         <v>1</v>
@@ -14552,9 +14015,8 @@
         <v>42</v>
       </c>
       <c r="P124" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q124"/>
+        <v>581</v>
+      </c>
       <c r="R124" s="3">
         <v>42153</v>
       </c>
@@ -14576,9 +14038,8 @@
       <c r="X124" s="5">
         <v>0.33333333333575871</v>
       </c>
-      <c r="Y124"/>
       <c r="Z124" s="23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AA124" s="6" t="s">
         <v>87</v>
@@ -14586,14 +14047,13 @@
       <c r="AB124" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC124"/>
       <c r="AD124">
         <v>2015</v>
       </c>
-      <c r="AE124" s="24">
+      <c r="AE124">
         <v>2.3508800999999999</v>
       </c>
-      <c r="AF124" s="24">
+      <c r="AF124">
         <v>48.861676199999998</v>
       </c>
       <c r="AG124">
@@ -14608,20 +14068,19 @@
         <v>107</v>
       </c>
       <c r="B125" t="s">
+        <v>601</v>
+      </c>
+      <c r="D125" t="s">
         <v>602</v>
       </c>
-      <c r="C125"/>
-      <c r="D125" t="s">
+      <c r="E125" s="23" t="s">
         <v>603</v>
-      </c>
-      <c r="E125" s="23" t="s">
-        <v>604</v>
       </c>
       <c r="F125" s="23">
         <v>1</v>
       </c>
       <c r="G125" s="23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H125" s="2">
         <v>0</v>
@@ -14629,12 +14088,11 @@
       <c r="I125" s="23">
         <v>7</v>
       </c>
-      <c r="J125"/>
       <c r="K125" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L125" s="23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M125" s="23">
         <v>75005</v>
@@ -14646,9 +14104,8 @@
         <v>42</v>
       </c>
       <c r="P125" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q125"/>
+        <v>606</v>
+      </c>
       <c r="R125" s="3">
         <v>42147</v>
       </c>
@@ -14671,10 +14128,10 @@
         <v>0.125</v>
       </c>
       <c r="Y125" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="Z125" s="23" t="s">
         <v>608</v>
-      </c>
-      <c r="Z125" s="23" t="s">
-        <v>609</v>
       </c>
       <c r="AA125" s="6" t="s">
         <v>239</v>
@@ -14682,14 +14139,13 @@
       <c r="AB125" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="AC125"/>
       <c r="AD125">
         <v>2015</v>
       </c>
-      <c r="AE125" s="24">
+      <c r="AE125">
         <v>2.3541276999999998</v>
       </c>
-      <c r="AF125" s="24">
+      <c r="AF125">
         <v>48.848949900000001</v>
       </c>
       <c r="AG125">
@@ -14704,20 +14160,19 @@
         <v>108</v>
       </c>
       <c r="B126" t="s">
+        <v>609</v>
+      </c>
+      <c r="D126" t="s">
         <v>610</v>
       </c>
-      <c r="C126"/>
-      <c r="D126" t="s">
+      <c r="E126" s="23" t="s">
         <v>611</v>
-      </c>
-      <c r="E126" s="23" t="s">
-        <v>612</v>
       </c>
       <c r="F126" s="23">
         <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>613</v>
+        <v>467</v>
       </c>
       <c r="H126" s="2">
         <v>1</v>
@@ -14730,7 +14185,7 @@
         <v>39</v>
       </c>
       <c r="L126" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M126" s="9">
         <v>75012</v>
@@ -14742,9 +14197,8 @@
         <v>42</v>
       </c>
       <c r="P126" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q126"/>
+        <v>469</v>
+      </c>
       <c r="R126" s="3">
         <v>42147</v>
       </c>
@@ -14766,9 +14220,8 @@
       <c r="X126" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y126"/>
       <c r="Z126" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AA126" s="6" t="s">
         <v>46</v>
@@ -14776,14 +14229,13 @@
       <c r="AB126" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC126"/>
       <c r="AD126">
         <v>2015</v>
       </c>
-      <c r="AE126" s="24">
+      <c r="AE126">
         <v>2.3721315000000001</v>
       </c>
-      <c r="AF126" s="24">
+      <c r="AF126">
         <v>48.845916699999997</v>
       </c>
       <c r="AG126">
@@ -14798,20 +14250,19 @@
         <v>109</v>
       </c>
       <c r="B127" t="s">
+        <v>613</v>
+      </c>
+      <c r="D127" t="s">
+        <v>614</v>
+      </c>
+      <c r="E127" s="23" t="s">
         <v>615</v>
-      </c>
-      <c r="C127"/>
-      <c r="D127" t="s">
-        <v>616</v>
-      </c>
-      <c r="E127" s="23" t="s">
-        <v>617</v>
       </c>
       <c r="F127" s="23">
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>613</v>
+        <v>467</v>
       </c>
       <c r="H127" s="2">
         <v>1</v>
@@ -14824,7 +14275,7 @@
         <v>39</v>
       </c>
       <c r="L127" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M127" s="9">
         <v>75012</v>
@@ -14836,9 +14287,8 @@
         <v>42</v>
       </c>
       <c r="P127" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q127"/>
+        <v>469</v>
+      </c>
       <c r="R127" s="3">
         <v>42146</v>
       </c>
@@ -14860,20 +14310,16 @@
       <c r="X127" s="5">
         <v>0.41666666666424129</v>
       </c>
-      <c r="Y127"/>
       <c r="Z127" s="23" t="s">
-        <v>614</v>
-      </c>
-      <c r="AA127"/>
-      <c r="AB127"/>
-      <c r="AC127"/>
+        <v>612</v>
+      </c>
       <c r="AD127">
         <v>2015</v>
       </c>
-      <c r="AE127" s="24">
+      <c r="AE127">
         <v>2.3721315000000001</v>
       </c>
-      <c r="AF127" s="24">
+      <c r="AF127">
         <v>48.845916699999997</v>
       </c>
       <c r="AG127">
@@ -14888,20 +14334,20 @@
         <v>109</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C128" s="23"/>
       <c r="D128" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E128" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F128" s="9">
         <v>37</v>
       </c>
       <c r="G128" s="23" t="s">
-        <v>613</v>
+        <v>467</v>
       </c>
       <c r="H128" s="15">
         <v>1</v>
@@ -14914,7 +14360,7 @@
         <v>39</v>
       </c>
       <c r="L128" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M128" s="9">
         <v>75012</v>
@@ -14926,7 +14372,7 @@
         <v>42</v>
       </c>
       <c r="P128" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q128" s="23"/>
       <c r="R128" s="3">
@@ -14952,7 +14398,7 @@
       </c>
       <c r="Y128" s="23"/>
       <c r="Z128" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AA128" s="23"/>
       <c r="AB128" s="23"/>
@@ -14978,20 +14424,20 @@
         <v>109</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C129" s="23"/>
       <c r="D129" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F129" s="9">
         <v>37</v>
       </c>
       <c r="G129" s="23" t="s">
-        <v>613</v>
+        <v>467</v>
       </c>
       <c r="H129" s="15">
         <v>1</v>
@@ -15004,7 +14450,7 @@
         <v>39</v>
       </c>
       <c r="L129" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M129" s="9">
         <v>75012</v>
@@ -15016,7 +14462,7 @@
         <v>42</v>
       </c>
       <c r="P129" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q129" s="23"/>
       <c r="R129" s="3">
@@ -15042,7 +14488,7 @@
       </c>
       <c r="Y129" s="23"/>
       <c r="Z129" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AA129" s="23"/>
       <c r="AB129" s="23"/>
@@ -15068,20 +14514,20 @@
         <v>109</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C130" s="23"/>
       <c r="D130" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F130" s="9">
         <v>37</v>
       </c>
       <c r="G130" s="23" t="s">
-        <v>613</v>
+        <v>467</v>
       </c>
       <c r="H130" s="15">
         <v>1</v>
@@ -15094,7 +14540,7 @@
         <v>39</v>
       </c>
       <c r="L130" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M130" s="9">
         <v>75012</v>
@@ -15106,7 +14552,7 @@
         <v>42</v>
       </c>
       <c r="P130" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q130" s="23"/>
       <c r="R130" s="3">
@@ -15132,7 +14578,7 @@
       </c>
       <c r="Y130" s="23"/>
       <c r="Z130" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AA130" s="23"/>
       <c r="AB130" s="23"/>
@@ -15158,20 +14604,20 @@
         <v>109</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C131" s="23"/>
       <c r="D131" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E131" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F131" s="9">
         <v>37</v>
       </c>
       <c r="G131" s="23" t="s">
-        <v>613</v>
+        <v>467</v>
       </c>
       <c r="H131" s="15">
         <v>1</v>
@@ -15184,7 +14630,7 @@
         <v>39</v>
       </c>
       <c r="L131" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M131" s="9">
         <v>75012</v>
@@ -15196,7 +14642,7 @@
         <v>42</v>
       </c>
       <c r="P131" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q131" s="23"/>
       <c r="R131" s="3">
@@ -15222,7 +14668,7 @@
       </c>
       <c r="Y131" s="23"/>
       <c r="Z131" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AA131" s="23"/>
       <c r="AB131" s="23"/>
@@ -15248,20 +14694,20 @@
         <v>109</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C132" s="23"/>
       <c r="D132" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E132" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F132" s="9">
         <v>37</v>
       </c>
       <c r="G132" s="23" t="s">
-        <v>613</v>
+        <v>467</v>
       </c>
       <c r="H132" s="15">
         <v>1</v>
@@ -15274,7 +14720,7 @@
         <v>39</v>
       </c>
       <c r="L132" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M132" s="9">
         <v>75012</v>
@@ -15286,7 +14732,7 @@
         <v>42</v>
       </c>
       <c r="P132" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q132" s="23"/>
       <c r="R132" s="3">
@@ -15312,7 +14758,7 @@
       </c>
       <c r="Y132" s="23"/>
       <c r="Z132" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AA132" s="23"/>
       <c r="AB132" s="23"/>
@@ -15338,20 +14784,20 @@
         <v>109</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C133" s="23"/>
       <c r="D133" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E133" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F133" s="9">
         <v>37</v>
       </c>
       <c r="G133" s="23" t="s">
-        <v>613</v>
+        <v>467</v>
       </c>
       <c r="H133" s="15">
         <v>1</v>
@@ -15364,7 +14810,7 @@
         <v>39</v>
       </c>
       <c r="L133" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M133" s="9">
         <v>75012</v>
@@ -15376,7 +14822,7 @@
         <v>42</v>
       </c>
       <c r="P133" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q133" s="23"/>
       <c r="R133" s="3">
@@ -15402,7 +14848,7 @@
       </c>
       <c r="Y133" s="23"/>
       <c r="Z133" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AA133" s="23"/>
       <c r="AB133" s="23"/>
@@ -15428,20 +14874,20 @@
         <v>109</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C134" s="23"/>
       <c r="D134" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E134" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F134" s="9">
         <v>37</v>
       </c>
       <c r="G134" s="23" t="s">
-        <v>613</v>
+        <v>467</v>
       </c>
       <c r="H134" s="15">
         <v>1</v>
@@ -15454,7 +14900,7 @@
         <v>39</v>
       </c>
       <c r="L134" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M134" s="9">
         <v>75012</v>
@@ -15466,7 +14912,7 @@
         <v>42</v>
       </c>
       <c r="P134" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q134" s="23"/>
       <c r="R134" s="3">
@@ -15492,7 +14938,7 @@
       </c>
       <c r="Y134" s="23"/>
       <c r="Z134" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AA134" s="23"/>
       <c r="AB134" s="23"/>
@@ -15518,20 +14964,20 @@
         <v>109</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C135" s="23"/>
       <c r="D135" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E135" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F135" s="9">
         <v>37</v>
       </c>
       <c r="G135" s="23" t="s">
-        <v>613</v>
+        <v>467</v>
       </c>
       <c r="H135" s="15">
         <v>1</v>
@@ -15544,7 +14990,7 @@
         <v>39</v>
       </c>
       <c r="L135" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M135" s="9">
         <v>75012</v>
@@ -15556,7 +15002,7 @@
         <v>42</v>
       </c>
       <c r="P135" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q135" s="23"/>
       <c r="R135" s="3">
@@ -15582,7 +15028,7 @@
       </c>
       <c r="Y135" s="23"/>
       <c r="Z135" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AA135" s="23"/>
       <c r="AB135" s="23"/>
@@ -15608,20 +15054,20 @@
         <v>109</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C136" s="23"/>
       <c r="D136" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E136" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F136" s="9">
         <v>37</v>
       </c>
       <c r="G136" s="23" t="s">
-        <v>613</v>
+        <v>467</v>
       </c>
       <c r="H136" s="15">
         <v>1</v>
@@ -15634,7 +15080,7 @@
         <v>39</v>
       </c>
       <c r="L136" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M136" s="9">
         <v>75012</v>
@@ -15646,7 +15092,7 @@
         <v>42</v>
       </c>
       <c r="P136" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q136" s="23"/>
       <c r="R136" s="3">
@@ -15672,7 +15118,7 @@
       </c>
       <c r="Y136" s="23"/>
       <c r="Z136" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AA136" s="23"/>
       <c r="AB136" s="23"/>
@@ -15698,20 +15144,19 @@
         <v>110</v>
       </c>
       <c r="B137" t="s">
+        <v>616</v>
+      </c>
+      <c r="D137" t="s">
+        <v>617</v>
+      </c>
+      <c r="E137" s="23" t="s">
         <v>618</v>
-      </c>
-      <c r="C137"/>
-      <c r="D137" t="s">
-        <v>619</v>
-      </c>
-      <c r="E137" s="23" t="s">
-        <v>620</v>
       </c>
       <c r="F137" s="23">
         <v>25</v>
       </c>
       <c r="G137" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H137" s="2">
         <v>0</v>
@@ -15719,12 +15164,11 @@
       <c r="I137" s="23">
         <v>8</v>
       </c>
-      <c r="J137"/>
       <c r="K137" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L137" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="M137" s="23">
         <v>75004</v>
@@ -15736,9 +15180,8 @@
         <v>42</v>
       </c>
       <c r="P137" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q137"/>
+        <v>621</v>
+      </c>
       <c r="R137" s="3">
         <v>42152</v>
       </c>
@@ -15761,10 +15204,10 @@
         <v>0.29166666666424129</v>
       </c>
       <c r="Y137" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="Z137" s="23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AA137" s="6" t="s">
         <v>61</v>
@@ -15772,14 +15215,13 @@
       <c r="AB137" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC137"/>
       <c r="AD137">
         <v>2015</v>
       </c>
-      <c r="AE137" s="24">
+      <c r="AE137">
         <v>2.3613491999999998</v>
       </c>
-      <c r="AF137" s="24">
+      <c r="AF137">
         <v>48.853086300000001</v>
       </c>
       <c r="AG137">
@@ -15794,20 +15236,19 @@
         <v>111</v>
       </c>
       <c r="B138" t="s">
+        <v>624</v>
+      </c>
+      <c r="D138" t="s">
+        <v>625</v>
+      </c>
+      <c r="E138" s="23" t="s">
         <v>626</v>
-      </c>
-      <c r="C138"/>
-      <c r="D138" t="s">
-        <v>627</v>
-      </c>
-      <c r="E138" s="23" t="s">
-        <v>628</v>
       </c>
       <c r="F138" s="23">
         <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H138" s="2">
         <v>0</v>
@@ -15815,12 +15256,11 @@
       <c r="I138" s="23">
         <v>70</v>
       </c>
-      <c r="J138"/>
       <c r="K138" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L138" s="23" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="M138" s="23">
         <v>75018</v>
@@ -15832,9 +15272,8 @@
         <v>42</v>
       </c>
       <c r="P138" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q138"/>
+        <v>629</v>
+      </c>
       <c r="R138" s="3">
         <v>42150</v>
       </c>
@@ -15857,10 +15296,10 @@
         <v>4.1666666671517312E-2</v>
       </c>
       <c r="Y138" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="Z138" s="23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AA138" s="6" t="s">
         <v>51</v>
@@ -15868,14 +15307,13 @@
       <c r="AB138" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC138"/>
       <c r="AD138">
         <v>2015</v>
       </c>
-      <c r="AE138" s="24">
+      <c r="AE138">
         <v>2.3433712999999998</v>
       </c>
-      <c r="AF138" s="24">
+      <c r="AF138">
         <v>48.8937186</v>
       </c>
       <c r="AG138">
@@ -15890,20 +15328,19 @@
         <v>112</v>
       </c>
       <c r="B139" t="s">
+        <v>632</v>
+      </c>
+      <c r="D139" t="s">
+        <v>633</v>
+      </c>
+      <c r="E139" s="23" t="s">
         <v>634</v>
-      </c>
-      <c r="C139"/>
-      <c r="D139" t="s">
-        <v>635</v>
-      </c>
-      <c r="E139" s="23" t="s">
-        <v>636</v>
       </c>
       <c r="F139" s="23">
         <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H139" s="2">
         <v>0</v>
@@ -15911,12 +15348,11 @@
       <c r="I139" s="23">
         <v>77</v>
       </c>
-      <c r="J139"/>
       <c r="K139" s="23" t="s">
         <v>100</v>
       </c>
       <c r="L139" s="23" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="M139" s="23">
         <v>75017</v>
@@ -15928,9 +15364,8 @@
         <v>42</v>
       </c>
       <c r="P139" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q139"/>
+        <v>637</v>
+      </c>
       <c r="R139" s="3">
         <v>42153</v>
       </c>
@@ -15953,10 +15388,10 @@
         <v>0.16666666667151731</v>
       </c>
       <c r="Y139" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="Z139" s="23" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AA139" s="6" t="s">
         <v>87</v>
@@ -15964,14 +15399,13 @@
       <c r="AB139" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC139"/>
       <c r="AD139">
         <v>2015</v>
       </c>
-      <c r="AE139" s="24">
+      <c r="AE139">
         <v>2.2862670999999999</v>
       </c>
-      <c r="AF139" s="24">
+      <c r="AF139">
         <v>48.882379299999997</v>
       </c>
       <c r="AG139">
@@ -15986,20 +15420,19 @@
         <v>113</v>
       </c>
       <c r="B140" t="s">
+        <v>640</v>
+      </c>
+      <c r="D140" t="s">
+        <v>641</v>
+      </c>
+      <c r="E140" s="23" t="s">
         <v>642</v>
-      </c>
-      <c r="C140"/>
-      <c r="D140" t="s">
-        <v>643</v>
-      </c>
-      <c r="E140" s="23" t="s">
-        <v>644</v>
       </c>
       <c r="F140" s="23">
         <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H140" s="2">
         <v>0</v>
@@ -16007,12 +15440,11 @@
       <c r="I140" s="23">
         <v>80</v>
       </c>
-      <c r="J140"/>
       <c r="K140" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L140" s="23" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M140" s="23">
         <v>75010</v>
@@ -16024,9 +15456,8 @@
         <v>42</v>
       </c>
       <c r="P140" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q140"/>
+        <v>645</v>
+      </c>
       <c r="R140" s="3">
         <v>42150</v>
       </c>
@@ -16049,10 +15480,10 @@
         <v>0.125</v>
       </c>
       <c r="Y140" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="Z140" s="23" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AA140" s="6" t="s">
         <v>56</v>
@@ -16060,14 +15491,13 @@
       <c r="AB140" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC140"/>
       <c r="AD140">
         <v>2015</v>
       </c>
-      <c r="AE140" s="24">
+      <c r="AE140">
         <v>2.3487718000000002</v>
       </c>
-      <c r="AF140" s="24">
+      <c r="AF140">
         <v>48.876658800000001</v>
       </c>
       <c r="AG140">
@@ -16082,14 +15512,13 @@
         <v>114</v>
       </c>
       <c r="B141" t="s">
+        <v>648</v>
+      </c>
+      <c r="D141" t="s">
+        <v>649</v>
+      </c>
+      <c r="E141" s="23" t="s">
         <v>650</v>
-      </c>
-      <c r="C141"/>
-      <c r="D141" t="s">
-        <v>651</v>
-      </c>
-      <c r="E141" s="23" t="s">
-        <v>652</v>
       </c>
       <c r="F141" s="23">
         <v>12</v>
@@ -16110,7 +15539,7 @@
         <v>100</v>
       </c>
       <c r="L141" s="23" t="s">
-        <v>428</v>
+        <v>165</v>
       </c>
       <c r="M141" s="9">
         <v>75010</v>
@@ -16122,9 +15551,8 @@
         <v>42</v>
       </c>
       <c r="P141" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q141"/>
+        <v>428</v>
+      </c>
       <c r="R141" s="3">
         <v>42150</v>
       </c>
@@ -16146,9 +15574,8 @@
       <c r="X141" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y141"/>
       <c r="Z141" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA141" s="6" t="s">
         <v>51</v>
@@ -16156,14 +15583,13 @@
       <c r="AB141" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC141"/>
       <c r="AD141">
         <v>2015</v>
       </c>
-      <c r="AE141" s="24">
+      <c r="AE141">
         <v>2.3549628</v>
       </c>
-      <c r="AF141" s="24">
+      <c r="AF141">
         <v>48.876967700000002</v>
       </c>
       <c r="AG141">
@@ -16178,47 +15604,44 @@
         <v>115</v>
       </c>
       <c r="B142" t="s">
+        <v>651</v>
+      </c>
+      <c r="D142" t="s">
+        <v>652</v>
+      </c>
+      <c r="E142" s="23" t="s">
         <v>653</v>
-      </c>
-      <c r="C142"/>
-      <c r="D142" t="s">
-        <v>654</v>
-      </c>
-      <c r="E142" s="23" t="s">
-        <v>655</v>
       </c>
       <c r="F142" s="23">
         <v>22</v>
       </c>
       <c r="G142" s="23" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H142" s="2">
         <v>0</v>
       </c>
-      <c r="I142"/>
       <c r="J142" s="23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K142" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L142" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="M142" s="23">
         <v>94120</v>
       </c>
       <c r="N142" s="23" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="O142" s="23" t="s">
         <v>42</v>
       </c>
       <c r="P142" t="s">
-        <v>660</v>
-      </c>
-      <c r="Q142"/>
+        <v>658</v>
+      </c>
       <c r="R142" s="3">
         <v>42148</v>
       </c>
@@ -16241,25 +15664,24 @@
         <v>0.33333333333575871</v>
       </c>
       <c r="Y142" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="Z142" s="23" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AA142" s="6" t="s">
         <v>71</v>
       </c>
       <c r="AB142" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="AC142"/>
+        <v>661</v>
+      </c>
       <c r="AD142">
         <v>2015</v>
       </c>
-      <c r="AE142" s="24">
+      <c r="AE142">
         <v>2.4740880999999999</v>
       </c>
-      <c r="AF142" s="24">
+      <c r="AF142">
         <v>48.852719999999998</v>
       </c>
       <c r="AG142">
@@ -16274,20 +15696,19 @@
         <v>116</v>
       </c>
       <c r="B143" t="s">
+        <v>662</v>
+      </c>
+      <c r="D143" t="s">
+        <v>663</v>
+      </c>
+      <c r="E143" s="23" t="s">
         <v>664</v>
-      </c>
-      <c r="C143"/>
-      <c r="D143" t="s">
-        <v>665</v>
-      </c>
-      <c r="E143" s="23" t="s">
-        <v>666</v>
       </c>
       <c r="F143" s="23">
         <v>4</v>
       </c>
       <c r="G143" s="23" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H143" s="2">
         <v>0</v>
@@ -16295,12 +15716,11 @@
       <c r="I143" s="23">
         <v>39</v>
       </c>
-      <c r="J143"/>
       <c r="K143" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L143" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="M143" s="23">
         <v>75020</v>
@@ -16312,9 +15732,8 @@
         <v>42</v>
       </c>
       <c r="P143" t="s">
-        <v>669</v>
-      </c>
-      <c r="Q143"/>
+        <v>667</v>
+      </c>
       <c r="R143" s="3">
         <v>42146</v>
       </c>
@@ -16337,25 +15756,24 @@
         <v>0.25</v>
       </c>
       <c r="Y143" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="Z143" s="23" t="s">
+        <v>669</v>
+      </c>
+      <c r="AA143" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="Z143" s="23" t="s">
+      <c r="AB143" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="AA143" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="AB143" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="AC143"/>
       <c r="AD143">
         <v>2015</v>
       </c>
-      <c r="AE143" s="24">
+      <c r="AE143">
         <v>2.4040668386848298</v>
       </c>
-      <c r="AF143" s="24">
+      <c r="AF143">
         <v>48.864090699999998</v>
       </c>
       <c r="AG143">
@@ -16370,20 +15788,19 @@
         <v>117</v>
       </c>
       <c r="B144" t="s">
+        <v>672</v>
+      </c>
+      <c r="D144" t="s">
+        <v>673</v>
+      </c>
+      <c r="E144" s="23" t="s">
         <v>674</v>
-      </c>
-      <c r="C144"/>
-      <c r="D144" t="s">
-        <v>675</v>
-      </c>
-      <c r="E144" s="23" t="s">
-        <v>676</v>
       </c>
       <c r="F144" s="23">
         <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H144" s="2">
         <v>0</v>
@@ -16391,12 +15808,11 @@
       <c r="I144" s="23">
         <v>41</v>
       </c>
-      <c r="J144"/>
       <c r="K144" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L144" s="23" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="M144" s="23">
         <v>75010</v>
@@ -16408,9 +15824,8 @@
         <v>42</v>
       </c>
       <c r="P144" t="s">
-        <v>679</v>
-      </c>
-      <c r="Q144"/>
+        <v>677</v>
+      </c>
       <c r="R144" s="3">
         <v>42149</v>
       </c>
@@ -16433,10 +15848,10 @@
         <v>0.45833333333575871</v>
       </c>
       <c r="Y144" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Z144" s="23" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AA144" s="6" t="s">
         <v>237</v>
@@ -16444,14 +15859,13 @@
       <c r="AB144" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AC144"/>
       <c r="AD144">
         <v>2015</v>
       </c>
-      <c r="AE144" s="24">
+      <c r="AE144">
         <v>2.3616062000000002</v>
       </c>
-      <c r="AF144" s="24">
+      <c r="AF144">
         <v>48.8711257</v>
       </c>
       <c r="AG144">
@@ -16466,14 +15880,13 @@
         <v>118</v>
       </c>
       <c r="B145" t="s">
+        <v>680</v>
+      </c>
+      <c r="D145" t="s">
+        <v>681</v>
+      </c>
+      <c r="E145" s="23" t="s">
         <v>682</v>
-      </c>
-      <c r="C145"/>
-      <c r="D145" t="s">
-        <v>683</v>
-      </c>
-      <c r="E145" s="23" t="s">
-        <v>684</v>
       </c>
       <c r="F145" s="23">
         <v>8</v>
@@ -16487,7 +15900,6 @@
       <c r="I145" s="23">
         <v>18</v>
       </c>
-      <c r="J145"/>
       <c r="K145" s="23" t="s">
         <v>39</v>
       </c>
@@ -16506,7 +15918,6 @@
       <c r="P145" t="s">
         <v>394</v>
       </c>
-      <c r="Q145"/>
       <c r="R145" s="3">
         <v>42146</v>
       </c>
@@ -16528,9 +15939,8 @@
       <c r="X145" s="5">
         <v>0.25</v>
       </c>
-      <c r="Y145"/>
       <c r="Z145" s="23" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AA145" s="6" t="s">
         <v>159</v>
@@ -16538,14 +15948,13 @@
       <c r="AB145" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AC145"/>
       <c r="AD145">
         <v>2015</v>
       </c>
-      <c r="AE145" s="24">
+      <c r="AE145">
         <v>2.3507807000000001</v>
       </c>
-      <c r="AF145" s="24">
+      <c r="AF145">
         <v>48.827914999999997</v>
       </c>
       <c r="AG145">
@@ -16560,25 +15969,18 @@
         <v>118</v>
       </c>
       <c r="B146" t="s">
+        <v>684</v>
+      </c>
+      <c r="D146" t="s">
+        <v>685</v>
+      </c>
+      <c r="E146" s="23" t="s">
         <v>686</v>
       </c>
-      <c r="C146"/>
-      <c r="D146" t="s">
-        <v>687</v>
-      </c>
-      <c r="E146" s="23" t="s">
-        <v>688</v>
-      </c>
       <c r="F146" s="23"/>
-      <c r="G146"/>
       <c r="H146" s="2">
         <v>0</v>
       </c>
-      <c r="I146"/>
-      <c r="J146"/>
-      <c r="K146"/>
-      <c r="L146"/>
-      <c r="M146"/>
       <c r="N146" s="23" t="s">
         <v>41</v>
       </c>
@@ -16586,9 +15988,8 @@
         <v>42</v>
       </c>
       <c r="P146" t="s">
-        <v>689</v>
-      </c>
-      <c r="Q146"/>
+        <v>687</v>
+      </c>
       <c r="R146" s="3">
         <v>42149</v>
       </c>
@@ -16610,27 +16011,23 @@
       <c r="X146" s="5">
         <v>0.45833333333575871</v>
       </c>
-      <c r="Y146"/>
       <c r="Z146" s="23" t="s">
-        <v>690</v>
-      </c>
-      <c r="AA146"/>
-      <c r="AB146"/>
-      <c r="AC146"/>
+        <v>688</v>
+      </c>
       <c r="AD146">
         <v>2015</v>
       </c>
-      <c r="AE146" s="24">
+      <c r="AE146">
         <v>2.3521334</v>
       </c>
-      <c r="AF146" s="24">
+      <c r="AF146">
         <v>48.856505599999998</v>
       </c>
       <c r="AG146">
-        <v>2.3521334</v>
+        <v>2.3507807000000001</v>
       </c>
       <c r="AH146">
-        <v>48.856505599999998</v>
+        <v>48.827914999999997</v>
       </c>
     </row>
     <row r="147" spans="1:34" x14ac:dyDescent="0.25">
@@ -16638,20 +16035,19 @@
         <v>119</v>
       </c>
       <c r="B147" t="s">
+        <v>689</v>
+      </c>
+      <c r="D147" t="s">
+        <v>690</v>
+      </c>
+      <c r="E147" s="23" t="s">
         <v>691</v>
-      </c>
-      <c r="C147"/>
-      <c r="D147" t="s">
-        <v>692</v>
-      </c>
-      <c r="E147" s="23" t="s">
-        <v>693</v>
       </c>
       <c r="F147" s="23">
         <v>16</v>
       </c>
       <c r="G147" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H147" s="2">
         <v>1</v>
@@ -16664,7 +16060,7 @@
         <v>39</v>
       </c>
       <c r="L147" s="23" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="M147" s="9">
         <v>75020</v>
@@ -16676,9 +16072,8 @@
         <v>42</v>
       </c>
       <c r="P147" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q147"/>
+        <v>694</v>
+      </c>
       <c r="R147" s="3">
         <v>42147</v>
       </c>
@@ -16700,9 +16095,8 @@
       <c r="X147" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y147"/>
       <c r="Z147" s="23" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AA147" s="6" t="s">
         <v>46</v>
@@ -16710,14 +16104,13 @@
       <c r="AB147" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC147"/>
       <c r="AD147">
         <v>2015</v>
       </c>
-      <c r="AE147" s="24">
+      <c r="AE147">
         <v>2.4128907000000002</v>
       </c>
-      <c r="AF147" s="24">
+      <c r="AF147">
         <v>48.863517000000002</v>
       </c>
       <c r="AG147">
@@ -16732,20 +16125,19 @@
         <v>120</v>
       </c>
       <c r="B148" t="s">
+        <v>696</v>
+      </c>
+      <c r="D148" t="s">
+        <v>697</v>
+      </c>
+      <c r="E148" s="23" t="s">
         <v>698</v>
-      </c>
-      <c r="C148"/>
-      <c r="D148" t="s">
-        <v>699</v>
-      </c>
-      <c r="E148" s="23" t="s">
-        <v>700</v>
       </c>
       <c r="F148" s="23">
         <v>50</v>
       </c>
       <c r="G148" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H148" s="2">
         <v>0</v>
@@ -16753,12 +16145,11 @@
       <c r="I148" s="23">
         <v>150</v>
       </c>
-      <c r="J148"/>
       <c r="K148" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L148" s="23" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="M148" s="23">
         <v>75020</v>
@@ -16770,9 +16161,8 @@
         <v>42</v>
       </c>
       <c r="P148" t="s">
-        <v>703</v>
-      </c>
-      <c r="Q148"/>
+        <v>701</v>
+      </c>
       <c r="R148" s="3">
         <v>42150</v>
       </c>
@@ -16795,10 +16185,10 @@
         <v>0.125</v>
       </c>
       <c r="Y148" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="Z148" s="23" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AA148" s="6" t="s">
         <v>51</v>
@@ -16806,14 +16196,13 @@
       <c r="AB148" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC148"/>
       <c r="AD148">
         <v>2015</v>
       </c>
-      <c r="AE148" s="24">
+      <c r="AE148">
         <v>2.3981026999999999</v>
       </c>
-      <c r="AF148" s="24">
+      <c r="AF148">
         <v>48.870346400000003</v>
       </c>
       <c r="AG148">
@@ -16828,20 +16217,19 @@
         <v>121</v>
       </c>
       <c r="B149" t="s">
+        <v>704</v>
+      </c>
+      <c r="D149" t="s">
+        <v>705</v>
+      </c>
+      <c r="E149" s="23" t="s">
         <v>706</v>
-      </c>
-      <c r="C149"/>
-      <c r="D149" t="s">
-        <v>707</v>
-      </c>
-      <c r="E149" s="23" t="s">
-        <v>708</v>
       </c>
       <c r="F149" s="23">
         <v>23</v>
       </c>
       <c r="G149" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H149" s="2">
         <v>0</v>
@@ -16849,12 +16237,11 @@
       <c r="I149" s="23">
         <v>104</v>
       </c>
-      <c r="J149"/>
       <c r="K149" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L149" s="23" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M149" s="23">
         <v>75019</v>
@@ -16866,9 +16253,8 @@
         <v>42</v>
       </c>
       <c r="P149" t="s">
-        <v>711</v>
-      </c>
-      <c r="Q149"/>
+        <v>709</v>
+      </c>
       <c r="R149" s="3">
         <v>42153</v>
       </c>
@@ -16891,10 +16277,10 @@
         <v>0.25</v>
       </c>
       <c r="Y149" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="Z149" s="23" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AA149" s="6" t="s">
         <v>87</v>
@@ -16902,14 +16288,13 @@
       <c r="AB149" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC149"/>
       <c r="AD149">
         <v>2015</v>
       </c>
-      <c r="AE149" s="24">
+      <c r="AE149">
         <v>2.3688153999999999</v>
       </c>
-      <c r="AF149" s="24">
+      <c r="AF149">
         <v>48.8902851</v>
       </c>
       <c r="AG149">
@@ -16924,20 +16309,19 @@
         <v>122</v>
       </c>
       <c r="B150" t="s">
+        <v>712</v>
+      </c>
+      <c r="D150" t="s">
+        <v>713</v>
+      </c>
+      <c r="E150" s="23" t="s">
         <v>714</v>
-      </c>
-      <c r="C150"/>
-      <c r="D150" t="s">
-        <v>715</v>
-      </c>
-      <c r="E150" s="23" t="s">
-        <v>716</v>
       </c>
       <c r="F150" s="23">
         <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H150" s="2">
         <v>0</v>
@@ -16945,7 +16329,6 @@
       <c r="I150" s="23">
         <v>21</v>
       </c>
-      <c r="J150"/>
       <c r="K150" s="23" t="s">
         <v>39</v>
       </c>
@@ -16964,7 +16347,6 @@
       <c r="P150" t="s">
         <v>183</v>
       </c>
-      <c r="Q150"/>
       <c r="R150" s="3">
         <v>42151</v>
       </c>
@@ -16986,7 +16368,6 @@
       <c r="X150" s="5">
         <v>0.20833333332848269</v>
       </c>
-      <c r="Y150"/>
       <c r="Z150" s="23" t="s">
         <v>185</v>
       </c>
@@ -16996,14 +16377,13 @@
       <c r="AB150" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC150"/>
       <c r="AD150">
         <v>2015</v>
       </c>
-      <c r="AE150" s="24">
+      <c r="AE150">
         <v>2.2468648</v>
       </c>
-      <c r="AF150" s="24">
+      <c r="AF150">
         <v>48.895147199999997</v>
       </c>
       <c r="AG150">
@@ -17018,20 +16398,19 @@
         <v>123</v>
       </c>
       <c r="B151" t="s">
+        <v>716</v>
+      </c>
+      <c r="D151" t="s">
+        <v>717</v>
+      </c>
+      <c r="E151" s="23" t="s">
         <v>718</v>
-      </c>
-      <c r="C151"/>
-      <c r="D151" t="s">
-        <v>719</v>
-      </c>
-      <c r="E151" s="23" t="s">
-        <v>720</v>
       </c>
       <c r="F151" s="23">
         <v>60</v>
       </c>
       <c r="G151" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H151" s="2">
         <v>0</v>
@@ -17046,21 +16425,20 @@
         <v>296</v>
       </c>
       <c r="L151" s="23" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M151" s="23">
         <v>78600</v>
       </c>
       <c r="N151" s="23" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="O151" s="23" t="s">
         <v>42</v>
       </c>
       <c r="P151" t="s">
-        <v>724</v>
-      </c>
-      <c r="Q151"/>
+        <v>722</v>
+      </c>
       <c r="R151" s="3">
         <v>42150</v>
       </c>
@@ -17083,10 +16461,10 @@
         <v>0.29166666666424129</v>
       </c>
       <c r="Y151" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="Z151" s="23" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AA151" s="14" t="s">
         <v>239</v>
@@ -17094,14 +16472,13 @@
       <c r="AB151" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC151"/>
       <c r="AD151">
         <v>2015</v>
       </c>
-      <c r="AE151" s="24">
+      <c r="AE151">
         <v>2.1440472000000002</v>
       </c>
-      <c r="AF151" s="24">
+      <c r="AF151">
         <v>48.945041400000001</v>
       </c>
       <c r="AG151">
@@ -17116,20 +16493,19 @@
         <v>124</v>
       </c>
       <c r="B152" t="s">
+        <v>725</v>
+      </c>
+      <c r="D152" t="s">
+        <v>726</v>
+      </c>
+      <c r="E152" s="23" t="s">
         <v>727</v>
-      </c>
-      <c r="C152"/>
-      <c r="D152" t="s">
-        <v>728</v>
-      </c>
-      <c r="E152" s="23" t="s">
-        <v>729</v>
       </c>
       <c r="F152" s="23">
         <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H152" s="2">
         <v>0</v>
@@ -17137,12 +16513,11 @@
       <c r="I152" s="23">
         <v>54</v>
       </c>
-      <c r="J152"/>
       <c r="K152" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L152" s="23" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="M152" s="23">
         <v>75010</v>
@@ -17154,9 +16529,8 @@
         <v>42</v>
       </c>
       <c r="P152" t="s">
-        <v>732</v>
-      </c>
-      <c r="Q152"/>
+        <v>730</v>
+      </c>
       <c r="R152" s="3">
         <v>42151</v>
       </c>
@@ -17179,10 +16553,10 @@
         <v>0.16666666666424129</v>
       </c>
       <c r="Y152" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="Z152" s="23" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AA152" s="6" t="s">
         <v>56</v>
@@ -17190,14 +16564,13 @@
       <c r="AB152" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC152"/>
       <c r="AD152">
         <v>2015</v>
       </c>
-      <c r="AE152" s="24">
+      <c r="AE152">
         <v>2.354098</v>
       </c>
-      <c r="AF152" s="24">
+      <c r="AF152">
         <v>48.872178400000003</v>
       </c>
       <c r="AG152">
@@ -17212,14 +16585,13 @@
         <v>125</v>
       </c>
       <c r="B153" t="s">
+        <v>733</v>
+      </c>
+      <c r="D153" t="s">
+        <v>734</v>
+      </c>
+      <c r="E153" s="23" t="s">
         <v>735</v>
-      </c>
-      <c r="C153"/>
-      <c r="D153" t="s">
-        <v>736</v>
-      </c>
-      <c r="E153" s="23" t="s">
-        <v>737</v>
       </c>
       <c r="F153" s="23">
         <v>2</v>
@@ -17252,7 +16624,6 @@
       <c r="P153" t="s">
         <v>276</v>
       </c>
-      <c r="Q153"/>
       <c r="R153" s="3">
         <v>42148</v>
       </c>
@@ -17274,7 +16645,6 @@
       <c r="X153" s="5">
         <v>0.41666666667151731</v>
       </c>
-      <c r="Y153"/>
       <c r="Z153" s="23"/>
       <c r="AA153" s="6" t="s">
         <v>51</v>
@@ -17282,14 +16652,13 @@
       <c r="AB153" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC153"/>
       <c r="AD153">
         <v>2015</v>
       </c>
-      <c r="AE153" s="24">
+      <c r="AE153">
         <v>2.3912387000000002</v>
       </c>
-      <c r="AF153" s="24">
+      <c r="AF153">
         <v>48.8722827</v>
       </c>
       <c r="AG153">
@@ -17304,14 +16673,13 @@
         <v>126</v>
       </c>
       <c r="B154" s="23" t="s">
+        <v>736</v>
+      </c>
+      <c r="D154" t="s">
+        <v>737</v>
+      </c>
+      <c r="E154" s="23" t="s">
         <v>738</v>
-      </c>
-      <c r="C154"/>
-      <c r="D154" t="s">
-        <v>739</v>
-      </c>
-      <c r="E154" s="23" t="s">
-        <v>740</v>
       </c>
       <c r="F154" s="23">
         <v>47</v>
@@ -17325,7 +16693,6 @@
       <c r="I154" s="23">
         <v>13</v>
       </c>
-      <c r="J154"/>
       <c r="K154" s="23" t="s">
         <v>39</v>
       </c>
@@ -17344,7 +16711,6 @@
       <c r="P154" t="s">
         <v>138</v>
       </c>
-      <c r="Q154"/>
       <c r="R154" s="3">
         <v>42151</v>
       </c>
@@ -17366,7 +16732,6 @@
       <c r="X154" s="5">
         <v>0.25</v>
       </c>
-      <c r="Y154"/>
       <c r="Z154" s="23"/>
       <c r="AA154" s="6" t="s">
         <v>61</v>
@@ -17374,14 +16739,13 @@
       <c r="AB154" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC154"/>
       <c r="AD154">
         <v>2015</v>
       </c>
-      <c r="AE154" s="24">
+      <c r="AE154">
         <v>2.3697018000000001</v>
       </c>
-      <c r="AF154" s="24">
+      <c r="AF154">
         <v>48.871199300000001</v>
       </c>
       <c r="AG154">
@@ -17396,14 +16760,13 @@
         <v>127</v>
       </c>
       <c r="B155" s="23" t="s">
+        <v>739</v>
+      </c>
+      <c r="D155" t="s">
+        <v>740</v>
+      </c>
+      <c r="E155" s="23" t="s">
         <v>741</v>
-      </c>
-      <c r="C155"/>
-      <c r="D155" t="s">
-        <v>742</v>
-      </c>
-      <c r="E155" s="23" t="s">
-        <v>743</v>
       </c>
       <c r="F155" s="23">
         <v>47</v>
@@ -17417,7 +16780,6 @@
       <c r="I155" s="23">
         <v>13</v>
       </c>
-      <c r="J155"/>
       <c r="K155" s="23" t="s">
         <v>39</v>
       </c>
@@ -17436,7 +16798,6 @@
       <c r="P155" t="s">
         <v>138</v>
       </c>
-      <c r="Q155"/>
       <c r="R155" s="3">
         <v>42153</v>
       </c>
@@ -17458,7 +16819,6 @@
       <c r="X155" s="5">
         <v>0.54166666667151731</v>
       </c>
-      <c r="Y155"/>
       <c r="Z155" s="23"/>
       <c r="AA155" s="6" t="s">
         <v>71</v>
@@ -17466,14 +16826,13 @@
       <c r="AB155" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AC155"/>
       <c r="AD155">
         <v>2015</v>
       </c>
-      <c r="AE155" s="24">
+      <c r="AE155">
         <v>2.3697018000000001</v>
       </c>
-      <c r="AF155" s="24">
+      <c r="AF155">
         <v>48.871199300000001</v>
       </c>
       <c r="AG155">
@@ -17488,20 +16847,19 @@
         <v>128</v>
       </c>
       <c r="B156" t="s">
+        <v>742</v>
+      </c>
+      <c r="D156" t="s">
+        <v>743</v>
+      </c>
+      <c r="E156" s="23" t="s">
         <v>744</v>
-      </c>
-      <c r="C156"/>
-      <c r="D156" t="s">
-        <v>745</v>
-      </c>
-      <c r="E156" s="23" t="s">
-        <v>746</v>
       </c>
       <c r="F156" s="23">
         <v>61</v>
       </c>
       <c r="G156" s="23" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H156" s="2">
         <v>0</v>
@@ -17509,12 +16867,11 @@
       <c r="I156" s="23">
         <v>4</v>
       </c>
-      <c r="J156"/>
       <c r="K156" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L156" s="23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="M156" s="23">
         <v>75004</v>
@@ -17526,9 +16883,8 @@
         <v>42</v>
       </c>
       <c r="P156" t="s">
-        <v>749</v>
-      </c>
-      <c r="Q156"/>
+        <v>747</v>
+      </c>
       <c r="R156" s="3">
         <v>42151</v>
       </c>
@@ -17551,10 +16907,10 @@
         <v>0.25</v>
       </c>
       <c r="Y156" s="6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="Z156" s="23" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AA156" s="6" t="s">
         <v>56</v>
@@ -17562,14 +16918,13 @@
       <c r="AB156" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC156"/>
       <c r="AD156">
         <v>2015</v>
       </c>
-      <c r="AE156" s="24">
+      <c r="AE156">
         <v>2.3653776</v>
       </c>
-      <c r="AF156" s="24">
+      <c r="AF156">
         <v>48.8486397</v>
       </c>
       <c r="AG156">
@@ -17584,20 +16939,19 @@
         <v>129</v>
       </c>
       <c r="B157" t="s">
+        <v>750</v>
+      </c>
+      <c r="D157" t="s">
+        <v>751</v>
+      </c>
+      <c r="E157" s="23" t="s">
         <v>752</v>
-      </c>
-      <c r="C157"/>
-      <c r="D157" t="s">
-        <v>753</v>
-      </c>
-      <c r="E157" s="23" t="s">
-        <v>754</v>
       </c>
       <c r="F157" s="23">
         <v>64</v>
       </c>
       <c r="G157" s="23" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="H157" s="2">
         <v>0</v>
@@ -17605,24 +16959,23 @@
       <c r="I157" s="23">
         <v>45</v>
       </c>
-      <c r="J157"/>
       <c r="K157" s="23" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="L157" s="23" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="M157" s="23">
         <v>92100</v>
       </c>
       <c r="N157" s="23" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="O157" s="23" t="s">
         <v>42</v>
       </c>
       <c r="P157" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="Q157" s="22"/>
       <c r="R157" s="3">
@@ -17647,10 +17000,10 @@
         <v>0.25</v>
       </c>
       <c r="Y157" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="Z157" s="23" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AA157" s="6" t="s">
         <v>87</v>
@@ -17658,14 +17011,13 @@
       <c r="AB157" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC157"/>
       <c r="AD157">
         <v>2015</v>
       </c>
-      <c r="AE157" s="24">
+      <c r="AE157">
         <v>2.2356161999999999</v>
       </c>
-      <c r="AF157" s="24">
+      <c r="AF157">
         <v>48.825096299999998</v>
       </c>
       <c r="AG157">
@@ -17680,20 +17032,19 @@
         <v>130</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C158"/>
+        <v>500</v>
+      </c>
       <c r="D158" s="23" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E158" s="23" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F158" s="23">
         <v>64</v>
       </c>
       <c r="G158" s="23" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="H158" s="2">
         <v>0</v>
@@ -17701,24 +17052,23 @@
       <c r="I158" s="23">
         <v>45</v>
       </c>
-      <c r="J158"/>
       <c r="K158" s="23" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="L158" s="23" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="M158" s="23">
         <v>92100</v>
       </c>
       <c r="N158" s="23" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="O158" s="23" t="s">
         <v>42</v>
       </c>
       <c r="P158" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="Q158" s="22"/>
       <c r="R158" s="3">
@@ -17742,9 +17092,8 @@
       <c r="X158" s="5">
         <v>0.10416666666424131</v>
       </c>
-      <c r="Y158"/>
       <c r="Z158" s="23" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AA158" s="6" t="s">
         <v>159</v>
@@ -17752,14 +17101,13 @@
       <c r="AB158" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AC158"/>
       <c r="AD158">
         <v>2015</v>
       </c>
-      <c r="AE158" s="24">
+      <c r="AE158">
         <v>2.2356161999999999</v>
       </c>
-      <c r="AF158" s="24">
+      <c r="AF158">
         <v>48.825096299999998</v>
       </c>
       <c r="AG158">
@@ -17774,20 +17122,19 @@
         <v>131</v>
       </c>
       <c r="B159" t="s">
+        <v>762</v>
+      </c>
+      <c r="D159" t="s">
+        <v>763</v>
+      </c>
+      <c r="E159" s="23" t="s">
         <v>764</v>
-      </c>
-      <c r="C159"/>
-      <c r="D159" t="s">
-        <v>765</v>
-      </c>
-      <c r="E159" s="23" t="s">
-        <v>766</v>
       </c>
       <c r="F159" s="23">
         <v>66</v>
       </c>
       <c r="G159" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H159" s="2">
         <v>0</v>
@@ -17795,12 +17142,11 @@
       <c r="I159" s="23">
         <v>10</v>
       </c>
-      <c r="J159"/>
       <c r="K159" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L159" s="23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M159" s="23">
         <v>75011</v>
@@ -17812,7 +17158,7 @@
         <v>42</v>
       </c>
       <c r="P159" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q159" s="22"/>
       <c r="R159" s="3">
@@ -17836,7 +17182,6 @@
       <c r="X159" s="5">
         <v>0.20833333332848269</v>
       </c>
-      <c r="Y159"/>
       <c r="Z159" s="23"/>
       <c r="AA159" s="6" t="s">
         <v>159</v>
@@ -17844,14 +17189,13 @@
       <c r="AB159" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AC159"/>
       <c r="AD159">
         <v>2015</v>
       </c>
-      <c r="AE159" s="24">
+      <c r="AE159">
         <v>2.3722474</v>
       </c>
-      <c r="AF159" s="24">
+      <c r="AF159">
         <v>48.8567897</v>
       </c>
       <c r="AG159">
@@ -17866,20 +17210,19 @@
         <v>132</v>
       </c>
       <c r="B160" t="s">
+        <v>762</v>
+      </c>
+      <c r="D160" t="s">
+        <v>763</v>
+      </c>
+      <c r="E160" s="23" t="s">
         <v>764</v>
-      </c>
-      <c r="C160"/>
-      <c r="D160" t="s">
-        <v>765</v>
-      </c>
-      <c r="E160" s="23" t="s">
-        <v>766</v>
       </c>
       <c r="F160" s="23">
         <v>66</v>
       </c>
       <c r="G160" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H160" s="2">
         <v>0</v>
@@ -17887,12 +17230,11 @@
       <c r="I160" s="23">
         <v>10</v>
       </c>
-      <c r="J160"/>
       <c r="K160" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L160" s="23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M160" s="23">
         <v>75011</v>
@@ -17904,7 +17246,7 @@
         <v>42</v>
       </c>
       <c r="P160" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q160" s="22"/>
       <c r="R160" s="3">
@@ -17928,7 +17270,6 @@
       <c r="X160" s="5">
         <v>0.10416666666424131</v>
       </c>
-      <c r="Y160"/>
       <c r="Z160" s="23"/>
       <c r="AA160" s="6" t="s">
         <v>87</v>
@@ -17936,14 +17277,13 @@
       <c r="AB160" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AC160"/>
       <c r="AD160">
         <v>2015</v>
       </c>
-      <c r="AE160" s="24">
+      <c r="AE160">
         <v>2.3722474</v>
       </c>
-      <c r="AF160" s="24">
+      <c r="AF160">
         <v>48.8567897</v>
       </c>
       <c r="AG160">
@@ -17958,14 +17298,13 @@
         <v>133</v>
       </c>
       <c r="B161" t="s">
+        <v>765</v>
+      </c>
+      <c r="D161" t="s">
+        <v>766</v>
+      </c>
+      <c r="E161" s="23" t="s">
         <v>767</v>
-      </c>
-      <c r="C161"/>
-      <c r="D161" t="s">
-        <v>768</v>
-      </c>
-      <c r="E161" s="23" t="s">
-        <v>769</v>
       </c>
       <c r="F161" s="23">
         <v>49</v>
@@ -18020,7 +17359,6 @@
       <c r="X161" s="5">
         <v>0.125</v>
       </c>
-      <c r="Y161"/>
       <c r="Z161" s="23"/>
       <c r="AA161" s="6" t="s">
         <v>237</v>
@@ -18028,14 +17366,13 @@
       <c r="AB161" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AC161"/>
       <c r="AD161">
         <v>2015</v>
       </c>
-      <c r="AE161" s="24">
+      <c r="AE161">
         <v>2.3854926999999999</v>
       </c>
-      <c r="AF161" s="24">
+      <c r="AF161">
         <v>48.866681300000003</v>
       </c>
       <c r="AG161">
@@ -18050,14 +17387,13 @@
         <v>134</v>
       </c>
       <c r="B162" s="23" t="s">
+        <v>768</v>
+      </c>
+      <c r="D162" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="E162" s="23" t="s">
         <v>770</v>
-      </c>
-      <c r="C162"/>
-      <c r="D162" s="23" t="s">
-        <v>771</v>
-      </c>
-      <c r="E162" s="23" t="s">
-        <v>772</v>
       </c>
       <c r="F162" s="23">
         <v>44</v>
@@ -18112,7 +17448,6 @@
       <c r="X162" s="5">
         <v>6.25E-2</v>
       </c>
-      <c r="Y162"/>
       <c r="Z162" t="s">
         <v>70</v>
       </c>
@@ -18122,14 +17457,13 @@
       <c r="AB162" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC162"/>
       <c r="AD162">
         <v>2015</v>
       </c>
-      <c r="AE162" s="24">
+      <c r="AE162">
         <v>2.3392990999999999</v>
       </c>
-      <c r="AF162" s="24">
+      <c r="AF162">
         <v>48.890469600000003</v>
       </c>
       <c r="AG162">
@@ -18144,14 +17478,13 @@
         <v>137</v>
       </c>
       <c r="B163" s="23" t="s">
+        <v>771</v>
+      </c>
+      <c r="D163" s="23" t="s">
+        <v>772</v>
+      </c>
+      <c r="E163" s="23" t="s">
         <v>773</v>
-      </c>
-      <c r="C163"/>
-      <c r="D163" s="23" t="s">
-        <v>774</v>
-      </c>
-      <c r="E163" s="23" t="s">
-        <v>775</v>
       </c>
       <c r="F163" s="23">
         <v>44</v>
@@ -18206,7 +17539,6 @@
       <c r="X163" s="5">
         <v>8.3333333335758653E-2</v>
       </c>
-      <c r="Y163"/>
       <c r="Z163" t="s">
         <v>70</v>
       </c>
@@ -18216,14 +17548,13 @@
       <c r="AB163" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="AC163"/>
       <c r="AD163">
         <v>2015</v>
       </c>
-      <c r="AE163" s="24">
+      <c r="AE163">
         <v>2.3392990999999999</v>
       </c>
-      <c r="AF163" s="24">
+      <c r="AF163">
         <v>48.890469600000003</v>
       </c>
       <c r="AG163">
@@ -18238,14 +17569,14 @@
         <v>138</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C164" s="23"/>
       <c r="D164" s="23" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E164" s="23" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F164" s="23">
         <v>44</v>
@@ -18278,7 +17609,6 @@
       <c r="P164" t="s">
         <v>68</v>
       </c>
-      <c r="Q164"/>
       <c r="R164" s="3">
         <v>42155</v>
       </c>
@@ -18300,7 +17630,6 @@
       <c r="X164" s="5">
         <v>9.375E-2</v>
       </c>
-      <c r="Y164"/>
       <c r="Z164" t="s">
         <v>70</v>
       </c>
@@ -18310,14 +17639,13 @@
       <c r="AB164" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="AC164"/>
       <c r="AD164">
         <v>2015</v>
       </c>
-      <c r="AE164" s="24">
+      <c r="AE164">
         <v>2.3392990999999999</v>
       </c>
-      <c r="AF164" s="24">
+      <c r="AF164">
         <v>48.890469600000003</v>
       </c>
       <c r="AG164">
@@ -18332,14 +17660,14 @@
         <v>139</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C165" s="23"/>
       <c r="D165" s="23" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E165" s="23" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F165" s="23">
         <v>44</v>
@@ -18372,7 +17700,6 @@
       <c r="P165" t="s">
         <v>68</v>
       </c>
-      <c r="Q165"/>
       <c r="R165" s="3">
         <v>42147</v>
       </c>
@@ -18394,22 +17721,19 @@
       <c r="X165" s="5">
         <v>0.10416666666424131</v>
       </c>
-      <c r="Y165"/>
-      <c r="Z165"/>
       <c r="AA165" s="6" t="s">
         <v>46</v>
       </c>
       <c r="AB165" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC165"/>
       <c r="AD165">
         <v>2015</v>
       </c>
-      <c r="AE165" s="24">
+      <c r="AE165">
         <v>2.3392990999999999</v>
       </c>
-      <c r="AF165" s="24">
+      <c r="AF165">
         <v>48.890469600000003</v>
       </c>
       <c r="AG165">
@@ -18424,14 +17748,14 @@
         <v>140</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C166" s="23"/>
       <c r="D166" s="23" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E166" s="23" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F166" s="23">
         <v>20</v>
@@ -18445,7 +17769,6 @@
       <c r="I166" s="23">
         <v>1</v>
       </c>
-      <c r="J166"/>
       <c r="K166" s="23" t="s">
         <v>39</v>
       </c>
@@ -18464,7 +17787,6 @@
       <c r="P166" t="s">
         <v>43</v>
       </c>
-      <c r="Q166"/>
       <c r="R166" s="3">
         <v>42151</v>
       </c>
@@ -18486,22 +17808,19 @@
       <c r="X166" s="5">
         <v>0.16666666667151731</v>
       </c>
-      <c r="Y166"/>
-      <c r="Z166"/>
       <c r="AA166" s="6" t="s">
         <v>56</v>
       </c>
       <c r="AB166" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC166"/>
       <c r="AD166">
         <v>2015</v>
       </c>
-      <c r="AE166" s="24">
+      <c r="AE166">
         <v>2.3475419999999998</v>
       </c>
-      <c r="AF166" s="24">
+      <c r="AF166">
         <v>48.868741399999998</v>
       </c>
       <c r="AG166">
@@ -18516,14 +17835,14 @@
         <v>141</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C167" s="23"/>
       <c r="D167" s="23" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E167" s="23" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F167" s="23">
         <v>46</v>
@@ -18537,7 +17856,6 @@
       <c r="I167" s="23">
         <v>3</v>
       </c>
-      <c r="J167"/>
       <c r="K167" s="23" t="s">
         <v>39</v>
       </c>
@@ -18556,7 +17874,6 @@
       <c r="P167" t="s">
         <v>219</v>
       </c>
-      <c r="Q167"/>
       <c r="R167" s="3">
         <v>42147</v>
       </c>
@@ -18576,16 +17893,10 @@
       <c r="X167" s="5">
         <v>0.20833333333575871</v>
       </c>
-      <c r="Y167"/>
-      <c r="Z167"/>
-      <c r="AA167"/>
-      <c r="AB167"/>
-      <c r="AC167"/>
-      <c r="AD167"/>
-      <c r="AE167" s="24">
+      <c r="AE167">
         <v>2.3469514999999999</v>
       </c>
-      <c r="AF167" s="24">
+      <c r="AF167">
         <v>48.892251700000003</v>
       </c>
       <c r="AG167">
@@ -18594,42 +17905,6 @@
       <c r="AH167">
         <v>48.892251700000003</v>
       </c>
-    </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A168"/>
-      <c r="B168"/>
-      <c r="C168"/>
-      <c r="D168"/>
-      <c r="E168"/>
-      <c r="F168"/>
-      <c r="G168"/>
-      <c r="H168"/>
-      <c r="I168"/>
-      <c r="J168"/>
-      <c r="K168"/>
-      <c r="L168"/>
-      <c r="M168"/>
-      <c r="N168"/>
-      <c r="O168"/>
-      <c r="P168"/>
-      <c r="Q168"/>
-      <c r="R168"/>
-      <c r="S168"/>
-      <c r="T168"/>
-      <c r="U168"/>
-      <c r="V168"/>
-      <c r="W168"/>
-      <c r="X168"/>
-      <c r="Y168"/>
-      <c r="Z168"/>
-      <c r="AA168"/>
-      <c r="AB168"/>
-      <c r="AC168"/>
-      <c r="AD168"/>
-      <c r="AE168"/>
-      <c r="AF168"/>
-      <c r="AG168"/>
-      <c r="AH168"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AH167"/>
